--- a/runs/run947/NotionalETEOutput947.xlsx
+++ b/runs/run947/NotionalETEOutput947.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_298.MISSILE_HELLMASKER2_298</t>
+    <t>MISSILE_HELLMASKER1_276.MISSILE_HELLMASKER1_276</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I2">
-        <v>-1311.442068201172</v>
+        <v>-1101.541652570057</v>
       </c>
       <c r="J2">
-        <v>1705.078792115311</v>
+        <v>2941.011042373023</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I3">
-        <v>-1285.550709749147</v>
+        <v>-1079.79428723226</v>
       </c>
       <c r="J3">
-        <v>1663.601396463948</v>
+        <v>2869.46861325853</v>
       </c>
       <c r="K3">
-        <v>344.8882533042473</v>
+        <v>269.408273357404</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I4">
-        <v>-1259.021800414855</v>
+        <v>-1057.511413030229</v>
       </c>
       <c r="J4">
-        <v>1622.124000812584</v>
+        <v>2797.926184144038</v>
       </c>
       <c r="K4">
-        <v>672.5787973877461</v>
+        <v>525.3826152820164</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I5">
-        <v>-1231.839641094354</v>
+        <v>-1034.679843550841</v>
       </c>
       <c r="J5">
-        <v>1580.646605161221</v>
+        <v>2726.383755029545</v>
       </c>
       <c r="K5">
-        <v>983.071632250499</v>
+        <v>767.923025773839</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I6">
-        <v>-1203.988146107714</v>
+        <v>-1011.286067677683</v>
       </c>
       <c r="J6">
-        <v>1539.169209509858</v>
+        <v>2654.841325915052</v>
       </c>
       <c r="K6">
-        <v>1276.366757892504</v>
+        <v>997.0295048328702</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I7">
-        <v>-1175.450833679934</v>
+        <v>-987.3162415955267</v>
       </c>
       <c r="J7">
-        <v>1497.691813858494</v>
+        <v>2583.298896800559</v>
       </c>
       <c r="K7">
-        <v>1552.464174313763</v>
+        <v>1212.702052459112</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I8">
-        <v>-1146.210816187465</v>
+        <v>-962.7561805979329</v>
       </c>
       <c r="J8">
-        <v>1456.214418207131</v>
+        <v>2511.756467686067</v>
       </c>
       <c r="K8">
-        <v>1811.363881514274</v>
+        <v>1414.940668652563</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G9">
-        <v>-58.16961038317017</v>
+        <v>-95.31080053036884</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I9">
-        <v>-1116.250790164567</v>
+        <v>-937.5913506931154</v>
       </c>
       <c r="J9">
-        <v>1414.737022555767</v>
+        <v>2440.214038571574</v>
       </c>
       <c r="K9">
-        <v>2053.065879494039</v>
+        <v>1603.745353413223</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>211.4562557033805</v>
+        <v>153.2172141787289</v>
       </c>
       <c r="G10">
-        <v>-48.564170342098</v>
+        <v>-79.5723045402715</v>
       </c>
       <c r="H10">
-        <v>1137.029965392254</v>
+        <v>238.23308428829</v>
       </c>
       <c r="I10">
-        <v>-1085.553026063575</v>
+        <v>-911.8068600031108</v>
       </c>
       <c r="J10">
-        <v>1373.259626904404</v>
+        <v>2368.671609457081</v>
       </c>
       <c r="K10">
-        <v>2277.570168253056</v>
+        <v>1779.116106741092</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.114722163774</v>
+        <v>118.9144319803047</v>
       </c>
       <c r="G11">
-        <v>-38.95873030102582</v>
+        <v>-63.83380855017418</v>
       </c>
       <c r="H11">
-        <v>1400.813266225156</v>
+        <v>293.5015567594519</v>
       </c>
       <c r="I11">
-        <v>-1054.09935776302</v>
+        <v>-885.3874499511612</v>
       </c>
       <c r="J11">
-        <v>1331.782231253041</v>
+        <v>2297.129180342589</v>
       </c>
       <c r="K11">
-        <v>2484.876747791325</v>
+        <v>1941.05292863617</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.3039461169444</v>
+        <v>98.76326825204413</v>
       </c>
       <c r="G12">
-        <v>-29.35329025995366</v>
+        <v>-48.09531256007686</v>
       </c>
       <c r="H12">
-        <v>1557.936090591388</v>
+        <v>326.4222855002652</v>
       </c>
       <c r="I12">
-        <v>-1021.871171817408</v>
+        <v>-858.317486232094</v>
       </c>
       <c r="J12">
-        <v>1290.304835601677</v>
+        <v>2225.586751228096</v>
       </c>
       <c r="K12">
-        <v>2674.985618108848</v>
+        <v>2089.555819098458</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.7477439744253</v>
+        <v>86.04237534259681</v>
       </c>
       <c r="G13">
-        <v>-19.74785021888148</v>
+        <v>-32.35681656997953</v>
       </c>
       <c r="H13">
-        <v>1670.221153640212</v>
+        <v>349.94850530433</v>
       </c>
       <c r="I13">
-        <v>-988.8493964422725</v>
+        <v>-830.5809495603543</v>
       </c>
       <c r="J13">
-        <v>1248.827439950314</v>
+        <v>2154.044322113603</v>
       </c>
       <c r="K13">
-        <v>2847.896779205625</v>
+        <v>2224.624778127956</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.5041198650408</v>
+        <v>77.17087626468408</v>
       </c>
       <c r="G14">
-        <v>-10.14241017780931</v>
+        <v>-16.61832057988219</v>
       </c>
       <c r="H14">
-        <v>1757.657472079564</v>
+        <v>368.2683600615738</v>
       </c>
       <c r="I14">
-        <v>-955.014490228001</v>
+        <v>-802.1614261902192</v>
       </c>
       <c r="J14">
-        <v>1207.35004429895</v>
+        <v>2082.50189299911</v>
       </c>
       <c r="K14">
-        <v>3003.610231081654</v>
+        <v>2346.259805724663</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.37000962473208</v>
+        <v>70.55247228147608</v>
       </c>
       <c r="G15">
-        <v>-0.5369701367371447</v>
+        <v>-0.8798245897848781</v>
       </c>
       <c r="H15">
-        <v>1829.274599060459</v>
+        <v>383.2737421252196</v>
       </c>
       <c r="I15">
-        <v>-920.3464305757461</v>
+        <v>-773.0420982025767</v>
       </c>
       <c r="J15">
-        <v>1165.872648647587</v>
+        <v>2010.959463884618</v>
       </c>
       <c r="K15">
-        <v>3142.125973736935</v>
+        <v>2454.460901888579</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.22841095749001</v>
+        <v>65.37780459932314</v>
       </c>
       <c r="G16">
-        <v>9.068469904335029</v>
+        <v>14.85867140031245</v>
       </c>
       <c r="H16">
-        <v>1889.929077816387</v>
+        <v>395.9822053933255</v>
       </c>
       <c r="I16">
-        <v>-884.8247018485844</v>
+        <v>-743.2057335525288</v>
       </c>
       <c r="J16">
-        <v>1124.395252996224</v>
+        <v>1939.417034770125</v>
       </c>
       <c r="K16">
-        <v>3263.44400717147</v>
+        <v>2549.228066619705</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.45033763884152</v>
+        <v>61.19112166455286</v>
       </c>
       <c r="G17">
-        <v>18.6739099454072</v>
+        <v>30.59716739040978</v>
       </c>
       <c r="H17">
-        <v>1942.53579131027</v>
+        <v>407.0044827223093</v>
       </c>
       <c r="I17">
-        <v>-848.4282832309074</v>
+        <v>-712.6346758719257</v>
       </c>
       <c r="J17">
-        <v>1082.917857344861</v>
+        <v>1867.874605655633</v>
       </c>
       <c r="K17">
-        <v>3367.564331385257</v>
+        <v>2630.56129991804</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.65247794150113</v>
+        <v>57.71468302999161</v>
       </c>
       <c r="G18">
-        <v>28.27934998647937</v>
+        <v>46.3356633805071</v>
       </c>
       <c r="H18">
-        <v>1988.982313696504</v>
+        <v>416.7360629086946</v>
       </c>
       <c r="I18">
-        <v>-811.1356362888614</v>
+        <v>-681.3108340207953</v>
       </c>
       <c r="J18">
-        <v>1041.440461693497</v>
+        <v>1796.33217654114</v>
       </c>
       <c r="K18">
-        <v>3454.486946378298</v>
+        <v>2698.460601783585</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.58665284209361</v>
+        <v>54.76866285670801</v>
       </c>
       <c r="G19">
-        <v>37.88479002755155</v>
+        <v>62.07415937060444</v>
       </c>
       <c r="H19">
-        <v>2030.561297613806</v>
+        <v>425.4477854504789</v>
       </c>
       <c r="I19">
-        <v>-772.9246922244733</v>
+        <v>-649.2156713814866</v>
       </c>
       <c r="J19">
-        <v>999.9630660421336</v>
+        <v>1724.789747426647</v>
       </c>
       <c r="K19">
-        <v>3524.211852150592</v>
+        <v>2752.925972216339</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.08434118234004</v>
+        <v>52.23095389223142</v>
       </c>
       <c r="G20">
-        <v>47.49023006862371</v>
+        <v>77.81265536070175</v>
       </c>
       <c r="H20">
-        <v>2068.196881737907</v>
+        <v>433.3332779685085</v>
       </c>
       <c r="I20">
-        <v>-733.7728388159237</v>
+        <v>-616.330194889193</v>
       </c>
       <c r="J20">
-        <v>958.4856703907705</v>
+        <v>1653.247318312154</v>
       </c>
       <c r="K20">
-        <v>3576.739048702138</v>
+        <v>2793.957411216302</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.02664213285732</v>
+        <v>50.01540283841977</v>
       </c>
       <c r="G21">
-        <v>57.09567010969588</v>
+        <v>93.55115135079907</v>
       </c>
       <c r="H21">
-        <v>2102.572690523395</v>
+        <v>440.535775001246</v>
       </c>
       <c r="I21">
-        <v>-693.6569070362334</v>
+        <v>-582.6349437923607</v>
       </c>
       <c r="J21">
-        <v>917.0082747394069</v>
+        <v>1581.704889197661</v>
       </c>
       <c r="K21">
-        <v>3612.068536032938</v>
+        <v>2821.554918783474</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.32698286939276</v>
+        <v>48.05928065984463</v>
       </c>
       <c r="G22">
-        <v>66.70111015076806</v>
+        <v>109.2896473408964</v>
       </c>
       <c r="H22">
-        <v>2134.208673067455</v>
+        <v>447.1642174569046</v>
       </c>
       <c r="I22">
-        <v>-652.5531573424486</v>
+        <v>-548.1099781363311</v>
       </c>
       <c r="J22">
-        <v>875.5308790880437</v>
+        <v>1510.162460083169</v>
       </c>
       <c r="K22">
-        <v>3630.20031414299</v>
+        <v>2835.718494917857</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.92064988981998</v>
+        <v>46.31569717355742</v>
       </c>
       <c r="G23">
-        <v>76.30655019184023</v>
+        <v>125.0281433309937</v>
       </c>
       <c r="H23">
-        <v>2163.509513383319</v>
+        <v>453.3033956431881</v>
       </c>
       <c r="I23">
-        <v>-610.4372656272105</v>
+        <v>-512.7348669634079</v>
       </c>
       <c r="J23">
-        <v>834.0534834366803</v>
+        <v>1438.620030968676</v>
       </c>
       <c r="K23">
-        <v>3631.134383032295</v>
+        <v>2836.448139619448</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.75817967791436</v>
+        <v>44.74881204873314</v>
       </c>
       <c r="G24">
-        <v>85.9119902329124</v>
+        <v>140.7666393210911</v>
       </c>
       <c r="H24">
-        <v>2190.796368567615</v>
+        <v>459.0205991197387</v>
       </c>
       <c r="I24">
-        <v>-567.2843088243949</v>
+        <v>-476.488676222357</v>
       </c>
       <c r="J24">
-        <v>792.5760877853169</v>
+        <v>1367.077601854184</v>
       </c>
       <c r="K24">
-        <v>3614.870742700853</v>
+        <v>2823.743852888249</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.80103507208602</v>
+        <v>43.3307019850111</v>
       </c>
       <c r="G25">
-        <v>95.51743027398457</v>
+        <v>156.5051353111884</v>
       </c>
       <c r="H25">
-        <v>2216.328383150861</v>
+        <v>464.3701244334025</v>
       </c>
       <c r="I25">
-        <v>-523.0687501603018</v>
+        <v>-439.3499563801915</v>
       </c>
       <c r="J25">
-        <v>751.0986921339536</v>
+        <v>1295.535172739691</v>
       </c>
       <c r="K25">
-        <v>3581.409393148664</v>
+        <v>2797.605634724259</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.01868946751759</v>
+        <v>42.03924798036464</v>
       </c>
       <c r="G26">
-        <v>105.1228703150568</v>
+        <v>172.2436313012857</v>
       </c>
       <c r="H26">
-        <v>2240.317693623695</v>
+        <v>469.3964189004274</v>
       </c>
       <c r="I26">
-        <v>-477.7644240416737</v>
+        <v>-401.2967297289086</v>
       </c>
       <c r="J26">
-        <v>709.6212964825902</v>
+        <v>1223.992743625198</v>
       </c>
       <c r="K26">
-        <v>3530.750334375728</v>
+        <v>2758.033485127479</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.38660790658146</v>
+        <v>40.85667246730022</v>
       </c>
       <c r="G27">
-        <v>114.7283103561289</v>
+        <v>187.982127291383</v>
       </c>
       <c r="H27">
-        <v>2262.940152553697</v>
+        <v>474.1363275476198</v>
       </c>
       <c r="I27">
-        <v>-431.3445205715902</v>
+        <v>-362.3064773796646</v>
       </c>
       <c r="J27">
-        <v>668.1439008312267</v>
+        <v>1152.450314510705</v>
       </c>
       <c r="K27">
-        <v>3462.893566382045</v>
+        <v>2705.027404097908</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.88481656885605</v>
+        <v>39.76850279230698</v>
       </c>
       <c r="G28">
-        <v>124.3337503972011</v>
+        <v>203.7206232814804</v>
       </c>
       <c r="H28">
-        <v>2284.343158845916</v>
+        <v>478.6207337262011</v>
       </c>
       <c r="I28">
-        <v>-383.7815696840843</v>
+        <v>-322.356125936695</v>
       </c>
       <c r="J28">
-        <v>626.6665051798634</v>
+        <v>1080.907885396213</v>
       </c>
       <c r="K28">
-        <v>3377.839089167615</v>
+        <v>2638.587391635547</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.49686835073167</v>
+        <v>38.76282169435143</v>
       </c>
       <c r="G29">
-        <v>133.9391904382733</v>
+        <v>219.4591192715777</v>
       </c>
       <c r="H29">
-        <v>2304.651483429885</v>
+        <v>482.8757797228978</v>
       </c>
       <c r="I29">
-        <v>-335.0474248880855</v>
+        <v>-281.4220338430912</v>
       </c>
       <c r="J29">
-        <v>585.1891095285</v>
+        <v>1009.36545628172</v>
       </c>
       <c r="K29">
-        <v>3275.586902732438</v>
+        <v>2558.713447740394</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.20908122409395</v>
+        <v>37.82971543394625</v>
       </c>
       <c r="G30">
-        <v>143.5446304793454</v>
+        <v>235.197615261675</v>
       </c>
       <c r="H30">
-        <v>2323.971676307024</v>
+        <v>486.9237901344595</v>
       </c>
       <c r="I30">
-        <v>-285.1132466110765</v>
+        <v>-239.4799773903567</v>
       </c>
       <c r="J30">
-        <v>543.7117138771366</v>
+        <v>937.8230271672272</v>
       </c>
       <c r="K30">
-        <v>3156.137007076513</v>
+        <v>2465.405572412451</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.00996830546248</v>
+        <v>36.96086083199889</v>
       </c>
       <c r="G31">
-        <v>153.1500705204176</v>
+        <v>250.9361112517724</v>
       </c>
       <c r="H31">
-        <v>2342.395450328105</v>
+        <v>490.7839808443486</v>
       </c>
       <c r="I31">
-        <v>-233.9494851325979</v>
+        <v>-196.5051363834582</v>
       </c>
       <c r="J31">
-        <v>502.2343182257733</v>
+        <v>866.2805980527347</v>
       </c>
       <c r="K31">
-        <v>3019.489402199843</v>
+        <v>2358.663765651719</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.88980513510368</v>
+        <v>36.1492117284191</v>
       </c>
       <c r="G32">
-        <v>162.7555105614898</v>
+        <v>266.6746072418697</v>
       </c>
       <c r="H32">
-        <v>2360.002314203831</v>
+        <v>494.473010697059</v>
       </c>
       <c r="I32">
-        <v>-181.5258630975092</v>
+        <v>-152.4720794528936</v>
       </c>
       <c r="J32">
-        <v>460.7569225744099</v>
+        <v>794.7381689382419</v>
       </c>
       <c r="K32">
-        <v>2865.644088102423</v>
+        <v>2238.488027458194</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.84029678436919</v>
+        <v>35.38875777437569</v>
       </c>
       <c r="G33">
-        <v>172.3609506025619</v>
+        <v>282.413103231967</v>
       </c>
       <c r="H33">
-        <v>2376.861646173419</v>
+        <v>498.0054159778375</v>
       </c>
       <c r="I33">
-        <v>-127.8113575986542</v>
+        <v>-107.3547490050832</v>
       </c>
       <c r="J33">
-        <v>419.2795269230467</v>
+        <v>723.1957398237494</v>
       </c>
       <c r="K33">
-        <v>2694.601064784259</v>
+        <v>2104.87835783188</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.85431868226193</v>
+        <v>34.67433664011511</v>
       </c>
       <c r="G34">
-        <v>181.9663906436341</v>
+        <v>298.1515992220643</v>
       </c>
       <c r="H34">
-        <v>2393.034345126984</v>
+        <v>501.3939563595719</v>
       </c>
       <c r="I34">
-        <v>-72.77418181832866</v>
+        <v>-61.1264458021783</v>
       </c>
       <c r="J34">
-        <v>377.8021312716832</v>
+        <v>651.6533107092565</v>
       </c>
       <c r="K34">
-        <v>2506.360332245345</v>
+        <v>1957.834756772775</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.92571262303634</v>
+        <v>34.00148620591649</v>
       </c>
       <c r="G35">
-        <v>191.5718306847063</v>
+        <v>313.8900952121617</v>
       </c>
       <c r="H35">
-        <v>2408.574158469937</v>
+        <v>504.649893119936</v>
       </c>
       <c r="I35">
-        <v>-16.38176621768617</v>
+        <v>-13.75981316216118</v>
       </c>
       <c r="J35">
-        <v>336.3247356203198</v>
+        <v>580.1108815947638</v>
       </c>
       <c r="K35">
-        <v>2300.921890485686</v>
+        <v>1797.357224280879</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.04912459307878</v>
+        <v>33.36632705450828</v>
       </c>
       <c r="G36">
-        <v>201.1772707257785</v>
+        <v>329.628591202259</v>
       </c>
       <c r="H36">
-        <v>2423.528759821562</v>
+        <v>507.7832149432271</v>
       </c>
       <c r="I36">
-        <v>41.39926073705124</v>
+        <v>34.77317923011351</v>
       </c>
       <c r="J36">
-        <v>294.8473399689565</v>
+        <v>508.5684524802713</v>
       </c>
       <c r="K36">
-        <v>2078.285739505279</v>
+        <v>1623.445760356193</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.21987465305789</v>
+        <v>32.76546819012876</v>
       </c>
       <c r="G37">
-        <v>210.7827107668506</v>
+        <v>345.3670871923563</v>
       </c>
       <c r="H37">
-        <v>2437.940631056724</v>
+        <v>510.802822727736</v>
       </c>
       <c r="I37">
-        <v>100.6030923229789</v>
+        <v>84.5012519105136</v>
       </c>
       <c r="J37">
-        <v>253.3699443175931</v>
+        <v>437.0260233657784</v>
       </c>
       <c r="K37">
-        <v>1838.451879304125</v>
+        <v>1436.100364998716</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.43385164962913</v>
+        <v>32.19593074861325</v>
       </c>
       <c r="G38">
-        <v>220.3881508079228</v>
+        <v>361.1055831824536</v>
       </c>
       <c r="H38">
-        <v>2451.847789827342</v>
+        <v>513.7166820176874</v>
       </c>
       <c r="I38">
-        <v>161.2647637951842</v>
+        <v>135.453832631681</v>
       </c>
       <c r="J38">
-        <v>211.8925486662298</v>
+        <v>365.4835942512859</v>
       </c>
       <c r="K38">
-        <v>1581.420309882225</v>
+        <v>1235.321038208449</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.68742734673618</v>
+        <v>31.65508577855485</v>
       </c>
       <c r="G39">
-        <v>229.993590848995</v>
+        <v>376.844079172551</v>
       </c>
       <c r="H39">
-        <v>2465.284393950511</v>
+        <v>516.531949636003</v>
       </c>
       <c r="I39">
-        <v>223.4201731196775</v>
+        <v>187.6610737775919</v>
       </c>
       <c r="J39">
-        <v>170.4151530148664</v>
+        <v>293.9411651367931</v>
       </c>
       <c r="K39">
-        <v>1307.191031239577</v>
+        <v>1021.10777998539</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.97738588210952</v>
+        <v>31.14060312681393</v>
       </c>
       <c r="G40">
-        <v>239.5990308900671</v>
+        <v>392.5825751626483</v>
       </c>
       <c r="H40">
-        <v>2478.281246855066</v>
+        <v>519.2550795866064</v>
       </c>
       <c r="I40">
-        <v>287.106102216859</v>
+        <v>241.1538702069401</v>
       </c>
       <c r="J40">
-        <v>128.9377573635029</v>
+        <v>222.3987360223003</v>
       </c>
       <c r="K40">
-        <v>1015.764043376182</v>
+        <v>793.460590329541</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.3008654190477</v>
+        <v>30.6504091604995</v>
       </c>
       <c r="G41">
-        <v>249.2044709311393</v>
+        <v>408.3210711527456</v>
       </c>
       <c r="H41">
-        <v>2490.866222908667</v>
+        <v>521.8919121699141</v>
       </c>
       <c r="I41">
-        <v>352.3602387280771</v>
+        <v>295.9638775358899</v>
       </c>
       <c r="J41">
-        <v>87.46036171213969</v>
+        <v>150.8563069078078</v>
       </c>
       <c r="K41">
-        <v>707.1393462920399</v>
+        <v>552.379469240902</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.65530957847913</v>
+        <v>30.18265157555735</v>
       </c>
       <c r="G42">
-        <v>258.8099109722115</v>
+        <v>424.0595671428429</v>
       </c>
       <c r="H42">
-        <v>2503.064627398172</v>
+        <v>524.4477494067354</v>
       </c>
       <c r="I42">
-        <v>419.2211983181806</v>
+        <v>352.1235308710342</v>
       </c>
       <c r="J42">
-        <v>45.98296606077625</v>
+        <v>79.31387779331497</v>
       </c>
       <c r="K42">
-        <v>381.3169399871503</v>
+        <v>297.8644167194717</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.03842677165724</v>
+        <v>29.73566993000799</v>
       </c>
       <c r="G43">
-        <v>268.4153510132837</v>
+        <v>439.7980631329403</v>
       </c>
       <c r="H43">
-        <v>2514.899502852748</v>
+        <v>526.9274192197809</v>
       </c>
       <c r="I43">
-        <v>487.7285475272349</v>
+        <v>409.6660640036221</v>
       </c>
       <c r="J43">
-        <v>4.505570409412806</v>
+        <v>7.771448678822152</v>
       </c>
       <c r="K43">
-        <v>38.29682446151386</v>
+        <v>29.91543276525094</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.44815595859512</v>
+        <v>29.30797083315433</v>
       </c>
       <c r="G44">
-        <v>278.0207910543558</v>
+        <v>455.5365591230376</v>
       </c>
       <c r="H44">
-        <v>2526.391891030046</v>
+        <v>529.335330325599</v>
       </c>
       <c r="I44">
-        <v>557.922827184956</v>
+        <v>468.6255290764398</v>
       </c>
       <c r="J44">
-        <v>-36.97182524195044</v>
+        <v>-63.77098043567034</v>
       </c>
       <c r="K44">
-        <v>-321.9210002848686</v>
+        <v>-251.4674826217596</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.8826376660984</v>
+        <v>28.89820694579504</v>
       </c>
       <c r="G45">
-        <v>287.626231095428</v>
+        <v>471.2750551131349</v>
       </c>
       <c r="H45">
-        <v>2537.561058050063</v>
+        <v>531.6755194051293</v>
       </c>
       <c r="I45">
-        <v>629.8455764016956</v>
+        <v>529.0368167349627</v>
       </c>
       <c r="J45">
-        <v>-78.44922089331388</v>
+        <v>-135.3134095501632</v>
       </c>
       <c r="K45">
-        <v>-699.3365342519993</v>
+        <v>-546.2843294415616</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.34018933675806</v>
+        <v>28.50515911856963</v>
       </c>
       <c r="G46">
-        <v>297.2316711365002</v>
+        <v>487.0135511032323</v>
       </c>
       <c r="H46">
-        <v>2548.424688727427</v>
+        <v>533.9516918206421</v>
       </c>
       <c r="I46">
-        <v>703.5393571501819</v>
+        <v>590.9356767747115</v>
       </c>
       <c r="J46">
-        <v>-119.9266165446773</v>
+        <v>-206.855838664656</v>
       </c>
       <c r="K46">
-        <v>-1093.949777439878</v>
+        <v>-854.5351076941549</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.81928426441274</v>
+        <v>28.1277211289919</v>
       </c>
       <c r="G47">
-        <v>306.8371111775724</v>
+        <v>502.7520470933296</v>
       </c>
       <c r="H47">
-        <v>2558.999055024638</v>
+        <v>536.1672569104412</v>
       </c>
       <c r="I47">
-        <v>779.0477794525644</v>
+        <v>654.358739297032</v>
       </c>
       <c r="J47">
-        <v>-161.4040121960408</v>
+        <v>-278.3982677791488</v>
       </c>
       <c r="K47">
-        <v>-1505.760729848503</v>
+        <v>-1176.219817379538</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.31853351542158</v>
+        <v>27.76488658194515</v>
       </c>
       <c r="G48">
-        <v>316.4425512186445</v>
+        <v>518.4905430834269</v>
       </c>
       <c r="H48">
-        <v>2569.29916265476</v>
+        <v>538.3253587053915</v>
       </c>
       <c r="I48">
-        <v>856.415527187668</v>
+        <v>719.3435363858167</v>
       </c>
       <c r="J48">
-        <v>-202.8814078474038</v>
+        <v>-349.940696893641</v>
       </c>
       <c r="K48">
-        <v>-1934.769391477872</v>
+        <v>-1511.33845849771</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.83667034822809</v>
+        <v>27.41573762039213</v>
       </c>
       <c r="G49">
-        <v>326.0479912597167</v>
+        <v>534.2290390735243</v>
       </c>
       <c r="H49">
-        <v>2579.338879148877</v>
+        <v>540.4289027619006</v>
       </c>
       <c r="I49">
-        <v>935.6883845337267</v>
+        <v>785.9285243179963</v>
       </c>
       <c r="J49">
-        <v>-244.3588034987673</v>
+        <v>-421.4831260081338</v>
       </c>
       <c r="K49">
-        <v>-2380.975762327991</v>
+        <v>-1859.891031048674</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.37253673327614</v>
+        <v>27.07943515796039</v>
       </c>
       <c r="G50">
-        <v>335.6534313007888</v>
+        <v>549.9675350636215</v>
       </c>
       <c r="H50">
-        <v>2589.131046131237</v>
+        <v>542.4805796860607</v>
       </c>
       <c r="I50">
-        <v>1016.91326306224</v>
+        <v>854.1531063209397</v>
       </c>
       <c r="J50">
-        <v>-285.8361991501307</v>
+        <v>-493.0255551226266</v>
       </c>
       <c r="K50">
-        <v>-2844.379842398857</v>
+        <v>-2221.87753503243</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.92507164671471</v>
+        <v>26.75521039678162</v>
       </c>
       <c r="G51">
-        <v>345.258871341861</v>
+        <v>565.7060310537189</v>
       </c>
       <c r="H51">
-        <v>2598.687578082811</v>
+        <v>544.4828858268118</v>
       </c>
       <c r="I51">
-        <v>1100.138229499</v>
+        <v>924.0576558902411</v>
       </c>
       <c r="J51">
-        <v>-327.3135948014942</v>
+        <v>-564.5679842371194</v>
       </c>
       <c r="K51">
-        <v>-3324.981631690471</v>
+        <v>-2597.297970448976</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.49330086853801</v>
+        <v>26.44235743541634</v>
       </c>
       <c r="G52">
-        <v>354.8643113829332</v>
+        <v>581.4445270438163</v>
       </c>
       <c r="H52">
-        <v>2608.019549498734</v>
+        <v>546.438141537367</v>
       </c>
       <c r="I52">
-        <v>1185.4125341687</v>
+        <v>995.6835406816809</v>
       </c>
       <c r="J52">
-        <v>-368.7909904528576</v>
+        <v>-636.1104133516122</v>
       </c>
       <c r="K52">
-        <v>-3822.781130202831</v>
+        <v>-2986.152337298312</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.07632806191425</v>
+        <v>26.14022680510387</v>
       </c>
       <c r="G53">
-        <v>364.4697514240054</v>
+        <v>597.1830230339135</v>
       </c>
       <c r="H53">
-        <v>2617.137272038778</v>
+        <v>548.3485073399515</v>
       </c>
       <c r="I53">
-        <v>1272.786640139969</v>
+        <v>1069.073146991502</v>
       </c>
       <c r="J53">
-        <v>-410.2683861042206</v>
+        <v>-707.6528424661044</v>
       </c>
       <c r="K53">
-        <v>-4337.778337935934</v>
+        <v>-3388.440635580436</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.6733269478253</v>
+        <v>25.84821979965377</v>
       </c>
       <c r="G54">
-        <v>374.0751914650775</v>
+        <v>612.9215190240109</v>
       </c>
       <c r="H54">
-        <v>2626.050363018693</v>
+        <v>550.2159982762655</v>
       </c>
       <c r="I54">
-        <v>1362.312253088078</v>
+        <v>1144.269904839505</v>
       </c>
       <c r="J54">
-        <v>-451.7457817555841</v>
+        <v>-779.1952715805973</v>
       </c>
       <c r="K54">
-        <v>-4869.973254889789</v>
+        <v>-3804.162865295354</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run947/NotionalETEOutput947.xlsx
+++ b/runs/run947/NotionalETEOutput947.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,34 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER1_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER1_276.MISSILE_HELLMASKER1_276</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER1</t>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_400.MISSILE_HIGHWIND_400</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_73.MISSILE_HELLMASKER_73</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_219.MISSILE_BRAVER_219</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_113.MISSILE_BRAVER_113</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,28 +483,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G2">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H2">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I2">
-        <v>-1101.541652570057</v>
+        <v>-1664.847586425114</v>
       </c>
       <c r="J2">
-        <v>2941.011042373023</v>
+        <v>1544.436743714151</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -497,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G3">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H3">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I3">
-        <v>-1079.79428723226</v>
+        <v>-1631.979062017287</v>
       </c>
       <c r="J3">
-        <v>2869.46861325853</v>
+        <v>1506.867093458831</v>
       </c>
       <c r="K3">
-        <v>269.408273357404</v>
+        <v>267.1215892959304</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G4">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H4">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I4">
-        <v>-1057.511413030229</v>
+        <v>-1598.301180434406</v>
       </c>
       <c r="J4">
-        <v>2797.926184144038</v>
+        <v>1469.297443203512</v>
       </c>
       <c r="K4">
-        <v>525.3826152820164</v>
+        <v>520.9232717081577</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G5">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H5">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I5">
-        <v>-1034.679843550841</v>
+        <v>-1563.794012000629</v>
       </c>
       <c r="J5">
-        <v>2726.383755029545</v>
+        <v>1431.727792948192</v>
       </c>
       <c r="K5">
-        <v>767.923025773839</v>
+        <v>761.4050472366837</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G6">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H6">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I6">
-        <v>-1011.286067677683</v>
+        <v>-1528.437136290184</v>
       </c>
       <c r="J6">
-        <v>2654.841325915052</v>
+        <v>1394.158142692872</v>
       </c>
       <c r="K6">
-        <v>997.0295048328702</v>
+        <v>988.5669158815068</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G7">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H7">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I7">
-        <v>-987.3162415955267</v>
+        <v>-1492.209630043097</v>
       </c>
       <c r="J7">
-        <v>2583.298896800559</v>
+        <v>1356.588492437553</v>
       </c>
       <c r="K7">
-        <v>1212.702052459112</v>
+        <v>1202.408877642629</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G8">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H8">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I8">
-        <v>-962.7561805979329</v>
+        <v>-1455.090054783371</v>
       </c>
       <c r="J8">
-        <v>2511.756467686067</v>
+        <v>1319.018842182233</v>
       </c>
       <c r="K8">
-        <v>1414.940668652563</v>
+        <v>1402.930932520049</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G9">
-        <v>-95.31080053036884</v>
+        <v>-94.60296386798939</v>
       </c>
       <c r="H9">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I9">
-        <v>-937.5913506931154</v>
+        <v>-1417.056444132257</v>
       </c>
       <c r="J9">
-        <v>2440.214038571574</v>
+        <v>1281.449191926913</v>
       </c>
       <c r="K9">
-        <v>1603.745353413223</v>
+        <v>1590.133080513766</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>153.2172141787289</v>
+        <v>199.001430304765</v>
       </c>
       <c r="G10">
-        <v>-79.5723045402715</v>
+        <v>-78.98135163514215</v>
       </c>
       <c r="H10">
-        <v>238.23308428829</v>
+        <v>1317.029779673929</v>
       </c>
       <c r="I10">
-        <v>-911.8068600031108</v>
+        <v>-1378.08629080914</v>
       </c>
       <c r="J10">
-        <v>2368.671609457081</v>
+        <v>1243.879541671594</v>
       </c>
       <c r="K10">
-        <v>1779.116106741092</v>
+        <v>1764.015321623781</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>118.9144319803047</v>
+        <v>154.4483247186242</v>
       </c>
       <c r="G11">
-        <v>-63.83380855017418</v>
+        <v>-63.35973940229489</v>
       </c>
       <c r="H11">
-        <v>293.5015567594519</v>
+        <v>1622.571826191381</v>
       </c>
       <c r="I11">
-        <v>-885.3874499511612</v>
+        <v>-1338.156533312324</v>
       </c>
       <c r="J11">
-        <v>2297.129180342589</v>
+        <v>1206.309891416274</v>
       </c>
       <c r="K11">
-        <v>1941.05292863617</v>
+        <v>1924.577655850094</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>98.76326825204413</v>
+        <v>128.2756102118095</v>
       </c>
       <c r="G12">
-        <v>-48.09531256007686</v>
+        <v>-47.73812716944766</v>
       </c>
       <c r="H12">
-        <v>326.4222855002652</v>
+        <v>1804.568295110664</v>
       </c>
       <c r="I12">
-        <v>-858.317486232094</v>
+        <v>-1297.243542271854</v>
       </c>
       <c r="J12">
-        <v>2225.586751228096</v>
+        <v>1168.740241160954</v>
       </c>
       <c r="K12">
-        <v>2089.555819098458</v>
+        <v>2071.820083192705</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>86.04237534259681</v>
+        <v>111.7534726876226</v>
       </c>
       <c r="G13">
-        <v>-32.35681656997953</v>
+        <v>-32.11651493660042</v>
       </c>
       <c r="H13">
-        <v>349.94850530433</v>
+        <v>1934.628870776186</v>
       </c>
       <c r="I13">
-        <v>-830.5809495603543</v>
+        <v>-1255.323106466272</v>
       </c>
       <c r="J13">
-        <v>2154.044322113603</v>
+        <v>1131.170590905635</v>
       </c>
       <c r="K13">
-        <v>2224.624778127956</v>
+        <v>2205.742603651614</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>77.17087626468408</v>
+        <v>100.2310010455483</v>
       </c>
       <c r="G14">
-        <v>-16.61832057988219</v>
+        <v>-16.49490270375317</v>
       </c>
       <c r="H14">
-        <v>368.2683600615738</v>
+        <v>2035.906971366924</v>
       </c>
       <c r="I14">
-        <v>-802.1614261902192</v>
+        <v>-1212.370418495072</v>
       </c>
       <c r="J14">
-        <v>2082.50189299911</v>
+        <v>1093.600940650315</v>
       </c>
       <c r="K14">
-        <v>2346.259805724663</v>
+        <v>2326.345217226822</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>70.55247228147608</v>
+        <v>91.63489214190531</v>
       </c>
       <c r="G15">
-        <v>-0.8798245897848781</v>
+        <v>-0.8732904709059346</v>
       </c>
       <c r="H15">
-        <v>383.2737421252196</v>
+        <v>2118.861591596294</v>
       </c>
       <c r="I15">
-        <v>-773.0420982025767</v>
+        <v>-1168.36006009833</v>
       </c>
       <c r="J15">
-        <v>2010.959463884618</v>
+        <v>1056.031290394995</v>
       </c>
       <c r="K15">
-        <v>2454.460901888579</v>
+        <v>2433.627923918326</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>65.37780459932314</v>
+        <v>84.91393539027654</v>
       </c>
       <c r="G16">
-        <v>14.85867140031245</v>
+        <v>14.74832176194131</v>
       </c>
       <c r="H16">
-        <v>395.9822053933255</v>
+        <v>2189.118099536784</v>
       </c>
       <c r="I16">
-        <v>-743.2057335525288</v>
+        <v>-1123.265987114855</v>
       </c>
       <c r="J16">
-        <v>1939.417034770125</v>
+        <v>1018.461640139676</v>
       </c>
       <c r="K16">
-        <v>2549.228066619705</v>
+        <v>2527.590723726129</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>61.19112166455286</v>
+        <v>79.47619200930137</v>
       </c>
       <c r="G17">
-        <v>30.59716739040978</v>
+        <v>30.36993399478856</v>
       </c>
       <c r="H17">
-        <v>407.0044827223093</v>
+        <v>2250.05282455814</v>
       </c>
       <c r="I17">
-        <v>-712.6346758719257</v>
+        <v>-1077.061514069948</v>
       </c>
       <c r="J17">
-        <v>1867.874605655633</v>
+        <v>980.8919898843561</v>
       </c>
       <c r="K17">
-        <v>2630.56129991804</v>
+        <v>2608.233616650229</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>57.71468302999161</v>
+        <v>74.9609274265801</v>
       </c>
       <c r="G18">
-        <v>46.3356633805071</v>
+        <v>45.99154622763579</v>
       </c>
       <c r="H18">
-        <v>416.7360629086946</v>
+        <v>2303.852157035591</v>
       </c>
       <c r="I18">
-        <v>-681.3108340207953</v>
+        <v>-1029.719298383647</v>
       </c>
       <c r="J18">
-        <v>1796.33217654114</v>
+        <v>943.3223396290364</v>
       </c>
       <c r="K18">
-        <v>2698.460601783585</v>
+        <v>2675.556602690628</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>54.76866285670801</v>
+        <v>71.13458042417183</v>
       </c>
       <c r="G19">
-        <v>62.07415937060444</v>
+        <v>61.61315846048305</v>
       </c>
       <c r="H19">
-        <v>425.4477854504789</v>
+        <v>2352.013385582261</v>
       </c>
       <c r="I19">
-        <v>-649.2156713814866</v>
+        <v>-981.2113241901096</v>
       </c>
       <c r="J19">
-        <v>1724.789747426647</v>
+        <v>905.7526893737166</v>
       </c>
       <c r="K19">
-        <v>2752.925972216339</v>
+        <v>2729.559681847325</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>52.23095389223142</v>
+        <v>67.83855578141223</v>
       </c>
       <c r="G20">
-        <v>77.81265536070175</v>
+        <v>77.23477069333029</v>
       </c>
       <c r="H20">
-        <v>433.3332779685085</v>
+        <v>2395.606946504612</v>
       </c>
       <c r="I20">
-        <v>-616.330194889193</v>
+        <v>-931.5088857585746</v>
       </c>
       <c r="J20">
-        <v>1653.247318312154</v>
+        <v>868.1830391183971</v>
       </c>
       <c r="K20">
-        <v>2793.957411216302</v>
+        <v>2770.242854120319</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>50.01540283841977</v>
+        <v>64.96095595697319</v>
       </c>
       <c r="G21">
-        <v>93.55115135079907</v>
+        <v>92.85638292617752</v>
       </c>
       <c r="H21">
-        <v>440.535775001246</v>
+        <v>2435.424686800704</v>
       </c>
       <c r="I21">
-        <v>-582.6349437923607</v>
+        <v>-880.5825705060682</v>
       </c>
       <c r="J21">
-        <v>1581.704889197661</v>
+        <v>830.6133888630774</v>
       </c>
       <c r="K21">
-        <v>2821.554918783474</v>
+        <v>2797.606119509611</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>48.05928065984463</v>
+        <v>62.42030728721447</v>
       </c>
       <c r="G22">
-        <v>109.2896473408964</v>
+        <v>108.4779951590248</v>
       </c>
       <c r="H22">
-        <v>447.1642174569046</v>
+        <v>2472.068867154736</v>
       </c>
       <c r="I22">
-        <v>-548.1099781363311</v>
+        <v>-828.4022415918195</v>
       </c>
       <c r="J22">
-        <v>1510.162460083169</v>
+        <v>793.0437386077579</v>
       </c>
       <c r="K22">
-        <v>2835.718494917857</v>
+        <v>2811.649478015201</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>46.31569717355742</v>
+        <v>60.15570791117976</v>
       </c>
       <c r="G23">
-        <v>125.0281433309937</v>
+        <v>124.099607391872</v>
       </c>
       <c r="H23">
-        <v>453.3033956431881</v>
+        <v>2506.00823589613</v>
       </c>
       <c r="I23">
-        <v>-512.7348669634079</v>
+        <v>-774.9370200830797</v>
       </c>
       <c r="J23">
-        <v>1438.620030968676</v>
+        <v>755.4740883524381</v>
       </c>
       <c r="K23">
-        <v>2836.448139619448</v>
+        <v>2812.372929637089</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>44.74881204873314</v>
+        <v>58.12060772589928</v>
       </c>
       <c r="G24">
-        <v>140.7666393210911</v>
+        <v>139.7212196247193</v>
       </c>
       <c r="H24">
-        <v>459.0205991197387</v>
+        <v>2537.614791541276</v>
       </c>
       <c r="I24">
-        <v>-476.488676222357</v>
+        <v>-720.1552666817894</v>
       </c>
       <c r="J24">
-        <v>1367.077601854184</v>
+        <v>717.9044380971184</v>
       </c>
       <c r="K24">
-        <v>2823.743852888249</v>
+        <v>2799.776474375275</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>43.3307019850111</v>
+        <v>56.27873941806624</v>
       </c>
       <c r="G25">
-        <v>156.5051353111884</v>
+        <v>155.3428318575665</v>
       </c>
       <c r="H25">
-        <v>464.3701244334025</v>
+        <v>2567.188703016514</v>
       </c>
       <c r="I25">
-        <v>-439.3499563801915</v>
+        <v>-664.0245630012807</v>
       </c>
       <c r="J25">
-        <v>1295.535172739691</v>
+        <v>680.3347878417989</v>
       </c>
       <c r="K25">
-        <v>2797.605634724259</v>
+        <v>2773.860112229759</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>42.03924798036464</v>
+        <v>54.60137440738495</v>
       </c>
       <c r="G26">
-        <v>172.2436313012857</v>
+        <v>170.9644440904138</v>
       </c>
       <c r="H26">
-        <v>469.3964189004274</v>
+        <v>2594.975689506062</v>
       </c>
       <c r="I26">
-        <v>-401.2967297289086</v>
+        <v>-606.5116923819403</v>
       </c>
       <c r="J26">
-        <v>1223.992743625198</v>
+        <v>642.7651375864791</v>
       </c>
       <c r="K26">
-        <v>2758.033485127479</v>
+        <v>2734.623843200541</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>40.85667246730022</v>
+        <v>53.06542285125828</v>
       </c>
       <c r="G27">
-        <v>187.982127291383</v>
+        <v>186.586056323261</v>
       </c>
       <c r="H27">
-        <v>474.1363275476198</v>
+        <v>2621.179442271703</v>
       </c>
       <c r="I27">
-        <v>-362.3064773796646</v>
+        <v>-547.5826202344696</v>
       </c>
       <c r="J27">
-        <v>1152.450314510705</v>
+        <v>605.1954873311594</v>
       </c>
       <c r="K27">
-        <v>2705.027404097908</v>
+        <v>2682.06766728762</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>39.76850279230698</v>
+        <v>51.65208739219347</v>
       </c>
       <c r="G28">
-        <v>203.7206232814804</v>
+        <v>202.2076685561082</v>
       </c>
       <c r="H28">
-        <v>478.6207337262011</v>
+        <v>2645.970694498443</v>
       </c>
       <c r="I28">
-        <v>-322.356125936695</v>
+        <v>-487.2024738991198</v>
       </c>
       <c r="J28">
-        <v>1080.907885396213</v>
+        <v>567.6258370758399</v>
       </c>
       <c r="K28">
-        <v>2638.587391635547</v>
+        <v>2616.191584490998</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>38.76282169435143</v>
+        <v>50.34588966502317</v>
       </c>
       <c r="G29">
-        <v>219.4591192715777</v>
+        <v>217.8292807889555</v>
       </c>
       <c r="H29">
-        <v>482.8757797228978</v>
+        <v>2669.493969228625</v>
       </c>
       <c r="I29">
-        <v>-281.4220338430912</v>
+        <v>-425.3355220089775</v>
       </c>
       <c r="J29">
-        <v>1009.36545628172</v>
+        <v>530.0561868205201</v>
       </c>
       <c r="K29">
-        <v>2558.713447740394</v>
+        <v>2536.995594810674</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>37.82971543394625</v>
+        <v>49.13395351644946</v>
       </c>
       <c r="G30">
-        <v>235.197615261675</v>
+        <v>233.4508930218027</v>
       </c>
       <c r="H30">
-        <v>486.9237901344595</v>
+        <v>2691.872684075825</v>
       </c>
       <c r="I30">
-        <v>-239.4799773903567</v>
+        <v>-361.9451533450927</v>
       </c>
       <c r="J30">
-        <v>937.8230271672272</v>
+        <v>492.4865365652004</v>
       </c>
       <c r="K30">
-        <v>2465.405572412451</v>
+        <v>2444.479698246646</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>36.96086083199889</v>
+        <v>48.00546864325037</v>
       </c>
       <c r="G31">
-        <v>250.9361112517724</v>
+        <v>249.07250525465</v>
       </c>
       <c r="H31">
-        <v>490.7839808443486</v>
+        <v>2713.213070678017</v>
       </c>
       <c r="I31">
-        <v>-196.5051363834582</v>
+        <v>-296.9938551709297</v>
       </c>
       <c r="J31">
-        <v>866.2805980527347</v>
+        <v>454.9168863098809</v>
       </c>
       <c r="K31">
-        <v>2358.663765651719</v>
+        <v>2338.643894798919</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>36.1492117284191</v>
+        <v>46.95128335875912</v>
       </c>
       <c r="G32">
-        <v>266.6746072418697</v>
+        <v>264.6941174874972</v>
       </c>
       <c r="H32">
-        <v>494.473010697059</v>
+        <v>2733.607224532174</v>
       </c>
       <c r="I32">
-        <v>-152.4720794528936</v>
+        <v>-230.4431910333267</v>
       </c>
       <c r="J32">
-        <v>794.7381689382419</v>
+        <v>417.3472360545612</v>
       </c>
       <c r="K32">
-        <v>2238.488027458194</v>
+        <v>2219.488184467487</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>35.38875777437569</v>
+        <v>45.96359130766215</v>
       </c>
       <c r="G33">
-        <v>282.413103231967</v>
+        <v>280.3157297203445</v>
       </c>
       <c r="H33">
-        <v>498.0054159778375</v>
+        <v>2753.135506939133</v>
       </c>
       <c r="I33">
-        <v>-107.3547490050832</v>
+        <v>-162.2537780168232</v>
       </c>
       <c r="J33">
-        <v>723.1957398237494</v>
+        <v>379.7775857992416</v>
       </c>
       <c r="K33">
-        <v>2104.87835783188</v>
+        <v>2087.012567252355</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>34.67433664011511</v>
+        <v>45.03568755794402</v>
       </c>
       <c r="G34">
-        <v>298.1515992220643</v>
+        <v>295.9373419531917</v>
       </c>
       <c r="H34">
-        <v>501.3939563595719</v>
+        <v>2771.868457510228</v>
       </c>
       <c r="I34">
-        <v>-61.1264458021783</v>
+        <v>-92.38526343789782</v>
       </c>
       <c r="J34">
-        <v>651.6533107092565</v>
+        <v>342.2079355439219</v>
       </c>
       <c r="K34">
-        <v>1957.834756772775</v>
+        <v>1941.217043153519</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>34.00148620591649</v>
+        <v>44.16177662369016</v>
       </c>
       <c r="G35">
-        <v>313.8900952121617</v>
+        <v>311.5589541860389</v>
       </c>
       <c r="H35">
-        <v>504.649893119936</v>
+        <v>2789.868332241923</v>
       </c>
       <c r="I35">
-        <v>-13.75981316216118</v>
+        <v>-20.79630096532152</v>
       </c>
       <c r="J35">
-        <v>580.1108815947638</v>
+        <v>304.6382852886022</v>
       </c>
       <c r="K35">
-        <v>1797.357224280879</v>
+        <v>1782.101612170982</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>33.36632705450828</v>
+        <v>43.33681984400383</v>
       </c>
       <c r="G36">
-        <v>329.628591202259</v>
+        <v>327.1805664188862</v>
       </c>
       <c r="H36">
-        <v>507.7832149432271</v>
+        <v>2807.190351821634</v>
       </c>
       <c r="I36">
-        <v>34.77317923011351</v>
+        <v>52.55547384750436</v>
       </c>
       <c r="J36">
-        <v>508.5684524802713</v>
+        <v>267.0686350332826</v>
       </c>
       <c r="K36">
-        <v>1623.445760356193</v>
+        <v>1609.666274304743</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>32.76546819012876</v>
+        <v>42.55641292912976</v>
       </c>
       <c r="G37">
-        <v>345.3670871923563</v>
+        <v>342.8021786517334</v>
       </c>
       <c r="H37">
-        <v>510.802822727736</v>
+        <v>2823.883723302821</v>
       </c>
       <c r="I37">
-        <v>84.5012519105136</v>
+        <v>127.7134686327005</v>
       </c>
       <c r="J37">
-        <v>437.0260233657784</v>
+        <v>229.4989847779629</v>
       </c>
       <c r="K37">
-        <v>1436.100364998716</v>
+        <v>1423.911029554802</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>32.19593074861325</v>
+        <v>41.81668687366518</v>
       </c>
       <c r="G38">
-        <v>361.1055831824536</v>
+        <v>358.4237908845807</v>
       </c>
       <c r="H38">
-        <v>513.7166820176874</v>
+        <v>2839.992482798213</v>
       </c>
       <c r="I38">
-        <v>135.453832631681</v>
+        <v>204.7221598953955</v>
       </c>
       <c r="J38">
-        <v>365.4835942512859</v>
+        <v>191.9293345226434</v>
       </c>
       <c r="K38">
-        <v>1235.321038208449</v>
+        <v>1224.835877921159</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>31.65508577855485</v>
+        <v>41.11422714554866</v>
       </c>
       <c r="G39">
-        <v>376.844079172551</v>
+        <v>374.045403117428</v>
       </c>
       <c r="H39">
-        <v>516.531949636003</v>
+        <v>2855.556195546802</v>
       </c>
       <c r="I39">
-        <v>187.6610737775919</v>
+        <v>283.6271193337366</v>
       </c>
       <c r="J39">
-        <v>293.9411651367931</v>
+        <v>154.3596842673236</v>
       </c>
       <c r="K39">
-        <v>1021.10777998539</v>
+        <v>1012.440819403813</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>31.14060312681393</v>
+        <v>40.44600729758823</v>
       </c>
       <c r="G40">
-        <v>392.5825751626483</v>
+        <v>389.6670153502751</v>
       </c>
       <c r="H40">
-        <v>519.2550795866064</v>
+        <v>2870.610541376143</v>
       </c>
       <c r="I40">
-        <v>241.1538702069401</v>
+        <v>364.4750408070159</v>
       </c>
       <c r="J40">
-        <v>222.3987360223003</v>
+        <v>116.7900340120039</v>
       </c>
       <c r="K40">
-        <v>793.460590329541</v>
+        <v>786.7258540027655</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>30.6504091604995</v>
+        <v>39.80933405596706</v>
       </c>
       <c r="G41">
-        <v>408.3210711527456</v>
+        <v>405.2886275831224</v>
       </c>
       <c r="H41">
-        <v>521.8919121699141</v>
+        <v>2885.187807361704</v>
       </c>
       <c r="I41">
-        <v>295.9638775358899</v>
+        <v>447.3137679678497</v>
       </c>
       <c r="J41">
-        <v>150.8563069078078</v>
+        <v>79.22038375668438</v>
       </c>
       <c r="K41">
-        <v>552.379469240902</v>
+        <v>547.6909817180161</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>30.18265157555735</v>
+        <v>39.2018016129688</v>
       </c>
       <c r="G42">
-        <v>424.0595671428429</v>
+        <v>420.9102398159696</v>
       </c>
       <c r="H42">
-        <v>524.4477494067354</v>
+        <v>2899.317304794646</v>
       </c>
       <c r="I42">
-        <v>352.1235308710342</v>
+        <v>532.1923225747892</v>
       </c>
       <c r="J42">
-        <v>79.31387779331497</v>
+        <v>41.65073350136466</v>
       </c>
       <c r="K42">
-        <v>297.8644167194717</v>
+        <v>295.336202549564</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>29.73566993000799</v>
+        <v>38.6212533549869</v>
       </c>
       <c r="G43">
-        <v>439.7980631329403</v>
+        <v>436.5318520488169</v>
       </c>
       <c r="H43">
-        <v>526.9274192197809</v>
+        <v>2913.025723998031</v>
       </c>
       <c r="I43">
-        <v>409.6660640036221</v>
+        <v>619.1609335020854</v>
       </c>
       <c r="J43">
-        <v>7.771448678822152</v>
+        <v>4.081083246044945</v>
       </c>
       <c r="K43">
-        <v>29.91543276525094</v>
+        <v>29.66151649741</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>29.30797083315433</v>
+        <v>38.0657496377959</v>
       </c>
       <c r="G44">
-        <v>455.5365591230376</v>
+        <v>452.1534642816641</v>
       </c>
       <c r="H44">
-        <v>529.335330325599</v>
+        <v>2926.337437787256</v>
       </c>
       <c r="I44">
-        <v>468.6255290764398</v>
+        <v>708.2710664638106</v>
       </c>
       <c r="J44">
-        <v>-63.77098043567034</v>
+        <v>-33.4885670092746</v>
       </c>
       <c r="K44">
-        <v>-251.4674826217596</v>
+        <v>-249.3330764384453</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>28.89820694579504</v>
+        <v>37.53354051162931</v>
       </c>
       <c r="G45">
-        <v>471.2750551131349</v>
+        <v>467.7750765145113</v>
       </c>
       <c r="H45">
-        <v>531.6755194051293</v>
+        <v>2939.274762244171</v>
       </c>
       <c r="I45">
-        <v>529.0368167349627</v>
+        <v>799.5754544698997</v>
       </c>
       <c r="J45">
-        <v>-135.3134095501632</v>
+        <v>-71.05821726459432</v>
       </c>
       <c r="K45">
-        <v>-546.2843294415616</v>
+        <v>-541.6475762580036</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>28.50515911856963</v>
+        <v>37.02304252212276</v>
       </c>
       <c r="G46">
-        <v>487.0135511032323</v>
+        <v>483.3966887473587</v>
       </c>
       <c r="H46">
-        <v>533.9516918206421</v>
+        <v>2951.858181813532</v>
       </c>
       <c r="I46">
-        <v>590.9356767747115</v>
+        <v>893.1281290321425</v>
       </c>
       <c r="J46">
-        <v>-206.855838664656</v>
+        <v>-108.627867519914</v>
       </c>
       <c r="K46">
-        <v>-854.5351076941549</v>
+        <v>-847.2819829612646</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>28.1277211289919</v>
+        <v>36.53281888648279</v>
       </c>
       <c r="G47">
-        <v>502.7520470933296</v>
+        <v>499.0183009802058</v>
       </c>
       <c r="H47">
-        <v>536.1672569104412</v>
+        <v>2964.106544423573</v>
       </c>
       <c r="I47">
-        <v>654.358739297032</v>
+        <v>988.984452138598</v>
       </c>
       <c r="J47">
-        <v>-278.3982677791488</v>
+        <v>-146.1975177752338</v>
       </c>
       <c r="K47">
-        <v>-1176.219817379538</v>
+        <v>-1166.236296548227</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>27.76488658194515</v>
+        <v>36.06156247960114</v>
       </c>
       <c r="G48">
-        <v>518.4905430834269</v>
+        <v>514.6399132130531</v>
       </c>
       <c r="H48">
-        <v>538.3253587053915</v>
+        <v>2976.037231296929</v>
       </c>
       <c r="I48">
-        <v>719.3435363858167</v>
+        <v>1087.201149015349</v>
       </c>
       <c r="J48">
-        <v>-349.940696893641</v>
+        <v>-183.7671680305531</v>
       </c>
       <c r="K48">
-        <v>-1511.33845849771</v>
+        <v>-1498.510517018889</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>27.41573762039213</v>
+        <v>35.60808117131013</v>
       </c>
       <c r="G49">
-        <v>534.2290390735243</v>
+        <v>530.2615254459004</v>
       </c>
       <c r="H49">
-        <v>540.4289027619006</v>
+        <v>2987.666305292068</v>
       </c>
       <c r="I49">
-        <v>785.9285243179963</v>
+        <v>1187.836341694987</v>
       </c>
       <c r="J49">
-        <v>-421.4831260081338</v>
+        <v>-221.3368182858729</v>
       </c>
       <c r="K49">
-        <v>-1859.891031048674</v>
+        <v>-1844.104644373256</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>27.07943515796039</v>
+        <v>35.1712851402789</v>
       </c>
       <c r="G50">
-        <v>549.9675350636215</v>
+        <v>545.8831376787475</v>
       </c>
       <c r="H50">
-        <v>542.4805796860607</v>
+        <v>2999.008640952377</v>
       </c>
       <c r="I50">
-        <v>854.1531063209397</v>
+        <v>1290.949583411681</v>
       </c>
       <c r="J50">
-        <v>-493.0255551226266</v>
+        <v>-258.9064685411926</v>
       </c>
       <c r="K50">
-        <v>-2221.87753503243</v>
+        <v>-2203.018678611325</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>26.75521039678162</v>
+        <v>34.75017585722189</v>
       </c>
       <c r="G51">
-        <v>565.7060310537189</v>
+        <v>561.5047499115948</v>
       </c>
       <c r="H51">
-        <v>544.4828858268118</v>
+        <v>3010.078038904686</v>
       </c>
       <c r="I51">
-        <v>924.0576558902411</v>
+        <v>1396.601893843205</v>
       </c>
       <c r="J51">
-        <v>-564.5679842371194</v>
+        <v>-296.4761187965123</v>
       </c>
       <c r="K51">
-        <v>-2597.297970448976</v>
+        <v>-2575.252619733097</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>26.44235743541634</v>
+        <v>34.34383648393094</v>
       </c>
       <c r="G52">
-        <v>581.4445270438163</v>
+        <v>577.1263621444421</v>
       </c>
       <c r="H52">
-        <v>546.438141537367</v>
+        <v>3020.887326814347</v>
       </c>
       <c r="I52">
-        <v>995.6835406816809</v>
+        <v>1504.855795220764</v>
       </c>
       <c r="J52">
-        <v>-636.1104133516122</v>
+        <v>-334.045769051832</v>
       </c>
       <c r="K52">
-        <v>-2986.152337298312</v>
+        <v>-2960.806467738569</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>26.14022680510387</v>
+        <v>33.95142347803379</v>
       </c>
       <c r="G53">
-        <v>597.1830230339135</v>
+        <v>592.7479743772893</v>
       </c>
       <c r="H53">
-        <v>548.3485073399515</v>
+        <v>3031.448448749158</v>
       </c>
       <c r="I53">
-        <v>1069.073146991502</v>
+        <v>1615.775349327979</v>
       </c>
       <c r="J53">
-        <v>-707.6528424661044</v>
+        <v>-371.6154193071514</v>
       </c>
       <c r="K53">
-        <v>-3388.440635580436</v>
+        <v>-3359.680222627742</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2303,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>25.84821979965377</v>
+        <v>33.57215922854942</v>
       </c>
       <c r="G54">
-        <v>612.9215190240109</v>
+        <v>608.3695866101365</v>
       </c>
       <c r="H54">
-        <v>550.2159982762655</v>
+        <v>3041.772544513373</v>
       </c>
       <c r="I54">
-        <v>1144.269904839505</v>
+        <v>1729.426195410968</v>
       </c>
       <c r="J54">
-        <v>-779.1952715805973</v>
+        <v>-409.1850695624711</v>
       </c>
       <c r="K54">
-        <v>-3804.162865295354</v>
+        <v>-3771.873884400619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>947</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G55">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H55">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I55">
+        <v>-1410.140378215311</v>
+      </c>
+      <c r="J55">
+        <v>1201.593905005821</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>947</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G56">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H56">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I56">
+        <v>-1382.300452315934</v>
+      </c>
+      <c r="J56">
+        <v>1172.36417905963</v>
+      </c>
+      <c r="K56">
+        <v>320.3789112968797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>947</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G57">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H57">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I57">
+        <v>-1353.774993853548</v>
+      </c>
+      <c r="J57">
+        <v>1143.134453113439</v>
+      </c>
+      <c r="K57">
+        <v>624.7822615122889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>947</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G58">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H58">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I58">
+        <v>-1324.547122219465</v>
+      </c>
+      <c r="J58">
+        <v>1113.904727167248</v>
+      </c>
+      <c r="K58">
+        <v>913.2100506462298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>947</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G59">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H59">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I59">
+        <v>-1294.599541135542</v>
+      </c>
+      <c r="J59">
+        <v>1084.675001221057</v>
+      </c>
+      <c r="K59">
+        <v>1185.6622786987</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>947</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G60">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H60">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I60">
+        <v>-1263.914528418697</v>
+      </c>
+      <c r="J60">
+        <v>1055.445275274865</v>
+      </c>
+      <c r="K60">
+        <v>1442.138945669703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>947</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G61">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H61">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I61">
+        <v>-1232.473925493393</v>
+      </c>
+      <c r="J61">
+        <v>1026.215549328674</v>
+      </c>
+      <c r="K61">
+        <v>1682.640051559236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>947</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G62">
+        <v>-89.78994888577758</v>
+      </c>
+      <c r="H62">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I62">
+        <v>-1200.259126645878</v>
+      </c>
+      <c r="J62">
+        <v>996.9858233824831</v>
+      </c>
+      <c r="K62">
+        <v>1907.165596367299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>947</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>163.9679229447482</v>
+      </c>
+      <c r="G63">
+        <v>-74.96310090395227</v>
+      </c>
+      <c r="H63">
+        <v>976.1883901996171</v>
+      </c>
+      <c r="I63">
+        <v>-1167.251068013815</v>
+      </c>
+      <c r="J63">
+        <v>967.7560974362921</v>
+      </c>
+      <c r="K63">
+        <v>2115.715580093893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>947</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>127.2582361223483</v>
+      </c>
+      <c r="G64">
+        <v>-60.13625292212694</v>
+      </c>
+      <c r="H64">
+        <v>1202.657527899764</v>
+      </c>
+      <c r="I64">
+        <v>-1133.430216304794</v>
+      </c>
+      <c r="J64">
+        <v>938.526371490101</v>
+      </c>
+      <c r="K64">
+        <v>2308.290002739017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>947</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>105.693136670872</v>
+      </c>
+      <c r="G65">
+        <v>-45.30940494030163</v>
+      </c>
+      <c r="H65">
+        <v>1337.554128385377</v>
+      </c>
+      <c r="I65">
+        <v>-1098.776557237052</v>
+      </c>
+      <c r="J65">
+        <v>909.2966455439098</v>
+      </c>
+      <c r="K65">
+        <v>2484.888864302673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>947</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>92.07966380135795</v>
+      </c>
+      <c r="G66">
+        <v>-30.48255695847632</v>
+      </c>
+      <c r="H66">
+        <v>1433.955611439766</v>
+      </c>
+      <c r="I66">
+        <v>-1063.269583695548</v>
+      </c>
+      <c r="J66">
+        <v>880.0669195977185</v>
+      </c>
+      <c r="K66">
+        <v>2645.51216478486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>947</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>82.58568308248944</v>
+      </c>
+      <c r="G67">
+        <v>-15.655708976651</v>
+      </c>
+      <c r="H67">
+        <v>1509.023394647086</v>
+      </c>
+      <c r="I67">
+        <v>-1026.888283596401</v>
+      </c>
+      <c r="J67">
+        <v>850.8371936515274</v>
+      </c>
+      <c r="K67">
+        <v>2790.159904185577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>75.5028891539302</v>
+      </c>
+      <c r="G68">
+        <v>-0.8288609948256902</v>
+      </c>
+      <c r="H68">
+        <v>1570.509731881904</v>
+      </c>
+      <c r="I68">
+        <v>-989.6111274524955</v>
+      </c>
+      <c r="J68">
+        <v>821.6074677053363</v>
+      </c>
+      <c r="K68">
+        <v>2918.832082504824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>69.96513338464584</v>
+      </c>
+      <c r="G69">
+        <v>13.99798698699963</v>
+      </c>
+      <c r="H69">
+        <v>1622.584171234713</v>
+      </c>
+      <c r="I69">
+        <v>-951.4160556329008</v>
+      </c>
+      <c r="J69">
+        <v>792.3777417591451</v>
+      </c>
+      <c r="K69">
+        <v>3031.528699742602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>947</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>65.48468575007574</v>
+      </c>
+      <c r="G70">
+        <v>28.82483496882495</v>
+      </c>
+      <c r="H70">
+        <v>1667.749263204449</v>
+      </c>
+      <c r="I70">
+        <v>-912.2804653085701</v>
+      </c>
+      <c r="J70">
+        <v>763.148015812954</v>
+      </c>
+      <c r="K70">
+        <v>3128.249755898911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>947</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>61.76431774045415</v>
+      </c>
+      <c r="G71">
+        <v>43.65168295065025</v>
+      </c>
+      <c r="H71">
+        <v>1707.625570160833</v>
+      </c>
+      <c r="I71">
+        <v>-872.1811970765862</v>
+      </c>
+      <c r="J71">
+        <v>733.9182898667628</v>
+      </c>
+      <c r="K71">
+        <v>3208.995250973751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>947</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>58.61158577521195</v>
+      </c>
+      <c r="G72">
+        <v>58.47853093247559</v>
+      </c>
+      <c r="H72">
+        <v>1743.322889151334</v>
+      </c>
+      <c r="I72">
+        <v>-831.0945212550395</v>
+      </c>
+      <c r="J72">
+        <v>704.6885639205716</v>
+      </c>
+      <c r="K72">
+        <v>3273.765184967122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>947</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>55.89581476884116</v>
+      </c>
+      <c r="G73">
+        <v>73.30537891430089</v>
+      </c>
+      <c r="H73">
+        <v>1775.634632375845</v>
+      </c>
+      <c r="I73">
+        <v>-788.9961238404359</v>
+      </c>
+      <c r="J73">
+        <v>675.4588379743806</v>
+      </c>
+      <c r="K73">
+        <v>3322.559557879023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>947</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>53.52480635168135</v>
+      </c>
+      <c r="G74">
+        <v>88.1322268961262</v>
+      </c>
+      <c r="H74">
+        <v>1805.147720387152</v>
+      </c>
+      <c r="I74">
+        <v>-745.8610921193134</v>
+      </c>
+      <c r="J74">
+        <v>646.2291120281893</v>
+      </c>
+      <c r="K74">
+        <v>3355.378369709455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>947</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>51.43143001426163</v>
+      </c>
+      <c r="G75">
+        <v>102.9590748779515</v>
+      </c>
+      <c r="H75">
+        <v>1832.308551510381</v>
+      </c>
+      <c r="I75">
+        <v>-701.6638999255595</v>
+      </c>
+      <c r="J75">
+        <v>616.9993860819983</v>
+      </c>
+      <c r="K75">
+        <v>3372.221620458417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>947</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>49.56550545572095</v>
+      </c>
+      <c r="G76">
+        <v>117.7859228597768</v>
+      </c>
+      <c r="H76">
+        <v>1857.464564113419</v>
+      </c>
+      <c r="I76">
+        <v>-656.3783925347055</v>
+      </c>
+      <c r="J76">
+        <v>587.769660135807</v>
+      </c>
+      <c r="K76">
+        <v>3373.08931012591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>947</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>47.88867755627381</v>
+      </c>
+      <c r="G77">
+        <v>132.6127708416022</v>
+      </c>
+      <c r="H77">
+        <v>1880.891485168027</v>
+      </c>
+      <c r="I77">
+        <v>-609.977771186255</v>
+      </c>
+      <c r="J77">
+        <v>558.5399341896158</v>
+      </c>
+      <c r="K77">
+        <v>3357.981438711935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>947</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>46.37106373656093</v>
+      </c>
+      <c r="G78">
+        <v>147.4396188234275</v>
+      </c>
+      <c r="H78">
+        <v>1902.811801231089</v>
+      </c>
+      <c r="I78">
+        <v>-562.4345772248873</v>
+      </c>
+      <c r="J78">
+        <v>529.3102082434248</v>
+      </c>
+      <c r="K78">
+        <v>3326.898006216489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>44.98899298259499</v>
+      </c>
+      <c r="G79">
+        <v>162.2664668052528</v>
+      </c>
+      <c r="H79">
+        <v>1923.407640465982</v>
+      </c>
+      <c r="I79">
+        <v>-513.7206758511576</v>
+      </c>
+      <c r="J79">
+        <v>500.0804822972336</v>
+      </c>
+      <c r="K79">
+        <v>3279.839012639574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>947</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>43.72344033799266</v>
+      </c>
+      <c r="G80">
+        <v>177.0933147870781</v>
+      </c>
+      <c r="H80">
+        <v>1942.829979751137</v>
+      </c>
+      <c r="I80">
+        <v>-463.8072394720674</v>
+      </c>
+      <c r="J80">
+        <v>470.8507563510424</v>
+      </c>
+      <c r="K80">
+        <v>3216.80445798119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>947</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>42.55891765445157</v>
+      </c>
+      <c r="G81">
+        <v>191.9201627689034</v>
+      </c>
+      <c r="H81">
+        <v>1961.205367290397</v>
+      </c>
+      <c r="I81">
+        <v>-412.6647306416618</v>
+      </c>
+      <c r="J81">
+        <v>441.6210304048513</v>
+      </c>
+      <c r="K81">
+        <v>3137.794342241337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>947</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>41.48267147897803</v>
+      </c>
+      <c r="G82">
+        <v>206.7470107507287</v>
+      </c>
+      <c r="H82">
+        <v>1978.640924212097</v>
+      </c>
+      <c r="I82">
+        <v>-360.2628845815522</v>
+      </c>
+      <c r="J82">
+        <v>412.3913044586601</v>
+      </c>
+      <c r="K82">
+        <v>3042.808665420015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>947</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>40.484092460129</v>
+      </c>
+      <c r="G83">
+        <v>221.573858732554</v>
+      </c>
+      <c r="H83">
+        <v>1995.228128205946</v>
+      </c>
+      <c r="I83">
+        <v>-306.570691271027</v>
+      </c>
+      <c r="J83">
+        <v>383.1615785124689</v>
+      </c>
+      <c r="K83">
+        <v>2931.847427517223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>947</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>39.55427341084052</v>
+      </c>
+      <c r="G84">
+        <v>236.4007067143794</v>
+      </c>
+      <c r="H84">
+        <v>2011.045718639314</v>
+      </c>
+      <c r="I84">
+        <v>-251.5563770961424</v>
+      </c>
+      <c r="J84">
+        <v>353.9318525662778</v>
+      </c>
+      <c r="K84">
+        <v>2804.910628532962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>947</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>38.68567376694737</v>
+      </c>
+      <c r="G85">
+        <v>251.2275546962047</v>
+      </c>
+      <c r="H85">
+        <v>2026.16195710835</v>
+      </c>
+      <c r="I85">
+        <v>-195.1873860469422</v>
+      </c>
+      <c r="J85">
+        <v>324.7021266200866</v>
+      </c>
+      <c r="K85">
+        <v>2661.998268467231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>947</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>37.87186145474746</v>
+      </c>
+      <c r="G86">
+        <v>266.05440267803</v>
+      </c>
+      <c r="H86">
+        <v>2040.636407770303</v>
+      </c>
+      <c r="I86">
+        <v>-137.4303604516761</v>
+      </c>
+      <c r="J86">
+        <v>295.4724006738955</v>
+      </c>
+      <c r="K86">
+        <v>2503.110347320032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>947</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>37.10731192210885</v>
+      </c>
+      <c r="G87">
+        <v>280.8812506598553</v>
+      </c>
+      <c r="H87">
+        <v>2054.521354902032</v>
+      </c>
+      <c r="I87">
+        <v>-78.25112123661559</v>
+      </c>
+      <c r="J87">
+        <v>266.2426747277044</v>
+      </c>
+      <c r="K87">
+        <v>2328.246865091363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>947</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>36.38724995818798</v>
+      </c>
+      <c r="G88">
+        <v>295.7080986416806</v>
+      </c>
+      <c r="H88">
+        <v>2067.862942927839</v>
+      </c>
+      <c r="I88">
+        <v>-17.61464769978632</v>
+      </c>
+      <c r="J88">
+        <v>237.0129487815131</v>
+      </c>
+      <c r="K88">
+        <v>2137.407821781224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>947</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>35.70752394075585</v>
+      </c>
+      <c r="G89">
+        <v>310.534946623506</v>
+      </c>
+      <c r="H89">
+        <v>2080.702101669344</v>
+      </c>
+      <c r="I89">
+        <v>44.51494321335478</v>
+      </c>
+      <c r="J89">
+        <v>207.7832228353221</v>
+      </c>
+      <c r="K89">
+        <v>1930.593217389617</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>947</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>35.06450493989917</v>
+      </c>
+      <c r="G90">
+        <v>325.3617946053313</v>
+      </c>
+      <c r="H90">
+        <v>2093.075303615665</v>
+      </c>
+      <c r="I90">
+        <v>108.1744181445563</v>
+      </c>
+      <c r="J90">
+        <v>178.5534968891309</v>
+      </c>
+      <c r="K90">
+        <v>1707.80305191654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>947</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>34.45500507511486</v>
+      </c>
+      <c r="G91">
+        <v>340.1886425871566</v>
+      </c>
+      <c r="H91">
+        <v>2105.015188531413</v>
+      </c>
+      <c r="I91">
+        <v>173.4014490802962</v>
+      </c>
+      <c r="J91">
+        <v>149.3237709429398</v>
+      </c>
+      <c r="K91">
+        <v>1469.037325361995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>947</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>33.87621093079538</v>
+      </c>
+      <c r="G92">
+        <v>355.0154905689819</v>
+      </c>
+      <c r="H92">
+        <v>2116.551082349498</v>
+      </c>
+      <c r="I92">
+        <v>240.2346356450599</v>
+      </c>
+      <c r="J92">
+        <v>120.0940449967486</v>
+      </c>
+      <c r="K92">
+        <v>1214.296037725978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>947</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>33.32562885521568</v>
+      </c>
+      <c r="G93">
+        <v>369.8423385508072</v>
+      </c>
+      <c r="H93">
+        <v>2127.709431118417</v>
+      </c>
+      <c r="I93">
+        <v>308.7135279435773</v>
+      </c>
+      <c r="J93">
+        <v>90.86431905055736</v>
+      </c>
+      <c r="K93">
+        <v>943.5791890084936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>947</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>32.80103971601579</v>
+      </c>
+      <c r="G94">
+        <v>384.6691865326325</v>
+      </c>
+      <c r="H94">
+        <v>2138.514166163572</v>
+      </c>
+      <c r="I94">
+        <v>378.8786499655189</v>
+      </c>
+      <c r="J94">
+        <v>61.63459310436629</v>
+      </c>
+      <c r="K94">
+        <v>656.88677920954</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>947</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>32.30046123953241</v>
+      </c>
+      <c r="G95">
+        <v>399.4960345144578</v>
+      </c>
+      <c r="H95">
+        <v>2148.987013145671</v>
+      </c>
+      <c r="I95">
+        <v>450.7715235665237</v>
+      </c>
+      <c r="J95">
+        <v>32.40486715817508</v>
+      </c>
+      <c r="K95">
+        <v>354.2188083291162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>947</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>31.82211647645859</v>
+      </c>
+      <c r="G96">
+        <v>414.3228824962832</v>
+      </c>
+      <c r="H96">
+        <v>2159.14775505209</v>
+      </c>
+      <c r="I96">
+        <v>524.4346930397217</v>
+      </c>
+      <c r="J96">
+        <v>3.175141211983875</v>
+      </c>
+      <c r="K96">
+        <v>35.57527636722334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>947</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>31.36440725016609</v>
+      </c>
+      <c r="G97">
+        <v>429.1497304781085</v>
+      </c>
+      <c r="H97">
+        <v>2169.014457123108</v>
+      </c>
+      <c r="I97">
+        <v>599.9117502923233</v>
+      </c>
+      <c r="J97">
+        <v>-26.0545847342072</v>
+      </c>
+      <c r="K97">
+        <v>-299.0438166761379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>947</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>30.9258916834381</v>
+      </c>
+      <c r="G98">
+        <v>443.9765784599338</v>
+      </c>
+      <c r="H98">
+        <v>2178.603660138861</v>
+      </c>
+      <c r="I98">
+        <v>677.2473606421511</v>
+      </c>
+      <c r="J98">
+        <v>-55.2843106803984</v>
+      </c>
+      <c r="K98">
+        <v>-649.6384708009693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>947</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>30.50526508352539</v>
+      </c>
+      <c r="G99">
+        <v>458.8034264417591</v>
+      </c>
+      <c r="H99">
+        <v>2187.930547261841</v>
+      </c>
+      <c r="I99">
+        <v>756.4872892493871</v>
+      </c>
+      <c r="J99">
+        <v>-84.51403662658961</v>
+      </c>
+      <c r="K99">
+        <v>-1016.208686007271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>947</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>30.10134360823143</v>
+      </c>
+      <c r="G100">
+        <v>473.6302744235844</v>
+      </c>
+      <c r="H100">
+        <v>2197.009088661138</v>
+      </c>
+      <c r="I100">
+        <v>837.6784281991785</v>
+      </c>
+      <c r="J100">
+        <v>-113.7437625727808</v>
+      </c>
+      <c r="K100">
+        <v>-1398.754462295041</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>947</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>29.71305024726186</v>
+      </c>
+      <c r="G101">
+        <v>488.4571224054097</v>
+      </c>
+      <c r="H101">
+        <v>2205.852167377065</v>
+      </c>
+      <c r="I101">
+        <v>920.8688242511298</v>
+      </c>
+      <c r="J101">
+        <v>-142.9734885189717</v>
+      </c>
+      <c r="K101">
+        <v>-1797.275799664278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>947</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>29.33940274080489</v>
+      </c>
+      <c r="G102">
+        <v>503.2839703872351</v>
+      </c>
+      <c r="H102">
+        <v>2214.471689272491</v>
+      </c>
+      <c r="I102">
+        <v>1006.1077072721</v>
+      </c>
+      <c r="J102">
+        <v>-172.2032144651629</v>
+      </c>
+      <c r="K102">
+        <v>-2211.772698114986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>947</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>28.97950312677189</v>
+      </c>
+      <c r="G103">
+        <v>518.1108183690603</v>
+      </c>
+      <c r="H103">
+        <v>2222.878679425805</v>
+      </c>
+      <c r="I103">
+        <v>1093.445519369127</v>
+      </c>
+      <c r="J103">
+        <v>-201.4329404113542</v>
+      </c>
+      <c r="K103">
+        <v>-2642.245157647165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>947</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>28.6325286634735</v>
+      </c>
+      <c r="G104">
+        <v>532.9376663508857</v>
+      </c>
+      <c r="H104">
+        <v>2231.083366923623</v>
+      </c>
+      <c r="I104">
+        <v>1182.93394473973</v>
+      </c>
+      <c r="J104">
+        <v>-230.6626663575454</v>
+      </c>
+      <c r="K104">
+        <v>-3088.693178260813</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>947</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>28.29772391886863</v>
+      </c>
+      <c r="G105">
+        <v>547.7645143327111</v>
+      </c>
+      <c r="H105">
+        <v>2239.095259689137</v>
+      </c>
+      <c r="I105">
+        <v>1274.625940257243</v>
+      </c>
+      <c r="J105">
+        <v>-259.8923923037366</v>
+      </c>
+      <c r="K105">
+        <v>-3551.116759955929</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>947</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>27.97439385327604</v>
+      </c>
+      <c r="G106">
+        <v>562.5913623145364</v>
+      </c>
+      <c r="H106">
+        <v>2246.923210719065</v>
+      </c>
+      <c r="I106">
+        <v>1368.575766809283</v>
+      </c>
+      <c r="J106">
+        <v>-289.1221182499275</v>
+      </c>
+      <c r="K106">
+        <v>-4029.515902732512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>947</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>27.66189775141429</v>
+      </c>
+      <c r="G107">
+        <v>577.4182102963616</v>
+      </c>
+      <c r="H107">
+        <v>2254.575476886373</v>
+      </c>
+      <c r="I107">
+        <v>1464.839021407913</v>
+      </c>
+      <c r="J107">
+        <v>-318.3518441961187</v>
+      </c>
+      <c r="K107">
+        <v>-4523.890606590568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>947</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G108">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H108">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I108">
+        <v>-1602.24428573106</v>
+      </c>
+      <c r="J108">
+        <v>1585.144825092485</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>947</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G109">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H109">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I109">
+        <v>-1570.611717175079</v>
+      </c>
+      <c r="J109">
+        <v>1546.584918430631</v>
+      </c>
+      <c r="K109">
+        <v>424.0174862794904</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>947</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G110">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H110">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I110">
+        <v>-1538.200225719836</v>
+      </c>
+      <c r="J110">
+        <v>1508.025011768778</v>
+      </c>
+      <c r="K110">
+        <v>826.8915170667042</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>947</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G111">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H111">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I111">
+        <v>-1504.990631105534</v>
+      </c>
+      <c r="J111">
+        <v>1469.465105106924</v>
+      </c>
+      <c r="K111">
+        <v>1208.622092361644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>947</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G112">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H112">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I112">
+        <v>-1470.963280776121</v>
+      </c>
+      <c r="J112">
+        <v>1430.905198445071</v>
+      </c>
+      <c r="K112">
+        <v>1569.209212164308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>947</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G113">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H113">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I113">
+        <v>-1436.098038249434</v>
+      </c>
+      <c r="J113">
+        <v>1392.345291783217</v>
+      </c>
+      <c r="K113">
+        <v>1908.652876474699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>947</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G114">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H114">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I114">
+        <v>-1400.374271200963</v>
+      </c>
+      <c r="J114">
+        <v>1353.785385121364</v>
+      </c>
+      <c r="K114">
+        <v>2226.953085292815</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>947</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G115">
+        <v>-118.1979874245498</v>
+      </c>
+      <c r="H115">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I115">
+        <v>-1363.770839254187</v>
+      </c>
+      <c r="J115">
+        <v>1315.22547845951</v>
+      </c>
+      <c r="K115">
+        <v>2524.109838618655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>947</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>194.5795648949402</v>
+      </c>
+      <c r="G116">
+        <v>-98.68017264629582</v>
+      </c>
+      <c r="H116">
+        <v>742.1961236838071</v>
+      </c>
+      <c r="I116">
+        <v>-1326.266081470261</v>
+      </c>
+      <c r="J116">
+        <v>1276.665571797657</v>
+      </c>
+      <c r="K116">
+        <v>2800.12313645222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>947</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>151.0164413214408</v>
+      </c>
+      <c r="G117">
+        <v>-79.16235786804181</v>
+      </c>
+      <c r="H117">
+        <v>914.3806300993076</v>
+      </c>
+      <c r="I117">
+        <v>-1287.83780352965</v>
+      </c>
+      <c r="J117">
+        <v>1238.105665135804</v>
+      </c>
+      <c r="K117">
+        <v>3054.992978793509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>947</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>125.4252915841942</v>
+      </c>
+      <c r="G118">
+        <v>-59.64454308978783</v>
+      </c>
+      <c r="H118">
+        <v>1016.942527970345</v>
+      </c>
+      <c r="I118">
+        <v>-1248.463264598119</v>
+      </c>
+      <c r="J118">
+        <v>1199.54575847395</v>
+      </c>
+      <c r="K118">
+        <v>3288.719365642525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>947</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>109.2702804083088</v>
+      </c>
+      <c r="G119">
+        <v>-40.12672831153383</v>
+      </c>
+      <c r="H119">
+        <v>1090.236584485099</v>
+      </c>
+      <c r="I119">
+        <v>-1208.11916386931</v>
+      </c>
+      <c r="J119">
+        <v>1160.985851812097</v>
+      </c>
+      <c r="K119">
+        <v>3501.302296999266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>947</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>98.00384119128664</v>
+      </c>
+      <c r="G120">
+        <v>-20.60891353327983</v>
+      </c>
+      <c r="H120">
+        <v>1147.310627025819</v>
+      </c>
+      <c r="I120">
+        <v>-1166.781626775947</v>
+      </c>
+      <c r="J120">
+        <v>1122.425945150243</v>
+      </c>
+      <c r="K120">
+        <v>3692.741772863732</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>947</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>89.59874014402888</v>
+      </c>
+      <c r="G121">
+        <v>-1.091098755025852</v>
+      </c>
+      <c r="H121">
+        <v>1194.058694932942</v>
+      </c>
+      <c r="I121">
+        <v>-1124.426190861496</v>
+      </c>
+      <c r="J121">
+        <v>1083.86603848839</v>
+      </c>
+      <c r="K121">
+        <v>3863.037793235922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>947</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>83.027124862637</v>
+      </c>
+      <c r="G122">
+        <v>18.42671602322815</v>
+      </c>
+      <c r="H122">
+        <v>1233.650896006711</v>
+      </c>
+      <c r="I122">
+        <v>-1081.027791303939</v>
+      </c>
+      <c r="J122">
+        <v>1045.306131826537</v>
+      </c>
+      <c r="K122">
+        <v>4012.190358115838</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>947</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>77.71020960499246</v>
+      </c>
+      <c r="G123">
+        <v>37.94453080148214</v>
+      </c>
+      <c r="H123">
+        <v>1267.989919623767</v>
+      </c>
+      <c r="I123">
+        <v>-1036.560746083072</v>
+      </c>
+      <c r="J123">
+        <v>1006.746225164683</v>
+      </c>
+      <c r="K123">
+        <v>4140.199467503478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>947</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>73.29527541810788</v>
+      </c>
+      <c r="G124">
+        <v>57.46234557973613</v>
+      </c>
+      <c r="H124">
+        <v>1298.307879504239</v>
+      </c>
+      <c r="I124">
+        <v>-990.9987407825735</v>
+      </c>
+      <c r="J124">
+        <v>968.1863185028297</v>
+      </c>
+      <c r="K124">
+        <v>4247.065121398845</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>947</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>69.55395087724685</v>
+      </c>
+      <c r="G125">
+        <v>76.98016035799014</v>
+      </c>
+      <c r="H125">
+        <v>1325.448554446333</v>
+      </c>
+      <c r="I125">
+        <v>-944.3148130178257</v>
+      </c>
+      <c r="J125">
+        <v>929.6264118409763</v>
+      </c>
+      <c r="K125">
+        <v>4332.787319801937</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>947</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>66.33116479028772</v>
+      </c>
+      <c r="G126">
+        <v>96.49797513624412</v>
+      </c>
+      <c r="H126">
+        <v>1350.015175819278</v>
+      </c>
+      <c r="I126">
+        <v>-896.4813364802972</v>
+      </c>
+      <c r="J126">
+        <v>891.0665051791229</v>
+      </c>
+      <c r="K126">
+        <v>4397.366062712753</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>947</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>63.5175060094257</v>
+      </c>
+      <c r="G127">
+        <v>116.0157899144981</v>
+      </c>
+      <c r="H127">
+        <v>1372.453979373838</v>
+      </c>
+      <c r="I127">
+        <v>-847.4700045890237</v>
+      </c>
+      <c r="J127">
+        <v>852.5065985172695</v>
+      </c>
+      <c r="K127">
+        <v>4440.801350131293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>947</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>61.03331123778278</v>
+      </c>
+      <c r="G128">
+        <v>135.5336046927521</v>
+      </c>
+      <c r="H128">
+        <v>1393.104361798043</v>
+      </c>
+      <c r="I128">
+        <v>-797.2518137395258</v>
+      </c>
+      <c r="J128">
+        <v>813.9466918554161</v>
+      </c>
+      <c r="K128">
+        <v>4463.093182057561</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>947</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>58.81903187016541</v>
+      </c>
+      <c r="G129">
+        <v>155.0514194710061</v>
+      </c>
+      <c r="H129">
+        <v>1412.230480515248</v>
+      </c>
+      <c r="I129">
+        <v>-745.7970461402474</v>
+      </c>
+      <c r="J129">
+        <v>775.3867851935627</v>
+      </c>
+      <c r="K129">
+        <v>4464.241558491552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>947</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>56.82915215943648</v>
+      </c>
+      <c r="G130">
+        <v>174.5692342492601</v>
+      </c>
+      <c r="H130">
+        <v>1430.041970767679</v>
+      </c>
+      <c r="I130">
+        <v>-693.0752522263554</v>
+      </c>
+      <c r="J130">
+        <v>736.8268785317092</v>
+      </c>
+      <c r="K130">
+        <v>4444.246479433268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>947</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>55.02821066176448</v>
+      </c>
+      <c r="G131">
+        <v>194.0870490275141</v>
+      </c>
+      <c r="H131">
+        <v>1446.707989105187</v>
+      </c>
+      <c r="I131">
+        <v>-639.0552326404942</v>
+      </c>
+      <c r="J131">
+        <v>698.2669718698559</v>
+      </c>
+      <c r="K131">
+        <v>4403.107944882709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>947</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>53.38811715364989</v>
+      </c>
+      <c r="G132">
+        <v>213.6048638057681</v>
+      </c>
+      <c r="H132">
+        <v>1462.367007587292</v>
+      </c>
+      <c r="I132">
+        <v>-583.7050197698381</v>
+      </c>
+      <c r="J132">
+        <v>659.7070652080024</v>
+      </c>
+      <c r="K132">
+        <v>4340.825954839876</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>947</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>51.88629485502054</v>
+      </c>
+      <c r="G133">
+        <v>233.1226785840221</v>
+      </c>
+      <c r="H133">
+        <v>1477.133813948681</v>
+      </c>
+      <c r="I133">
+        <v>-526.9918588285044</v>
+      </c>
+      <c r="J133">
+        <v>621.1471585461489</v>
+      </c>
+      <c r="K133">
+        <v>4257.400509304768</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>947</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>50.50436409073278</v>
+      </c>
+      <c r="G134">
+        <v>252.6404933622761</v>
+      </c>
+      <c r="H134">
+        <v>1491.104622800482</v>
+      </c>
+      <c r="I134">
+        <v>-468.882188474142</v>
+      </c>
+      <c r="J134">
+        <v>582.5872518842956</v>
+      </c>
+      <c r="K134">
+        <v>4152.831608277385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>947</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>49.22719042906451</v>
+      </c>
+      <c r="G135">
+        <v>272.1583081405301</v>
+      </c>
+      <c r="H135">
+        <v>1504.360878346513</v>
+      </c>
+      <c r="I135">
+        <v>-409.3416209472192</v>
+      </c>
+      <c r="J135">
+        <v>544.0273452224421</v>
+      </c>
+      <c r="K135">
+        <v>4027.119251757727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>947</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>48.04218382831409</v>
+      </c>
+      <c r="G136">
+        <v>291.6761229187841</v>
+      </c>
+      <c r="H136">
+        <v>1516.972131082749</v>
+      </c>
+      <c r="I136">
+        <v>-348.3349217212639</v>
+      </c>
+      <c r="J136">
+        <v>505.4674385605886</v>
+      </c>
+      <c r="K136">
+        <v>3880.263439745794</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>947</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>46.93877419311036</v>
+      </c>
+      <c r="G137">
+        <v>311.1939376970381</v>
+      </c>
+      <c r="H137">
+        <v>1528.998246557512</v>
+      </c>
+      <c r="I137">
+        <v>-285.8259886520037</v>
+      </c>
+      <c r="J137">
+        <v>466.9075318987353</v>
+      </c>
+      <c r="K137">
+        <v>3712.264172241587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>947</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>45.90801318973056</v>
+      </c>
+      <c r="G138">
+        <v>330.7117524752921</v>
+      </c>
+      <c r="H138">
+        <v>1540.49112406869</v>
+      </c>
+      <c r="I138">
+        <v>-221.7778306130769</v>
+      </c>
+      <c r="J138">
+        <v>428.3476252368818</v>
+      </c>
+      <c r="K138">
+        <v>3523.121449245104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>947</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>44.94226792217989</v>
+      </c>
+      <c r="G139">
+        <v>350.229567253546</v>
+      </c>
+      <c r="H139">
+        <v>1551.496050250569</v>
+      </c>
+      <c r="I139">
+        <v>-156.1525456056662</v>
+      </c>
+      <c r="J139">
+        <v>389.7877185750285</v>
+      </c>
+      <c r="K139">
+        <v>3312.835270756347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>947</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>44.03498244383923</v>
+      </c>
+      <c r="G140">
+        <v>369.7473820318</v>
+      </c>
+      <c r="H140">
+        <v>1562.052776843698</v>
+      </c>
+      <c r="I140">
+        <v>-88.91129832910302</v>
+      </c>
+      <c r="J140">
+        <v>351.227811913175</v>
+      </c>
+      <c r="K140">
+        <v>3081.405636775314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>947</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>43.1804900460528</v>
+      </c>
+      <c r="G141">
+        <v>389.2651968100541</v>
+      </c>
+      <c r="H141">
+        <v>1572.196387458157</v>
+      </c>
+      <c r="I141">
+        <v>-20.01429719916798</v>
+      </c>
+      <c r="J141">
+        <v>312.6679052513215</v>
+      </c>
+      <c r="K141">
+        <v>2828.832547302006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>947</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>42.37386402832686</v>
+      </c>
+      <c r="G142">
+        <v>408.7830115883081</v>
+      </c>
+      <c r="H142">
+        <v>1581.958001041123</v>
+      </c>
+      <c r="I142">
+        <v>50.5792291995131</v>
+      </c>
+      <c r="J142">
+        <v>274.1079985894683</v>
+      </c>
+      <c r="K142">
+        <v>2555.116002336424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>947</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>41.61079796541142</v>
+      </c>
+      <c r="G143">
+        <v>428.300826366562</v>
+      </c>
+      <c r="H143">
+        <v>1591.365347629458</v>
+      </c>
+      <c r="I143">
+        <v>122.9110562409082</v>
+      </c>
+      <c r="J143">
+        <v>235.5480919276147</v>
+      </c>
+      <c r="K143">
+        <v>2260.256001878567</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>947</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>40.8875088222464</v>
+      </c>
+      <c r="G144">
+        <v>447.818641144816</v>
+      </c>
+      <c r="H144">
+        <v>1600.443243239225</v>
+      </c>
+      <c r="I144">
+        <v>197.0239879791376</v>
+      </c>
+      <c r="J144">
+        <v>196.9881852657614</v>
+      </c>
+      <c r="K144">
+        <v>1944.252545928435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>947</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>40.20065793859293</v>
+      </c>
+      <c r="G145">
+        <v>467.33645592307</v>
+      </c>
+      <c r="H145">
+        <v>1609.213984379938</v>
+      </c>
+      <c r="I145">
+        <v>272.9618824787731</v>
+      </c>
+      <c r="J145">
+        <v>158.428278603908</v>
+      </c>
+      <c r="K145">
+        <v>1607.105634486027</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>947</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>39.54728611573127</v>
+      </c>
+      <c r="G146">
+        <v>486.854270701324</v>
+      </c>
+      <c r="H146">
+        <v>1617.697677984725</v>
+      </c>
+      <c r="I146">
+        <v>350.7696777688809</v>
+      </c>
+      <c r="J146">
+        <v>119.8683719420545</v>
+      </c>
+      <c r="K146">
+        <v>1248.815267551345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>947</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>38.92475992511458</v>
+      </c>
+      <c r="G147">
+        <v>506.372085479578</v>
+      </c>
+      <c r="H147">
+        <v>1625.91251904251</v>
+      </c>
+      <c r="I147">
+        <v>430.4934184361473</v>
+      </c>
+      <c r="J147">
+        <v>81.30846528020116</v>
+      </c>
+      <c r="K147">
+        <v>869.3814451243891</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>947</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>38.3307270167223</v>
+      </c>
+      <c r="G148">
+        <v>525.889900257832</v>
+      </c>
+      <c r="H148">
+        <v>1633.875025575146</v>
+      </c>
+      <c r="I148">
+        <v>512.1802828728503</v>
+      </c>
+      <c r="J148">
+        <v>42.74855861834767</v>
+      </c>
+      <c r="K148">
+        <v>468.8041672051567</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>947</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>37.76307869748342</v>
+      </c>
+      <c r="G149">
+        <v>545.4077150360861</v>
+      </c>
+      <c r="H149">
+        <v>1641.60023858977</v>
+      </c>
+      <c r="I149">
+        <v>595.8786111957692</v>
+      </c>
+      <c r="J149">
+        <v>4.188651956494183</v>
+      </c>
+      <c r="K149">
+        <v>47.08343379364968</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>947</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>37.21991842258986</v>
+      </c>
+      <c r="G150">
+        <v>564.9255298143401</v>
+      </c>
+      <c r="H150">
+        <v>1649.101893090246</v>
+      </c>
+      <c r="I150">
+        <v>681.6379338525891</v>
+      </c>
+      <c r="J150">
+        <v>-34.37125470535912</v>
+      </c>
+      <c r="K150">
+        <v>-395.7807551101309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>947</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>36.69953512663055</v>
+      </c>
+      <c r="G151">
+        <v>584.4433445925939</v>
+      </c>
+      <c r="H151">
+        <v>1656.392565033244</v>
+      </c>
+      <c r="I151">
+        <v>769.5090009327035</v>
+      </c>
+      <c r="J151">
+        <v>-72.93116136721261</v>
+      </c>
+      <c r="K151">
+        <v>-859.7883995061878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>947</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>36.2003805400238</v>
+      </c>
+      <c r="G152">
+        <v>603.961159370848</v>
+      </c>
+      <c r="H152">
+        <v>1663.483798178617</v>
+      </c>
+      <c r="I152">
+        <v>859.5438121997669</v>
+      </c>
+      <c r="J152">
+        <v>-111.4910680290661</v>
+      </c>
+      <c r="K152">
+        <v>-1344.939499394521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>947</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>35.72104980567703</v>
+      </c>
+      <c r="G153">
+        <v>623.478974149102</v>
+      </c>
+      <c r="H153">
+        <v>1670.386214047222</v>
+      </c>
+      <c r="I153">
+        <v>951.795647863774</v>
+      </c>
+      <c r="J153">
+        <v>-150.0509746909196</v>
+      </c>
+      <c r="K153">
+        <v>-1851.234054775128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>947</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>35.26026484315413</v>
+      </c>
+      <c r="G154">
+        <v>642.996788927356</v>
+      </c>
+      <c r="H154">
+        <v>1677.109607615803</v>
+      </c>
+      <c r="I154">
+        <v>1046.319100110874</v>
+      </c>
+      <c r="J154">
+        <v>-188.6108813527727</v>
+      </c>
+      <c r="K154">
+        <v>-2378.672065648006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>947</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>34.81686001174101</v>
+      </c>
+      <c r="G155">
+        <v>662.5146037056101</v>
+      </c>
+      <c r="H155">
+        <v>1683.663030913005</v>
+      </c>
+      <c r="I155">
+        <v>1143.170105409579</v>
+      </c>
+      <c r="J155">
+        <v>-227.1707880146262</v>
+      </c>
+      <c r="K155">
+        <v>-2927.253532013162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>947</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>34.38976970623049</v>
+      </c>
+      <c r="G156">
+        <v>682.0324184838639</v>
+      </c>
+      <c r="H156">
+        <v>1690.054866306952</v>
+      </c>
+      <c r="I156">
+        <v>1242.405977612472</v>
+      </c>
+      <c r="J156">
+        <v>-265.7306946764797</v>
+      </c>
+      <c r="K156">
+        <v>-3496.978453870594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>947</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>33.97801758492682</v>
+      </c>
+      <c r="G157">
+        <v>701.5502332621179</v>
+      </c>
+      <c r="H157">
+        <v>1696.292890973146</v>
+      </c>
+      <c r="I157">
+        <v>1344.085441873033</v>
+      </c>
+      <c r="J157">
+        <v>-304.2906013383331</v>
+      </c>
+      <c r="K157">
+        <v>-4087.846831220301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>947</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>33.58070718201387</v>
+      </c>
+      <c r="G158">
+        <v>721.068048040372</v>
+      </c>
+      <c r="H158">
+        <v>1702.384333786473</v>
+      </c>
+      <c r="I158">
+        <v>1448.26866939762</v>
+      </c>
+      <c r="J158">
+        <v>-342.8505080001867</v>
+      </c>
+      <c r="K158">
+        <v>-4699.858664062282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>947</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>33.19701369885827</v>
+      </c>
+      <c r="G159">
+        <v>740.585862818626</v>
+      </c>
+      <c r="H159">
+        <v>1708.33592568116</v>
+      </c>
+      <c r="I159">
+        <v>1555.017313053186</v>
+      </c>
+      <c r="J159">
+        <v>-381.4104146620398</v>
+      </c>
+      <c r="K159">
+        <v>-5333.013952396534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>947</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>32.82617680320453</v>
+      </c>
+      <c r="G160">
+        <v>760.1036775968798</v>
+      </c>
+      <c r="H160">
+        <v>1714.153944358489</v>
+      </c>
+      <c r="I160">
+        <v>1664.39454385182</v>
+      </c>
+      <c r="J160">
+        <v>-419.9703213238932</v>
+      </c>
+      <c r="K160">
+        <v>-5987.312696223065</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>947</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G161">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H161">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I161">
+        <v>-2108.279384253464</v>
+      </c>
+      <c r="J161">
+        <v>1734.808392725148</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>947</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G162">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H162">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I162">
+        <v>-2066.65633541411</v>
+      </c>
+      <c r="J162">
+        <v>1692.60780093015</v>
+      </c>
+      <c r="K162">
+        <v>243.0474140759032</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>947</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G163">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H163">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I163">
+        <v>-2024.008357289591</v>
+      </c>
+      <c r="J163">
+        <v>1650.407209135152</v>
+      </c>
+      <c r="K163">
+        <v>473.9753699966315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>947</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G164">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H164">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I164">
+        <v>-1980.310211939175</v>
+      </c>
+      <c r="J164">
+        <v>1608.206617340154</v>
+      </c>
+      <c r="K164">
+        <v>692.7838677621863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>947</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G165">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H165">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I165">
+        <v>-1935.536039961062</v>
+      </c>
+      <c r="J165">
+        <v>1566.006025545156</v>
+      </c>
+      <c r="K165">
+        <v>899.4729073725665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>947</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G166">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H166">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I166">
+        <v>-1889.65934518947</v>
+      </c>
+      <c r="J166">
+        <v>1523.805433750158</v>
+      </c>
+      <c r="K166">
+        <v>1094.042488827774</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>947</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G167">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H167">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I167">
+        <v>-1842.652979014914</v>
+      </c>
+      <c r="J167">
+        <v>1481.60484195516</v>
+      </c>
+      <c r="K167">
+        <v>1276.492612127806</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>947</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G168">
+        <v>-98.82041253110428</v>
+      </c>
+      <c r="H168">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I168">
+        <v>-1794.489124318373</v>
+      </c>
+      <c r="J168">
+        <v>1439.404250160161</v>
+      </c>
+      <c r="K168">
+        <v>1446.823277272665</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>947</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>290.932151824077</v>
+      </c>
+      <c r="G169">
+        <v>-82.50238081060699</v>
+      </c>
+      <c r="H169">
+        <v>621.0811442285064</v>
+      </c>
+      <c r="I169">
+        <v>-1745.139279009863</v>
+      </c>
+      <c r="J169">
+        <v>1397.203658365163</v>
+      </c>
+      <c r="K169">
+        <v>1605.034484262349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>947</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>225.7972889300243</v>
+      </c>
+      <c r="G170">
+        <v>-66.18434909010971</v>
+      </c>
+      <c r="H170">
+        <v>765.1677903998342</v>
+      </c>
+      <c r="I170">
+        <v>-1694.574239161657</v>
+      </c>
+      <c r="J170">
+        <v>1355.003066570165</v>
+      </c>
+      <c r="K170">
+        <v>1751.126233096859</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>947</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>187.5338244972137</v>
+      </c>
+      <c r="G171">
+        <v>-49.86631736961242</v>
+      </c>
+      <c r="H171">
+        <v>850.9931657303154</v>
+      </c>
+      <c r="I171">
+        <v>-1642.764081726172</v>
+      </c>
+      <c r="J171">
+        <v>1312.802474775167</v>
+      </c>
+      <c r="K171">
+        <v>1885.098523776196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>947</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>163.3791185974445</v>
+      </c>
+      <c r="G172">
+        <v>-33.54828564911513</v>
+      </c>
+      <c r="H172">
+        <v>912.3267607636486</v>
+      </c>
+      <c r="I172">
+        <v>-1589.678146828309</v>
+      </c>
+      <c r="J172">
+        <v>1270.601882980169</v>
+      </c>
+      <c r="K172">
+        <v>2006.951356300358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>947</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>146.5337247526529</v>
+      </c>
+      <c r="G173">
+        <v>-17.23025392861784</v>
+      </c>
+      <c r="H173">
+        <v>960.0871983566077</v>
+      </c>
+      <c r="I173">
+        <v>-1535.285019621751</v>
+      </c>
+      <c r="J173">
+        <v>1228.401291185171</v>
+      </c>
+      <c r="K173">
+        <v>2116.684730669347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>947</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>133.9665564824504</v>
+      </c>
+      <c r="G174">
+        <v>-0.9122222081205595</v>
+      </c>
+      <c r="H174">
+        <v>999.2067013824646</v>
+      </c>
+      <c r="I174">
+        <v>-1479.55251169849</v>
+      </c>
+      <c r="J174">
+        <v>1186.200699390173</v>
+      </c>
+      <c r="K174">
+        <v>2214.29864688316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>947</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>124.1407858481722</v>
+      </c>
+      <c r="G175">
+        <v>15.40580951237673</v>
+      </c>
+      <c r="H175">
+        <v>1032.338064860048</v>
+      </c>
+      <c r="I175">
+        <v>-1422.447642040587</v>
+      </c>
+      <c r="J175">
+        <v>1144.000107595174</v>
+      </c>
+      <c r="K175">
+        <v>2299.793104941801</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>947</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>116.1910219672221</v>
+      </c>
+      <c r="G176">
+        <v>31.72384123287403</v>
+      </c>
+      <c r="H176">
+        <v>1061.073488556301</v>
+      </c>
+      <c r="I176">
+        <v>-1363.936617502874</v>
+      </c>
+      <c r="J176">
+        <v>1101.799515800176</v>
+      </c>
+      <c r="K176">
+        <v>2373.168104845267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>947</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>109.5898852864739</v>
+      </c>
+      <c r="G177">
+        <v>48.0418729533713</v>
+      </c>
+      <c r="H177">
+        <v>1086.444024203641</v>
+      </c>
+      <c r="I177">
+        <v>-1303.984812815077</v>
+      </c>
+      <c r="J177">
+        <v>1059.598924005178</v>
+      </c>
+      <c r="K177">
+        <v>2434.423646593559</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>947</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>103.995918623363</v>
+      </c>
+      <c r="G178">
+        <v>64.35990467386861</v>
+      </c>
+      <c r="H178">
+        <v>1109.155758892451</v>
+      </c>
+      <c r="I178">
+        <v>-1242.55675009149</v>
+      </c>
+      <c r="J178">
+        <v>1017.39833221018</v>
+      </c>
+      <c r="K178">
+        <v>2483.559730186677</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>947</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>99.17726209252959</v>
+      </c>
+      <c r="G179">
+        <v>80.67793639436589</v>
+      </c>
+      <c r="H179">
+        <v>1129.713485920728</v>
+      </c>
+      <c r="I179">
+        <v>-1179.616077836117</v>
+      </c>
+      <c r="J179">
+        <v>975.1977404151819</v>
+      </c>
+      <c r="K179">
+        <v>2520.576355624621</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>947</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>94.97032595277167</v>
+      </c>
+      <c r="G180">
+        <v>96.99596811486316</v>
+      </c>
+      <c r="H180">
+        <v>1148.490622235606</v>
+      </c>
+      <c r="I180">
+        <v>-1115.125549430812</v>
+      </c>
+      <c r="J180">
+        <v>932.9971486201837</v>
+      </c>
+      <c r="K180">
+        <v>2545.473522907391</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>947</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>91.25599895828783</v>
+      </c>
+      <c r="G181">
+        <v>113.3139998353605</v>
+      </c>
+      <c r="H181">
+        <v>1165.771180211472</v>
+      </c>
+      <c r="I181">
+        <v>-1049.047001093724</v>
+      </c>
+      <c r="J181">
+        <v>890.7965568251856</v>
+      </c>
+      <c r="K181">
+        <v>2558.251232034987</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>947</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>87.94524501807626</v>
+      </c>
+      <c r="G182">
+        <v>129.6320315558577</v>
+      </c>
+      <c r="H182">
+        <v>1181.776210847543</v>
+      </c>
+      <c r="I182">
+        <v>-981.3413292949857</v>
+      </c>
+      <c r="J182">
+        <v>848.5959650301874</v>
+      </c>
+      <c r="K182">
+        <v>2558.909483007409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>947</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>84.97000973873942</v>
+      </c>
+      <c r="G183">
+        <v>145.9500632763551</v>
+      </c>
+      <c r="H183">
+        <v>1196.68114014236</v>
+      </c>
+      <c r="I183">
+        <v>-911.9684676162793</v>
+      </c>
+      <c r="J183">
+        <v>806.3953732351891</v>
+      </c>
+      <c r="K183">
+        <v>2547.448275824656</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>947</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>82.27727175512902</v>
+      </c>
+      <c r="G184">
+        <v>162.2680949968523</v>
+      </c>
+      <c r="H184">
+        <v>1210.62752090142</v>
+      </c>
+      <c r="I184">
+        <v>-840.8873630405966</v>
+      </c>
+      <c r="J184">
+        <v>764.1947814401912</v>
+      </c>
+      <c r="K184">
+        <v>2523.86761048673</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>947</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>79.8250310289967</v>
+      </c>
+      <c r="G185">
+        <v>178.5861267173496</v>
+      </c>
+      <c r="H185">
+        <v>1223.731228676246</v>
+      </c>
+      <c r="I185">
+        <v>-768.0559516581552</v>
+      </c>
+      <c r="J185">
+        <v>721.9941896451929</v>
+      </c>
+      <c r="K185">
+        <v>2488.16748699363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>947</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>77.57953113164864</v>
+      </c>
+      <c r="G186">
+        <v>194.9041584378469</v>
+      </c>
+      <c r="H186">
+        <v>1236.088319610662</v>
+      </c>
+      <c r="I186">
+        <v>-693.4311337740912</v>
+      </c>
+      <c r="J186">
+        <v>679.7935978501947</v>
+      </c>
+      <c r="K186">
+        <v>2440.347905345356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>947</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>75.51329107636221</v>
+      </c>
+      <c r="G187">
+        <v>211.2221901583442</v>
+      </c>
+      <c r="H187">
+        <v>1247.779307572722</v>
+      </c>
+      <c r="I187">
+        <v>-616.9687484032061</v>
+      </c>
+      <c r="J187">
+        <v>637.5930060551966</v>
+      </c>
+      <c r="K187">
+        <v>2380.408865541907</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>947</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>73.60368211078143</v>
+      </c>
+      <c r="G188">
+        <v>227.5402218788415</v>
+      </c>
+      <c r="H188">
+        <v>1258.872346326211</v>
+      </c>
+      <c r="I188">
+        <v>-538.6235471366666</v>
+      </c>
+      <c r="J188">
+        <v>595.3924142601984</v>
+      </c>
+      <c r="K188">
+        <v>2308.350367583285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>947</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>71.83187981248665</v>
+      </c>
+      <c r="G189">
+        <v>243.8582535993388</v>
+      </c>
+      <c r="H189">
+        <v>1269.425636797064</v>
+      </c>
+      <c r="I189">
+        <v>-458.3491673652024</v>
+      </c>
+      <c r="J189">
+        <v>553.1918224652002</v>
+      </c>
+      <c r="K189">
+        <v>2224.172411469488</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>947</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>70.18207994945084</v>
+      </c>
+      <c r="G190">
+        <v>260.176285319836</v>
+      </c>
+      <c r="H190">
+        <v>1279.489275397894</v>
+      </c>
+      <c r="I190">
+        <v>-376.0981048429414</v>
+      </c>
+      <c r="J190">
+        <v>510.9912306702022</v>
+      </c>
+      <c r="K190">
+        <v>2127.874997200518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>947</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>68.64090312087922</v>
+      </c>
+      <c r="G191">
+        <v>276.4943170403334</v>
+      </c>
+      <c r="H191">
+        <v>1289.106692260288</v>
+      </c>
+      <c r="I191">
+        <v>-291.8216855756597</v>
+      </c>
+      <c r="J191">
+        <v>468.790638875204</v>
+      </c>
+      <c r="K191">
+        <v>2019.458124776373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>947</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>67.19693674674257</v>
+      </c>
+      <c r="G192">
+        <v>292.8123487608306</v>
+      </c>
+      <c r="H192">
+        <v>1298.315783937118</v>
+      </c>
+      <c r="I192">
+        <v>-205.4700370168048</v>
+      </c>
+      <c r="J192">
+        <v>426.5900470802059</v>
+      </c>
+      <c r="K192">
+        <v>1898.921794197054</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>947</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>65.84037848393163</v>
+      </c>
+      <c r="G193">
+        <v>309.1303804813279</v>
+      </c>
+      <c r="H193">
+        <v>1307.149815296949</v>
+      </c>
+      <c r="I193">
+        <v>-116.992058554248</v>
+      </c>
+      <c r="J193">
+        <v>384.3894552852077</v>
+      </c>
+      <c r="K193">
+        <v>1766.266005462562</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>947</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>64.56275556325366</v>
+      </c>
+      <c r="G194">
+        <v>325.4484122018252</v>
+      </c>
+      <c r="H194">
+        <v>1315.638144844895</v>
+      </c>
+      <c r="I194">
+        <v>-26.33539127029869</v>
+      </c>
+      <c r="J194">
+        <v>342.1888634902095</v>
+      </c>
+      <c r="K194">
+        <v>1621.490758572894</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>947</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>63.35670166349806</v>
+      </c>
+      <c r="G195">
+        <v>341.7664439223225</v>
+      </c>
+      <c r="H195">
+        <v>1323.806813395107</v>
+      </c>
+      <c r="I195">
+        <v>66.55361304291351</v>
+      </c>
+      <c r="J195">
+        <v>299.9882716952114</v>
+      </c>
+      <c r="K195">
+        <v>1464.596053528054</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>947</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>62.21577788875438</v>
+      </c>
+      <c r="G196">
+        <v>358.0844756428198</v>
+      </c>
+      <c r="H196">
+        <v>1331.679025869402</v>
+      </c>
+      <c r="I196">
+        <v>161.7299236310214</v>
+      </c>
+      <c r="J196">
+        <v>257.7876799002132</v>
+      </c>
+      <c r="K196">
+        <v>1295.581890328039</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>947</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>61.13432790748008</v>
+      </c>
+      <c r="G197">
+        <v>374.4025073633171</v>
+      </c>
+      <c r="H197">
+        <v>1339.275548692126</v>
+      </c>
+      <c r="I197">
+        <v>259.2498633067621</v>
+      </c>
+      <c r="J197">
+        <v>215.5870881052152</v>
+      </c>
+      <c r="K197">
+        <v>1114.448268972851</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>947</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>60.10735981002615</v>
+      </c>
+      <c r="G198">
+        <v>390.7205390838144</v>
+      </c>
+      <c r="H198">
+        <v>1346.615039925749</v>
+      </c>
+      <c r="I198">
+        <v>359.1711417803176</v>
+      </c>
+      <c r="J198">
+        <v>173.386496310217</v>
+      </c>
+      <c r="K198">
+        <v>921.1951894624872</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>947</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>59.13044905133987</v>
+      </c>
+      <c r="G199">
+        <v>407.0385708043116</v>
+      </c>
+      <c r="H199">
+        <v>1353.714325361508</v>
+      </c>
+      <c r="I199">
+        <v>461.5528898103946</v>
+      </c>
+      <c r="J199">
+        <v>131.1859045152188</v>
+      </c>
+      <c r="K199">
+        <v>715.8226517969501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>947</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>58.19965817255078</v>
+      </c>
+      <c r="G200">
+        <v>423.356602524809</v>
+      </c>
+      <c r="H200">
+        <v>1360.588630846291</v>
+      </c>
+      <c r="I200">
+        <v>566.4556941962295</v>
+      </c>
+      <c r="J200">
+        <v>88.98531272022072</v>
+      </c>
+      <c r="K200">
+        <v>498.3306559762394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>947</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>57.31146997875873</v>
+      </c>
+      <c r="G201">
+        <v>439.6746342453062</v>
+      </c>
+      <c r="H201">
+        <v>1367.25177891512</v>
+      </c>
+      <c r="I201">
+        <v>673.9416336312576</v>
+      </c>
+      <c r="J201">
+        <v>46.7847209252225</v>
+      </c>
+      <c r="K201">
+        <v>268.719202000354</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>947</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>56.46273158691035</v>
+      </c>
+      <c r="G202">
+        <v>455.9926659658036</v>
+      </c>
+      <c r="H202">
+        <v>1373.716356114362</v>
+      </c>
+      <c r="I202">
+        <v>784.0743154396212</v>
+      </c>
+      <c r="J202">
+        <v>4.584129130224276</v>
+      </c>
+      <c r="K202">
+        <v>26.98828986929464</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>947</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>55.65060731453129</v>
+      </c>
+      <c r="G203">
+        <v>472.3106976863008</v>
+      </c>
+      <c r="H203">
+        <v>1379.993856106732</v>
+      </c>
+      <c r="I203">
+        <v>896.9189132173054</v>
+      </c>
+      <c r="J203">
+        <v>-37.61646266477375</v>
+      </c>
+      <c r="K203">
+        <v>-226.862080416938</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>947</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>54.87253880487822</v>
+      </c>
+      <c r="G204">
+        <v>488.6287294067981</v>
+      </c>
+      <c r="H204">
+        <v>1386.094802646412</v>
+      </c>
+      <c r="I204">
+        <v>1012.542205400139</v>
+      </c>
+      <c r="J204">
+        <v>-79.81705445977198</v>
+      </c>
+      <c r="K204">
+        <v>-492.8319088583455</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>947</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>54.12621111084329</v>
+      </c>
+      <c r="G205">
+        <v>504.9467611272954</v>
+      </c>
+      <c r="H205">
+        <v>1392.028855729388</v>
+      </c>
+      <c r="I205">
+        <v>1131.012614781498</v>
+      </c>
+      <c r="J205">
+        <v>-122.0176462547702</v>
+      </c>
+      <c r="K205">
+        <v>-770.9211954549276</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>947</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>53.40952371330381</v>
+      </c>
+      <c r="G206">
+        <v>521.2647928477927</v>
+      </c>
+      <c r="H206">
+        <v>1397.80490360786</v>
+      </c>
+      <c r="I206">
+        <v>1252.400249003094</v>
+      </c>
+      <c r="J206">
+        <v>-164.2182380497684</v>
+      </c>
+      <c r="K206">
+        <v>-1061.129940206683</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>947</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>52.7205656475</v>
+      </c>
+      <c r="G207">
+        <v>537.5828245682899</v>
+      </c>
+      <c r="H207">
+        <v>1403.431142869185</v>
+      </c>
+      <c r="I207">
+        <v>1376.776942042821</v>
+      </c>
+      <c r="J207">
+        <v>-206.4188298447663</v>
+      </c>
+      <c r="K207">
+        <v>-1363.458143113611</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>947</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>52.05759406668748</v>
+      </c>
+      <c r="G208">
+        <v>553.9008562887873</v>
+      </c>
+      <c r="H208">
+        <v>1408.915148390311</v>
+      </c>
+      <c r="I208">
+        <v>1504.216296724193</v>
+      </c>
+      <c r="J208">
+        <v>-248.6194216397645</v>
+      </c>
+      <c r="K208">
+        <v>-1677.905804175714</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>947</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>51.41901569555962</v>
+      </c>
+      <c r="G209">
+        <v>570.2188880092846</v>
+      </c>
+      <c r="H209">
+        <v>1414.263934665951</v>
+      </c>
+      <c r="I209">
+        <v>1634.793728272536</v>
+      </c>
+      <c r="J209">
+        <v>-290.8200134347627</v>
+      </c>
+      <c r="K209">
+        <v>-2004.472923392993</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>947</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>50.80337072413785</v>
+      </c>
+      <c r="G210">
+        <v>586.5369197297817</v>
+      </c>
+      <c r="H210">
+        <v>1419.484009756313</v>
+      </c>
+      <c r="I210">
+        <v>1768.586508943723</v>
+      </c>
+      <c r="J210">
+        <v>-333.0206052297609</v>
+      </c>
+      <c r="K210">
+        <v>-2343.159500765445</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>947</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>50.20931877153962</v>
+      </c>
+      <c r="G211">
+        <v>602.8549514502791</v>
+      </c>
+      <c r="H211">
+        <v>1424.581422895209</v>
+      </c>
+      <c r="I211">
+        <v>1905.673813751838</v>
+      </c>
+      <c r="J211">
+        <v>-375.2211970247591</v>
+      </c>
+      <c r="K211">
+        <v>-2693.96553629307</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>947</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>49.63562661247036</v>
+      </c>
+      <c r="G212">
+        <v>619.1729831707764</v>
+      </c>
+      <c r="H212">
+        <v>1429.561806632039</v>
+      </c>
+      <c r="I212">
+        <v>2046.136767322842</v>
+      </c>
+      <c r="J212">
+        <v>-417.421788819757</v>
+      </c>
+      <c r="K212">
+        <v>-3056.891029975868</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>947</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>49.08115741069906</v>
+      </c>
+      <c r="G213">
+        <v>635.4910148912736</v>
+      </c>
+      <c r="H213">
+        <v>1434.430414243897</v>
+      </c>
+      <c r="I213">
+        <v>2190.058491901987</v>
+      </c>
+      <c r="J213">
+        <v>-459.6223806147552</v>
+      </c>
+      <c r="K213">
+        <v>-3431.935981813842</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run947/NotionalETEOutput947.xlsx
+++ b/runs/run947/NotionalETEOutput947.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_HELLMASKER_218.MISSILE_HELLMASKER_218</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_HIGHWIND_54.MISSILE_HIGHWIND_54</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_400.MISSILE_HIGHWIND_400</t>
+    <t>MISSILE_HIGHWIND_118.MISSILE_HIGHWIND_118</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_73.MISSILE_HELLMASKER_73</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_219.MISSILE_BRAVER_219</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_113.MISSILE_BRAVER_113</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HELLMASKER_126.MISSILE_HELLMASKER_126</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -483,31 +477,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G2">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H2">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I2">
-        <v>-1664.847586425114</v>
+        <v>1114860.572518006</v>
       </c>
       <c r="J2">
-        <v>1544.436743714151</v>
+        <v>4843224.411803344</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.20501836</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G3">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H3">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I3">
-        <v>-1631.979062017287</v>
+        <v>1114890.18649362</v>
       </c>
       <c r="J3">
-        <v>1506.867093458831</v>
+        <v>4843175.760203686</v>
       </c>
       <c r="K3">
-        <v>267.1215892959304</v>
+        <v>3984672.000848986</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G4">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H4">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I4">
-        <v>-1598.301180434406</v>
+        <v>1114920.529686139</v>
       </c>
       <c r="J4">
-        <v>1469.297443203512</v>
+        <v>4843127.108604026</v>
       </c>
       <c r="K4">
-        <v>520.9232717081577</v>
+        <v>3984960.648026947</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G5">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H5">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I5">
-        <v>-1563.794012000629</v>
+        <v>1114951.62005186</v>
       </c>
       <c r="J5">
-        <v>1431.727792948192</v>
+        <v>4843078.457004368</v>
       </c>
       <c r="K5">
-        <v>761.4050472366837</v>
+        <v>3985234.146552242</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G6">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H6">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I6">
-        <v>-1528.437136290184</v>
+        <v>1114983.475989233</v>
       </c>
       <c r="J6">
-        <v>1394.158142692872</v>
+        <v>4843029.80540471</v>
       </c>
       <c r="K6">
-        <v>988.5669158815068</v>
+        <v>3985492.496424873</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G7">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H7">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I7">
-        <v>-1492.209630043097</v>
+        <v>1115016.116349757</v>
       </c>
       <c r="J7">
-        <v>1356.588492437553</v>
+        <v>4842981.153805051</v>
       </c>
       <c r="K7">
-        <v>1202.408877642629</v>
+        <v>3985735.69764484</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G8">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H8">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I8">
-        <v>-1455.090054783371</v>
+        <v>1115049.560449131</v>
       </c>
       <c r="J8">
-        <v>1319.018842182233</v>
+        <v>4842932.502205391</v>
       </c>
       <c r="K8">
-        <v>1402.930932520049</v>
+        <v>3985963.750212139</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G9">
-        <v>-94.60296386798939</v>
+        <v>4841118.437828231</v>
       </c>
       <c r="H9">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I9">
-        <v>-1417.056444132257</v>
+        <v>1115083.828078683</v>
       </c>
       <c r="J9">
-        <v>1281.449191926913</v>
+        <v>4842883.850605733</v>
       </c>
       <c r="K9">
-        <v>1590.133080513766</v>
+        <v>3986176.654126775</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>199.001430304765</v>
+        <v>1116576.665822632</v>
       </c>
       <c r="G10">
-        <v>-78.98135163514215</v>
+        <v>4841134.950626548</v>
       </c>
       <c r="H10">
-        <v>1317.029779673929</v>
+        <v>3985229.360563133</v>
       </c>
       <c r="I10">
-        <v>-1378.08629080914</v>
+        <v>1115118.939517088</v>
       </c>
       <c r="J10">
-        <v>1243.879541671594</v>
+        <v>4842835.199006074</v>
       </c>
       <c r="K10">
-        <v>1764.015321623781</v>
+        <v>3986374.409388745</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>154.4483247186242</v>
+        <v>1116527.985338997</v>
       </c>
       <c r="G11">
-        <v>-63.35973940229489</v>
+        <v>4841151.463424864</v>
       </c>
       <c r="H11">
-        <v>1622.571826191381</v>
+        <v>3985428.615021517</v>
       </c>
       <c r="I11">
-        <v>-1338.156533312324</v>
+        <v>1115154.915542362</v>
       </c>
       <c r="J11">
-        <v>1206.309891416274</v>
+        <v>4842786.547406416</v>
       </c>
       <c r="K11">
-        <v>1924.577655850094</v>
+        <v>3986557.015998051</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>128.2756102118095</v>
+        <v>1116499.387996937</v>
       </c>
       <c r="G12">
-        <v>-47.73812716944766</v>
+        <v>4841167.976223181</v>
       </c>
       <c r="H12">
-        <v>1804.568295110664</v>
+        <v>3985547.301167189</v>
       </c>
       <c r="I12">
-        <v>-1297.243542271854</v>
+        <v>1115191.77744416</v>
       </c>
       <c r="J12">
-        <v>1168.740241160954</v>
+        <v>4842737.895806757</v>
       </c>
       <c r="K12">
-        <v>2071.820083192705</v>
+        <v>3986724.473954691</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>111.7534726876226</v>
+        <v>1116481.335256622</v>
       </c>
       <c r="G13">
-        <v>-32.11651493660042</v>
+        <v>4841184.489021499</v>
       </c>
       <c r="H13">
-        <v>1934.628870776186</v>
+        <v>3985632.118133812</v>
       </c>
       <c r="I13">
-        <v>-1255.323106466272</v>
+        <v>1115229.547036378</v>
       </c>
       <c r="J13">
-        <v>1131.170590905635</v>
+        <v>4842689.244207098</v>
       </c>
       <c r="K13">
-        <v>2205.742603651614</v>
+        <v>3986876.783258665</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>100.2310010455483</v>
+        <v>1116468.745348807</v>
       </c>
       <c r="G14">
-        <v>-16.49490270375317</v>
+        <v>4841201.001819815</v>
       </c>
       <c r="H14">
-        <v>2035.906971366924</v>
+        <v>3985698.16506028</v>
       </c>
       <c r="I14">
-        <v>-1212.370418495072</v>
+        <v>1115268.246670057</v>
       </c>
       <c r="J14">
-        <v>1093.600940650315</v>
+        <v>4842640.592607439</v>
       </c>
       <c r="K14">
-        <v>2326.345217226822</v>
+        <v>3987013.943909976</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>91.63489214190531</v>
+        <v>1116459.352900552</v>
       </c>
       <c r="G15">
-        <v>-0.8732904709059346</v>
+        <v>4841217.514618132</v>
       </c>
       <c r="H15">
-        <v>2118.861591596294</v>
+        <v>3985752.262616124</v>
       </c>
       <c r="I15">
-        <v>-1168.36006009833</v>
+        <v>1115307.899246612</v>
       </c>
       <c r="J15">
-        <v>1056.031290394995</v>
+        <v>4842591.941007781</v>
       </c>
       <c r="K15">
-        <v>2433.627923918326</v>
+        <v>3987135.95590862</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>84.91393539027654</v>
+        <v>1116452.009317634</v>
       </c>
       <c r="G16">
-        <v>14.74832176194131</v>
+        <v>4841234.027416448</v>
       </c>
       <c r="H16">
-        <v>2189.118099536784</v>
+        <v>3985798.079296994</v>
       </c>
       <c r="I16">
-        <v>-1123.265987114855</v>
+        <v>1115348.528231386</v>
       </c>
       <c r="J16">
-        <v>1018.461640139676</v>
+        <v>4842543.289408121</v>
       </c>
       <c r="K16">
-        <v>2527.590723726129</v>
+        <v>3987242.8192546</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>79.47619200930137</v>
+        <v>1116446.067824349</v>
       </c>
       <c r="G17">
-        <v>30.36993399478856</v>
+        <v>4841250.540214765</v>
       </c>
       <c r="H17">
-        <v>2250.05282455814</v>
+        <v>3985837.816923187</v>
       </c>
       <c r="I17">
-        <v>-1077.061514069948</v>
+        <v>1115390.157667531</v>
       </c>
       <c r="J17">
-        <v>980.8919898843561</v>
+        <v>4842494.637808464</v>
       </c>
       <c r="K17">
-        <v>2608.233616650229</v>
+        <v>3987334.533947914</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>74.9609274265801</v>
+        <v>1116441.134267849</v>
       </c>
       <c r="G18">
-        <v>45.99154622763579</v>
+        <v>4841267.053013083</v>
       </c>
       <c r="H18">
-        <v>2303.852157035591</v>
+        <v>3985872.901314931</v>
       </c>
       <c r="I18">
-        <v>-1029.719298383647</v>
+        <v>1115432.812190243</v>
       </c>
       <c r="J18">
-        <v>943.3223396290364</v>
+        <v>4842445.986208805</v>
       </c>
       <c r="K18">
-        <v>2675.556602690628</v>
+        <v>3987411.099988564</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>71.13458042417183</v>
+        <v>1116436.95344992</v>
       </c>
       <c r="G19">
-        <v>61.61315846048305</v>
+        <v>4841283.565811398</v>
       </c>
       <c r="H19">
-        <v>2352.013385582261</v>
+        <v>3985904.308905534</v>
       </c>
       <c r="I19">
-        <v>-981.2113241901096</v>
+        <v>1115476.517041335</v>
       </c>
       <c r="J19">
-        <v>905.7526893737166</v>
+        <v>4842397.334609146</v>
       </c>
       <c r="K19">
-        <v>2729.559681847325</v>
+        <v>3987472.517376548</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>67.83855578141223</v>
+        <v>1116433.352083156</v>
       </c>
       <c r="G20">
-        <v>77.23477069333029</v>
+        <v>4841300.078609716</v>
       </c>
       <c r="H20">
-        <v>2395.606946504612</v>
+        <v>3985932.737763262</v>
       </c>
       <c r="I20">
-        <v>-931.5088857585746</v>
+        <v>1115521.298084178</v>
       </c>
       <c r="J20">
-        <v>868.1830391183971</v>
+        <v>4842348.683009487</v>
       </c>
       <c r="K20">
-        <v>2770.242854120319</v>
+        <v>3987518.786111868</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>64.96095595697319</v>
+        <v>1116430.207903882</v>
       </c>
       <c r="G21">
-        <v>92.85638292617752</v>
+        <v>4841316.591408033</v>
       </c>
       <c r="H21">
-        <v>2435.424686800704</v>
+        <v>3985958.70427873</v>
       </c>
       <c r="I21">
-        <v>-880.5825705060682</v>
+        <v>1115567.181819003</v>
       </c>
       <c r="J21">
-        <v>830.6133888630774</v>
+        <v>4842300.031409828</v>
       </c>
       <c r="K21">
-        <v>2797.606119509611</v>
+        <v>3987549.906194522</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>62.42030728721447</v>
+        <v>1116427.431890755</v>
       </c>
       <c r="G22">
-        <v>108.4779951590248</v>
+        <v>4841333.104206349</v>
       </c>
       <c r="H22">
-        <v>2472.068867154736</v>
+        <v>3985982.601206804</v>
       </c>
       <c r="I22">
-        <v>-828.4022415918195</v>
+        <v>1115614.195398586</v>
       </c>
       <c r="J22">
-        <v>793.0437386077579</v>
+        <v>4842251.379810169</v>
       </c>
       <c r="K22">
-        <v>2811.649478015201</v>
+        <v>3987565.877624511</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>60.15570791117976</v>
+        <v>1116424.957499993</v>
       </c>
       <c r="G23">
-        <v>124.099607391872</v>
+        <v>4841349.617004666</v>
       </c>
       <c r="H23">
-        <v>2506.00823589613</v>
+        <v>3986004.734234364</v>
       </c>
       <c r="I23">
-        <v>-774.9370200830797</v>
+        <v>1115662.366644314</v>
       </c>
       <c r="J23">
-        <v>755.4740883524381</v>
+        <v>4842202.728210512</v>
       </c>
       <c r="K23">
-        <v>2812.372929637089</v>
+        <v>3987566.700401835</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>58.12060772589928</v>
+        <v>1116422.733869116</v>
       </c>
       <c r="G24">
-        <v>139.7212196247193</v>
+        <v>4841366.129802983</v>
       </c>
       <c r="H24">
-        <v>2537.614791541276</v>
+        <v>3986025.345954415</v>
       </c>
       <c r="I24">
-        <v>-720.1552666817894</v>
+        <v>1115711.724062652</v>
       </c>
       <c r="J24">
-        <v>717.9044380971184</v>
+        <v>4842154.076610852</v>
       </c>
       <c r="K24">
-        <v>2799.776474375275</v>
+        <v>3987552.374526493</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>56.27873941806624</v>
+        <v>1116420.721371023</v>
       </c>
       <c r="G25">
-        <v>155.3428318575665</v>
+        <v>4841382.6426013</v>
       </c>
       <c r="H25">
-        <v>2567.188703016514</v>
+        <v>3986044.632117418</v>
       </c>
       <c r="I25">
-        <v>-664.0245630012807</v>
+        <v>1115762.296862008</v>
       </c>
       <c r="J25">
-        <v>680.3347878417989</v>
+        <v>4842105.425011193</v>
       </c>
       <c r="K25">
-        <v>2773.860112229759</v>
+        <v>3987522.899998487</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>54.60137440738495</v>
+        <v>1116418.888615733</v>
       </c>
       <c r="G26">
-        <v>170.9644440904138</v>
+        <v>4841399.155399617</v>
       </c>
       <c r="H26">
-        <v>2594.975689506062</v>
+        <v>3986062.752965288</v>
       </c>
       <c r="I26">
-        <v>-606.5116923819403</v>
+        <v>1115814.114970022</v>
       </c>
       <c r="J26">
-        <v>642.7651375864791</v>
+        <v>4842056.773411535</v>
       </c>
       <c r="K26">
-        <v>2734.623843200541</v>
+        <v>3987478.276817815</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>53.06542285125828</v>
+        <v>1116417.210374371</v>
       </c>
       <c r="G27">
-        <v>186.586056323261</v>
+        <v>4841415.668197933</v>
       </c>
       <c r="H27">
-        <v>2621.179442271703</v>
+        <v>3986079.841332092</v>
       </c>
       <c r="I27">
-        <v>-547.5826202344696</v>
+        <v>1115867.209051274</v>
       </c>
       <c r="J27">
-        <v>605.1954873311594</v>
+        <v>4842008.121811875</v>
       </c>
       <c r="K27">
-        <v>2682.06766728762</v>
+        <v>3987418.504984478</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>51.65208739219347</v>
+        <v>1116415.666108202</v>
       </c>
       <c r="G28">
-        <v>202.2076685561082</v>
+        <v>4841432.18099625</v>
       </c>
       <c r="H28">
-        <v>2645.970694498443</v>
+        <v>3986096.008558801</v>
       </c>
       <c r="I28">
-        <v>-487.2024738991198</v>
+        <v>1115921.610525432</v>
       </c>
       <c r="J28">
-        <v>567.6258370758399</v>
+        <v>4841959.470212216</v>
       </c>
       <c r="K28">
-        <v>2616.191584490998</v>
+        <v>3987343.584498477</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>50.34588966502317</v>
+        <v>1116414.238904952</v>
       </c>
       <c r="G29">
-        <v>217.8292807889555</v>
+        <v>4841448.693794567</v>
       </c>
       <c r="H29">
-        <v>2669.493969228625</v>
+        <v>3986111.348893852</v>
       </c>
       <c r="I29">
-        <v>-425.3355220089775</v>
+        <v>1115977.351585842</v>
       </c>
       <c r="J29">
-        <v>530.0561868205201</v>
+        <v>4841910.818612559</v>
       </c>
       <c r="K29">
-        <v>2536.995594810674</v>
+        <v>3987253.515359811</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>49.13395351644946</v>
+        <v>1116412.914695628</v>
       </c>
       <c r="G30">
-        <v>233.4508930218027</v>
+        <v>4841465.206592884</v>
       </c>
       <c r="H30">
-        <v>2691.872684075825</v>
+        <v>3986125.942822108</v>
       </c>
       <c r="I30">
-        <v>-361.9451533450927</v>
+        <v>1116034.465218584</v>
       </c>
       <c r="J30">
-        <v>492.4865365652004</v>
+        <v>4841862.1670129</v>
       </c>
       <c r="K30">
-        <v>2444.479698246646</v>
+        <v>3987148.297568479</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>48.00546864325037</v>
+        <v>1116411.681668464</v>
       </c>
       <c r="G31">
-        <v>249.07250525465</v>
+        <v>4841481.719391201</v>
       </c>
       <c r="H31">
-        <v>2713.213070678017</v>
+        <v>3986139.859620868</v>
       </c>
       <c r="I31">
-        <v>-296.9938551709297</v>
+        <v>1116092.985221989</v>
       </c>
       <c r="J31">
-        <v>454.9168863098809</v>
+        <v>4841813.515413241</v>
       </c>
       <c r="K31">
-        <v>2338.643894798919</v>
+        <v>3987027.931124481</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>46.95128335875912</v>
+        <v>1116410.529823967</v>
       </c>
       <c r="G32">
-        <v>264.6941174874972</v>
+        <v>4841498.232189517</v>
       </c>
       <c r="H32">
-        <v>2733.607224532174</v>
+        <v>3986153.159348767</v>
       </c>
       <c r="I32">
-        <v>-230.4431910333267</v>
+        <v>1116152.94622664</v>
       </c>
       <c r="J32">
-        <v>417.3472360545612</v>
+        <v>4841764.863813582</v>
       </c>
       <c r="K32">
-        <v>2219.488184467487</v>
+        <v>3986892.416027819</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>45.96359130766215</v>
+        <v>1116409.450632604</v>
       </c>
       <c r="G33">
-        <v>280.3157297203445</v>
+        <v>4841514.744987834</v>
       </c>
       <c r="H33">
-        <v>2753.135506939133</v>
+        <v>3986165.894412169</v>
       </c>
       <c r="I33">
-        <v>-162.2537780168232</v>
+        <v>1116214.383715868</v>
       </c>
       <c r="J33">
-        <v>379.7775857992416</v>
+        <v>4841716.212213923</v>
       </c>
       <c r="K33">
-        <v>2087.012567252355</v>
+        <v>3986741.752278492</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>45.03568755794402</v>
+        <v>1116408.436768302</v>
       </c>
       <c r="G34">
-        <v>295.9373419531917</v>
+        <v>4841531.257786151</v>
       </c>
       <c r="H34">
-        <v>2771.868457510228</v>
+        <v>3986178.110812374</v>
       </c>
       <c r="I34">
-        <v>-92.38526343789782</v>
+        <v>1116277.334046746</v>
       </c>
       <c r="J34">
-        <v>342.2079355439219</v>
+        <v>4841667.560614265</v>
       </c>
       <c r="K34">
-        <v>1941.217043153519</v>
+        <v>3986575.9398765</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>44.16177662369016</v>
+        <v>1116407.481898684</v>
       </c>
       <c r="G35">
-        <v>311.5589541860389</v>
+        <v>4841547.770584468</v>
       </c>
       <c r="H35">
-        <v>2789.868332241923</v>
+        <v>3986189.849148657</v>
       </c>
       <c r="I35">
-        <v>-20.79630096532152</v>
+        <v>1116341.834471609</v>
       </c>
       <c r="J35">
-        <v>304.6382852886022</v>
+        <v>4841618.909014606</v>
       </c>
       <c r="K35">
-        <v>1782.101612170982</v>
+        <v>3986394.978821842</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>43.33681984400383</v>
+        <v>1116406.580518309</v>
       </c>
       <c r="G36">
-        <v>327.1805664188862</v>
+        <v>4841564.283382785</v>
       </c>
       <c r="H36">
-        <v>2807.190351821634</v>
+        <v>3986201.145432324</v>
       </c>
       <c r="I36">
-        <v>52.55547384750436</v>
+        <v>1116407.923160094</v>
       </c>
       <c r="J36">
-        <v>267.0686350332826</v>
+        <v>4841570.257414947</v>
       </c>
       <c r="K36">
-        <v>1609.666274304743</v>
+        <v>3986198.86911452</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>42.55641292912976</v>
+        <v>1116405.727814877</v>
       </c>
       <c r="G37">
-        <v>342.8021786517334</v>
+        <v>4841580.796181101</v>
       </c>
       <c r="H37">
-        <v>2823.883723302821</v>
+        <v>3986212.031752982</v>
       </c>
       <c r="I37">
-        <v>127.7134686327005</v>
+        <v>1116475.639221733</v>
       </c>
       <c r="J37">
-        <v>229.4989847779629</v>
+        <v>4841521.605815289</v>
       </c>
       <c r="K37">
-        <v>1423.911029554802</v>
+        <v>3985987.610754532</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>41.81668687366518</v>
+        <v>1116404.919560959</v>
       </c>
       <c r="G38">
-        <v>358.4237908845807</v>
+        <v>4841597.308979418</v>
       </c>
       <c r="H38">
-        <v>2839.992482798213</v>
+        <v>3986222.536828094</v>
       </c>
       <c r="I38">
-        <v>204.7221598953955</v>
+        <v>1116545.022729093</v>
       </c>
       <c r="J38">
-        <v>191.9293345226434</v>
+        <v>4841472.95421563</v>
       </c>
       <c r="K38">
-        <v>1224.835877921159</v>
+        <v>3985761.203741879</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>41.11422714554866</v>
+        <v>1116404.152025703</v>
       </c>
       <c r="G39">
-        <v>374.045403117428</v>
+        <v>4841613.821777735</v>
       </c>
       <c r="H39">
-        <v>2855.556195546802</v>
+        <v>3986232.68645951</v>
       </c>
       <c r="I39">
-        <v>283.6271193337366</v>
+        <v>1116616.11474149</v>
       </c>
       <c r="J39">
-        <v>154.3596842673236</v>
+        <v>4841424.30261597</v>
       </c>
       <c r="K39">
-        <v>1012.440819403813</v>
+        <v>3985519.648076561</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>40.44600729758823</v>
+        <v>1116403.421902293</v>
       </c>
       <c r="G40">
-        <v>389.6670153502751</v>
+        <v>4841630.334576053</v>
       </c>
       <c r="H40">
-        <v>2870.610541376143</v>
+        <v>3986242.50391527</v>
       </c>
       <c r="I40">
-        <v>364.4750408070159</v>
+        <v>1116688.957329288</v>
       </c>
       <c r="J40">
-        <v>116.7900340120039</v>
+        <v>4841375.651016313</v>
       </c>
       <c r="K40">
-        <v>786.7258540027655</v>
+        <v>3985262.943758579</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>39.80933405596706</v>
+        <v>1116402.726247952</v>
       </c>
       <c r="G41">
-        <v>405.2886275831224</v>
+        <v>4841646.847374368</v>
       </c>
       <c r="H41">
-        <v>2885.187807361704</v>
+        <v>3986252.010250885</v>
       </c>
       <c r="I41">
-        <v>447.3137679678497</v>
+        <v>1116763.593598797</v>
       </c>
       <c r="J41">
-        <v>79.22038375668438</v>
+        <v>4841326.999416654</v>
       </c>
       <c r="K41">
-        <v>547.6909817180161</v>
+        <v>3984991.09078793</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>39.2018016129688</v>
+        <v>1116402.062433999</v>
       </c>
       <c r="G42">
-        <v>420.9102398159696</v>
+        <v>4841663.360172685</v>
       </c>
       <c r="H42">
-        <v>2899.317304794646</v>
+        <v>3986261.224581254</v>
       </c>
       <c r="I42">
-        <v>532.1923225747892</v>
+        <v>1116840.067717779</v>
       </c>
       <c r="J42">
-        <v>41.65073350136466</v>
+        <v>4841278.347816995</v>
       </c>
       <c r="K42">
-        <v>295.336202549564</v>
+        <v>3984704.089164617</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>38.6212533549869</v>
+        <v>1116401.428104032</v>
       </c>
       <c r="G43">
-        <v>436.5318520488169</v>
+        <v>4841679.872971003</v>
       </c>
       <c r="H43">
-        <v>2913.025723998031</v>
+        <v>3986270.164312053</v>
       </c>
       <c r="I43">
-        <v>619.1609335020854</v>
+        <v>1116918.424941586</v>
       </c>
       <c r="J43">
-        <v>4.081083246044945</v>
+        <v>4841229.696217336</v>
       </c>
       <c r="K43">
-        <v>29.66151649741</v>
+        <v>3984401.938888639</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>38.0657496377959</v>
+        <v>1116400.82113872</v>
       </c>
       <c r="G44">
-        <v>452.1534642816641</v>
+        <v>4841696.385769319</v>
       </c>
       <c r="H44">
-        <v>2926.337437787256</v>
+        <v>3986278.845337631</v>
       </c>
       <c r="I44">
-        <v>708.2710664638106</v>
+        <v>1116998.711639941</v>
       </c>
       <c r="J44">
-        <v>-33.4885670092746</v>
+        <v>4841181.044617677</v>
       </c>
       <c r="K44">
-        <v>-249.3330764384453</v>
+        <v>3984084.639959995</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>37.53354051162931</v>
+        <v>1116400.239625999</v>
       </c>
       <c r="G45">
-        <v>467.7750765145113</v>
+        <v>4841712.898567636</v>
       </c>
       <c r="H45">
-        <v>2939.274762244171</v>
+        <v>3986287.282211073</v>
       </c>
       <c r="I45">
-        <v>799.5754544698997</v>
+        <v>1117080.975324381</v>
       </c>
       <c r="J45">
-        <v>-71.05821726459432</v>
+        <v>4841132.393018018</v>
       </c>
       <c r="K45">
-        <v>-541.6475762580036</v>
+        <v>3983752.192378687</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>37.02304252212276</v>
+        <v>1116399.681835724</v>
       </c>
       <c r="G46">
-        <v>483.3966887473587</v>
+        <v>4841729.411365952</v>
       </c>
       <c r="H46">
-        <v>2951.858181813532</v>
+        <v>3986295.488290987</v>
       </c>
       <c r="I46">
-        <v>893.1281290321425</v>
+        <v>1117165.264676369</v>
       </c>
       <c r="J46">
-        <v>-108.627867519914</v>
+        <v>4841083.74141836</v>
       </c>
       <c r="K46">
-        <v>-847.2819829612646</v>
+        <v>3983404.596144713</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>36.53281888648279</v>
+        <v>1116399.146198009</v>
       </c>
       <c r="G47">
-        <v>499.0183009802058</v>
+        <v>4841745.924164269</v>
       </c>
       <c r="H47">
-        <v>2964.106544423573</v>
+        <v>3986303.475868755</v>
       </c>
       <c r="I47">
-        <v>988.984452138598</v>
+        <v>1117251.629576105</v>
       </c>
       <c r="J47">
-        <v>-146.1975177752338</v>
+        <v>4841035.089818701</v>
       </c>
       <c r="K47">
-        <v>-1166.236296548227</v>
+        <v>3983041.851258074</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>36.06156247960114</v>
+        <v>1116398.631284638</v>
       </c>
       <c r="G48">
-        <v>514.6399132130531</v>
+        <v>4841762.436962587</v>
       </c>
       <c r="H48">
-        <v>2976.037231296929</v>
+        <v>3986311.256279269</v>
       </c>
       <c r="I48">
-        <v>1087.201149015349</v>
+        <v>1117340.121132043</v>
       </c>
       <c r="J48">
-        <v>-183.7671680305531</v>
+        <v>4840986.438219042</v>
       </c>
       <c r="K48">
-        <v>-1498.510517018889</v>
+        <v>3982663.95771877</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>35.60808117131013</v>
+        <v>1116398.135793042</v>
       </c>
       <c r="G49">
-        <v>530.2615254459004</v>
+        <v>4841778.949760903</v>
       </c>
       <c r="H49">
-        <v>2987.666305292068</v>
+        <v>3986318.83999767</v>
       </c>
       <c r="I49">
-        <v>1187.836341694987</v>
+        <v>1117430.791711136</v>
       </c>
       <c r="J49">
-        <v>-221.3368182858729</v>
+        <v>4840937.786619384</v>
       </c>
       <c r="K49">
-        <v>-1844.104644373256</v>
+        <v>3982270.915526801</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>35.1712851402789</v>
+        <v>1116397.658532439</v>
       </c>
       <c r="G50">
-        <v>545.8831376787475</v>
+        <v>4841795.46255922</v>
       </c>
       <c r="H50">
-        <v>2999.008640952377</v>
+        <v>3986326.236724159</v>
       </c>
       <c r="I50">
-        <v>1290.949583411681</v>
+        <v>1117523.694969822</v>
       </c>
       <c r="J50">
-        <v>-258.9064685411926</v>
+        <v>4840889.135019724</v>
       </c>
       <c r="K50">
-        <v>-2203.018678611325</v>
+        <v>3981862.724682167</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>34.75017585722189</v>
+        <v>1116397.198411796</v>
       </c>
       <c r="G51">
-        <v>561.5047499115948</v>
+        <v>4841811.975357537</v>
       </c>
       <c r="H51">
-        <v>3010.078038904686</v>
+        <v>3986333.455458597</v>
       </c>
       <c r="I51">
-        <v>1396.601893843205</v>
+        <v>1117618.885885785</v>
       </c>
       <c r="J51">
-        <v>-296.4761187965123</v>
+        <v>4840840.483420066</v>
       </c>
       <c r="K51">
-        <v>-2575.252619733097</v>
+        <v>3981439.385184868</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>34.34383648393094</v>
+        <v>1116396.754429341</v>
       </c>
       <c r="G52">
-        <v>577.1263621444421</v>
+        <v>4841828.488155853</v>
       </c>
       <c r="H52">
-        <v>3020.887326814347</v>
+        <v>3986340.504566347</v>
       </c>
       <c r="I52">
-        <v>1504.855795220764</v>
+        <v>1117716.420790479</v>
       </c>
       <c r="J52">
-        <v>-334.045769051832</v>
+        <v>4840791.831820408</v>
       </c>
       <c r="K52">
-        <v>-2960.806467738569</v>
+        <v>3981000.897034904</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>33.95142347803379</v>
+        <v>1116396.325663385</v>
       </c>
       <c r="G53">
-        <v>592.7479743772893</v>
+        <v>4841845.000954171</v>
       </c>
       <c r="H53">
-        <v>3031.448448749158</v>
+        <v>3986347.391836544</v>
       </c>
       <c r="I53">
-        <v>1615.775349327979</v>
+        <v>1117816.357402471</v>
       </c>
       <c r="J53">
-        <v>-371.6154193071514</v>
+        <v>4840743.180220749</v>
       </c>
       <c r="K53">
-        <v>-3359.680222627742</v>
+        <v>3980547.260232274</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2297,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>33.57215922854942</v>
+        <v>1116395.911264279</v>
       </c>
       <c r="G54">
-        <v>608.3695866101365</v>
+        <v>4841861.513752487</v>
       </c>
       <c r="H54">
-        <v>3041.772544513373</v>
+        <v>3986354.124533838</v>
       </c>
       <c r="I54">
-        <v>1729.426195410968</v>
+        <v>1117918.754861593</v>
       </c>
       <c r="J54">
-        <v>-409.1850695624711</v>
+        <v>4840694.52862109</v>
       </c>
       <c r="K54">
-        <v>-3771.873884400619</v>
+        <v>3980078.47477698</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,31 +2332,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G55">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H55">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I55">
-        <v>-1410.140378215311</v>
+        <v>1114863.340840695</v>
       </c>
       <c r="J55">
-        <v>1201.593905005821</v>
+        <v>4843225.236592718</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984372.007293504</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,31 +2367,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G56">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H56">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I56">
-        <v>-1382.300452315934</v>
+        <v>1114892.954889844</v>
       </c>
       <c r="J56">
-        <v>1172.36417905963</v>
+        <v>4843176.584984775</v>
       </c>
       <c r="K56">
-        <v>320.3789112968797</v>
+        <v>3984675.803414041</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,31 +2402,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G57">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H57">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I57">
-        <v>-1353.774993853548</v>
+        <v>1114923.298157709</v>
       </c>
       <c r="J57">
-        <v>1143.134453113439</v>
+        <v>4843127.93337683</v>
       </c>
       <c r="K57">
-        <v>624.7822615122889</v>
+        <v>3984964.450867458</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,31 +2437,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G58">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H58">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I58">
-        <v>-1324.547122219465</v>
+        <v>1114954.38860063</v>
       </c>
       <c r="J58">
-        <v>1113.904727167248</v>
+        <v>4843079.281768886</v>
       </c>
       <c r="K58">
-        <v>913.2100506462298</v>
+        <v>3985237.949653753</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,31 +2472,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G59">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H59">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I59">
-        <v>-1294.599541135542</v>
+        <v>1114986.244617106</v>
       </c>
       <c r="J59">
-        <v>1084.675001221057</v>
+        <v>4843030.630160943</v>
       </c>
       <c r="K59">
-        <v>1185.6622786987</v>
+        <v>3985496.299772927</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,31 +2507,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G60">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H60">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I60">
-        <v>-1263.914528418697</v>
+        <v>1115018.88505868</v>
       </c>
       <c r="J60">
-        <v>1055.445275274865</v>
+        <v>4842981.978552999</v>
       </c>
       <c r="K60">
-        <v>1442.138945669703</v>
+        <v>3985739.501224979</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,31 +2542,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G61">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H61">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I61">
-        <v>-1232.473925493393</v>
+        <v>1115052.329241098</v>
       </c>
       <c r="J61">
-        <v>1026.215549328674</v>
+        <v>4842933.326945054</v>
       </c>
       <c r="K61">
-        <v>1682.640051559236</v>
+        <v>3985967.554009909</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,31 +2577,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G62">
-        <v>-89.78994888577758</v>
+        <v>4841124.648066938</v>
       </c>
       <c r="H62">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I62">
-        <v>-1200.259126645878</v>
+        <v>1115086.596955741</v>
       </c>
       <c r="J62">
-        <v>996.9858233824831</v>
+        <v>4842884.675337111</v>
       </c>
       <c r="K62">
-        <v>1907.165596367299</v>
+        <v>3986180.458127719</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,31 +2612,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>163.9679229447482</v>
+        <v>1116579.756345772</v>
       </c>
       <c r="G63">
-        <v>-74.96310090395227</v>
+        <v>4841141.160886438</v>
       </c>
       <c r="H63">
-        <v>976.1883901996171</v>
+        <v>3985219.98867725</v>
       </c>
       <c r="I63">
-        <v>-1167.251068013815</v>
+        <v>1115121.708481332</v>
       </c>
       <c r="J63">
-        <v>967.7560974362921</v>
+        <v>4842836.023729167</v>
       </c>
       <c r="K63">
-        <v>2115.715580093893</v>
+        <v>3986378.213578406</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,31 +2647,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>127.2582361223483</v>
+        <v>1116531.075727396</v>
       </c>
       <c r="G64">
-        <v>-60.13625292212694</v>
+        <v>4841157.673705936</v>
       </c>
       <c r="H64">
-        <v>1202.657527899764</v>
+        <v>3985419.242667055</v>
       </c>
       <c r="I64">
-        <v>-1133.430216304794</v>
+        <v>1115157.684595938</v>
       </c>
       <c r="J64">
-        <v>938.526371490101</v>
+        <v>4842787.372121223</v>
       </c>
       <c r="K64">
-        <v>2308.290002739017</v>
+        <v>3986560.820361973</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,31 +2682,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>105.693136670872</v>
+        <v>1116502.478306183</v>
       </c>
       <c r="G65">
-        <v>-45.30940494030163</v>
+        <v>4841174.186525436</v>
       </c>
       <c r="H65">
-        <v>1337.554128385377</v>
+        <v>3985537.928533619</v>
       </c>
       <c r="I65">
-        <v>-1098.776557237052</v>
+        <v>1115194.546589268</v>
       </c>
       <c r="J65">
-        <v>909.2966455439098</v>
+        <v>4842738.720513279</v>
       </c>
       <c r="K65">
-        <v>2484.888864302673</v>
+        <v>3986728.278478418</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,31 +2717,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>92.07966380135795</v>
+        <v>1116484.425515901</v>
       </c>
       <c r="G66">
-        <v>-30.48255695847632</v>
+        <v>4841190.699344937</v>
       </c>
       <c r="H66">
-        <v>1433.955611439766</v>
+        <v>3985622.745300781</v>
       </c>
       <c r="I66">
-        <v>-1063.269583695548</v>
+        <v>1115232.316275273</v>
       </c>
       <c r="J66">
-        <v>880.0669195977185</v>
+        <v>4842690.068905335</v>
       </c>
       <c r="K66">
-        <v>2645.51216478486</v>
+        <v>3986880.587927741</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,31 +2752,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>82.58568308248944</v>
+        <v>1116471.835573239</v>
       </c>
       <c r="G67">
-        <v>-15.655708976651</v>
+        <v>4841207.212164436</v>
       </c>
       <c r="H67">
-        <v>1509.023394647086</v>
+        <v>3985688.79207193</v>
       </c>
       <c r="I67">
-        <v>-1026.888283596401</v>
+        <v>1115271.016005047</v>
       </c>
       <c r="J67">
-        <v>850.8371936515274</v>
+        <v>4842641.417297391</v>
       </c>
       <c r="K67">
-        <v>2790.159904185577</v>
+        <v>3987017.748709943</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,31 +2787,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>75.5028891539302</v>
+        <v>1116462.443098987</v>
       </c>
       <c r="G68">
-        <v>-0.8288609948256902</v>
+        <v>4841223.724983935</v>
       </c>
       <c r="H68">
-        <v>1570.509731881904</v>
+        <v>3985742.889500556</v>
       </c>
       <c r="I68">
-        <v>-989.6111274524955</v>
+        <v>1115310.668680064</v>
       </c>
       <c r="J68">
-        <v>821.6074677053363</v>
+        <v>4842592.765689447</v>
       </c>
       <c r="K68">
-        <v>2918.832082504824</v>
+        <v>3987139.760825024</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,31 +2822,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>69.96513338464584</v>
+        <v>1116455.099495742</v>
       </c>
       <c r="G69">
-        <v>13.99798698699963</v>
+        <v>4841240.237803434</v>
       </c>
       <c r="H69">
-        <v>1622.584171234713</v>
+        <v>3985788.70607368</v>
       </c>
       <c r="I69">
-        <v>-951.4160556329008</v>
+        <v>1115351.297765724</v>
       </c>
       <c r="J69">
-        <v>792.3777417591451</v>
+        <v>4842544.114081502</v>
       </c>
       <c r="K69">
-        <v>3031.528699742602</v>
+        <v>3987246.624272983</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,31 +2857,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>65.48468575007574</v>
+        <v>1116449.157986012</v>
       </c>
       <c r="G70">
-        <v>28.82483496882495</v>
+        <v>4841256.750622935</v>
       </c>
       <c r="H70">
-        <v>1667.749263204449</v>
+        <v>3985828.443606424</v>
       </c>
       <c r="I70">
-        <v>-912.2804653085701</v>
+        <v>1115392.927305239</v>
       </c>
       <c r="J70">
-        <v>763.148015812954</v>
+        <v>4842495.462473558</v>
       </c>
       <c r="K70">
-        <v>3128.249755898911</v>
+        <v>3987338.33905382</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,31 +2892,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>61.76431774045415</v>
+        <v>1116444.224415857</v>
       </c>
       <c r="G71">
-        <v>43.65168295065025</v>
+        <v>4841273.263442434</v>
       </c>
       <c r="H71">
-        <v>1707.625570160833</v>
+        <v>3985863.527915661</v>
       </c>
       <c r="I71">
-        <v>-872.1811970765862</v>
+        <v>1115435.581933867</v>
       </c>
       <c r="J71">
-        <v>733.9182898667628</v>
+        <v>4842446.810865615</v>
       </c>
       <c r="K71">
-        <v>3208.995250973751</v>
+        <v>3987414.905167537</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,31 +2927,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>58.61158577521195</v>
+        <v>1116440.043586356</v>
       </c>
       <c r="G72">
-        <v>58.47853093247559</v>
+        <v>4841289.776261933</v>
       </c>
       <c r="H72">
-        <v>1743.322889151334</v>
+        <v>3985894.935432405</v>
       </c>
       <c r="I72">
-        <v>-831.0945212550395</v>
+        <v>1115479.286893484</v>
       </c>
       <c r="J72">
-        <v>704.6885639205716</v>
+        <v>4842398.159257671</v>
       </c>
       <c r="K72">
-        <v>3273.765184967122</v>
+        <v>3987476.322614131</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,31 +2962,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>55.89581476884116</v>
+        <v>1116436.442209624</v>
       </c>
       <c r="G73">
-        <v>73.30537891430089</v>
+        <v>4841306.289081433</v>
       </c>
       <c r="H73">
-        <v>1775.634632375845</v>
+        <v>3985923.364223278</v>
       </c>
       <c r="I73">
-        <v>-788.9961238404359</v>
+        <v>1115524.068047523</v>
       </c>
       <c r="J73">
-        <v>675.4588379743806</v>
+        <v>4842349.507649726</v>
       </c>
       <c r="K73">
-        <v>3322.559557879023</v>
+        <v>3987522.591393605</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,31 +2997,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>53.52480635168135</v>
+        <v>1116433.298021648</v>
       </c>
       <c r="G74">
-        <v>88.1322268961262</v>
+        <v>4841322.801900933</v>
       </c>
       <c r="H74">
-        <v>1805.147720387152</v>
+        <v>3985949.330677682</v>
       </c>
       <c r="I74">
-        <v>-745.8610921193134</v>
+        <v>1115569.951896282</v>
       </c>
       <c r="J74">
-        <v>646.2291120281893</v>
+        <v>4842300.856041783</v>
       </c>
       <c r="K74">
-        <v>3355.378369709455</v>
+        <v>3987553.711505957</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,31 +3032,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>51.43143001426163</v>
+        <v>1116430.522000837</v>
       </c>
       <c r="G75">
-        <v>102.9590748779515</v>
+        <v>4841339.314720432</v>
       </c>
       <c r="H75">
-        <v>1832.308551510381</v>
+        <v>3985973.227549558</v>
       </c>
       <c r="I75">
-        <v>-701.6638999255595</v>
+        <v>1115616.965592605</v>
       </c>
       <c r="J75">
-        <v>616.9993860819983</v>
+        <v>4842252.204433839</v>
       </c>
       <c r="K75">
-        <v>3372.221620458417</v>
+        <v>3987569.682951188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,31 +3067,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>49.56550545572095</v>
+        <v>1116428.047603226</v>
       </c>
       <c r="G76">
-        <v>117.7859228597768</v>
+        <v>4841355.827539932</v>
       </c>
       <c r="H76">
-        <v>1857.464564113419</v>
+        <v>3985995.360525069</v>
       </c>
       <c r="I76">
-        <v>-656.3783925347055</v>
+        <v>1115665.136957948</v>
       </c>
       <c r="J76">
-        <v>587.769660135807</v>
+        <v>4842203.552825895</v>
       </c>
       <c r="K76">
-        <v>3373.08931012591</v>
+        <v>3987570.505729297</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,31 +3102,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>47.88867755627381</v>
+        <v>1116425.823966194</v>
       </c>
       <c r="G77">
-        <v>132.6127708416022</v>
+        <v>4841372.340359432</v>
       </c>
       <c r="H77">
-        <v>1880.891485168027</v>
+        <v>3986015.972196648</v>
       </c>
       <c r="I77">
-        <v>-609.977771186255</v>
+        <v>1115714.494498845</v>
       </c>
       <c r="J77">
-        <v>558.5399341896158</v>
+        <v>4842154.901217951</v>
       </c>
       <c r="K77">
-        <v>3357.981438711935</v>
+        <v>3987556.179840284</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,31 +3137,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>46.37106373656093</v>
+        <v>1116423.811462531</v>
       </c>
       <c r="G78">
-        <v>147.4396188234275</v>
+        <v>4841388.853178931</v>
       </c>
       <c r="H78">
-        <v>1902.811801231089</v>
+        <v>3986035.258314297</v>
       </c>
       <c r="I78">
-        <v>-562.4345772248873</v>
+        <v>1115765.06742378</v>
       </c>
       <c r="J78">
-        <v>529.3102082434248</v>
+        <v>4842106.249610007</v>
       </c>
       <c r="K78">
-        <v>3326.898006216489</v>
+        <v>3987526.70528415</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,31 +3172,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>44.98899298259499</v>
+        <v>1116421.978702168</v>
       </c>
       <c r="G79">
-        <v>162.2664668052528</v>
+        <v>4841405.365998431</v>
       </c>
       <c r="H79">
-        <v>1923.407640465982</v>
+        <v>3986053.379119553</v>
       </c>
       <c r="I79">
-        <v>-513.7206758511576</v>
+        <v>1115816.885660464</v>
       </c>
       <c r="J79">
-        <v>500.0804822972336</v>
+        <v>4842057.598002063</v>
       </c>
       <c r="K79">
-        <v>3279.839012639574</v>
+        <v>3987482.082060894</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,31 +3207,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>43.72344033799266</v>
+        <v>1116420.300456161</v>
       </c>
       <c r="G80">
-        <v>177.0933147870781</v>
+        <v>4841421.87881793</v>
       </c>
       <c r="H80">
-        <v>1942.829979751137</v>
+        <v>3986070.467446171</v>
       </c>
       <c r="I80">
-        <v>-463.8072394720674</v>
+        <v>1115869.979873555</v>
       </c>
       <c r="J80">
-        <v>470.8507563510424</v>
+        <v>4842008.946394118</v>
       </c>
       <c r="K80">
-        <v>3216.80445798119</v>
+        <v>3987422.310170518</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,31 +3242,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>42.55891765445157</v>
+        <v>1116418.756185718</v>
       </c>
       <c r="G81">
-        <v>191.9201627689034</v>
+        <v>4841438.39163743</v>
       </c>
       <c r="H81">
-        <v>1961.205367290397</v>
+        <v>3986086.63463486</v>
       </c>
       <c r="I81">
-        <v>-412.6647306416618</v>
+        <v>1115924.381482797</v>
       </c>
       <c r="J81">
-        <v>441.6210304048513</v>
+        <v>4841960.294786175</v>
       </c>
       <c r="K81">
-        <v>3137.794342241337</v>
+        <v>3987347.38961302</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,31 +3277,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>41.48267147897803</v>
+        <v>1116417.328978518</v>
       </c>
       <c r="G82">
-        <v>206.7470107507287</v>
+        <v>4841454.90445693</v>
       </c>
       <c r="H82">
-        <v>1978.640924212097</v>
+        <v>3986101.974933836</v>
       </c>
       <c r="I82">
-        <v>-360.2628845815522</v>
+        <v>1115980.122681618</v>
       </c>
       <c r="J82">
-        <v>412.3913044586601</v>
+        <v>4841911.643178231</v>
       </c>
       <c r="K82">
-        <v>3042.808665420015</v>
+        <v>3987257.3203884</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,31 +3312,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>40.484092460129</v>
+        <v>1116416.004765528</v>
       </c>
       <c r="G83">
-        <v>221.573858732554</v>
+        <v>4841471.417276429</v>
       </c>
       <c r="H83">
-        <v>1995.228128205946</v>
+        <v>3986116.568827773</v>
       </c>
       <c r="I83">
-        <v>-306.570691271027</v>
+        <v>1116037.23645618</v>
       </c>
       <c r="J83">
-        <v>383.1615785124689</v>
+        <v>4841862.991570287</v>
       </c>
       <c r="K83">
-        <v>2931.847427517223</v>
+        <v>3987152.102496659</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,31 +3347,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>39.55427341084052</v>
+        <v>1116414.771734952</v>
       </c>
       <c r="G84">
-        <v>236.4007067143794</v>
+        <v>4841487.930095929</v>
       </c>
       <c r="H84">
-        <v>2011.045718639314</v>
+        <v>3986130.485593805</v>
       </c>
       <c r="I84">
-        <v>-251.5563770961424</v>
+        <v>1116095.756604896</v>
       </c>
       <c r="J84">
-        <v>353.9318525662778</v>
+        <v>4841814.339962343</v>
       </c>
       <c r="K84">
-        <v>2804.910628532962</v>
+        <v>3987031.735937797</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,31 +3382,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>38.68567376694737</v>
+        <v>1116413.619887267</v>
       </c>
       <c r="G85">
-        <v>251.2275546962047</v>
+        <v>4841504.442915428</v>
       </c>
       <c r="H85">
-        <v>2026.16195710835</v>
+        <v>3986143.785290428</v>
       </c>
       <c r="I85">
-        <v>-195.1873860469422</v>
+        <v>1116155.717758437</v>
       </c>
       <c r="J85">
-        <v>324.7021266200866</v>
+        <v>4841765.688354399</v>
       </c>
       <c r="K85">
-        <v>2661.998268467231</v>
+        <v>3986896.220711813</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,31 +3417,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>37.87186145474746</v>
+        <v>1116412.540692917</v>
       </c>
       <c r="G86">
-        <v>266.05440267803</v>
+        <v>4841520.955734928</v>
       </c>
       <c r="H86">
-        <v>2040.636407770303</v>
+        <v>3986156.52032388</v>
       </c>
       <c r="I86">
-        <v>-137.4303604516761</v>
+        <v>1116217.155400221</v>
       </c>
       <c r="J86">
-        <v>295.4724006738955</v>
+        <v>4841717.036746455</v>
       </c>
       <c r="K86">
-        <v>2503.110347320032</v>
+        <v>3986745.556818707</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,31 +3452,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>37.10731192210885</v>
+        <v>1116411.526825808</v>
       </c>
       <c r="G87">
-        <v>280.8812506598553</v>
+        <v>4841537.468554428</v>
       </c>
       <c r="H87">
-        <v>2054.521354902032</v>
+        <v>3986168.736695357</v>
       </c>
       <c r="I87">
-        <v>-78.25112123661559</v>
+        <v>1116280.105887412</v>
       </c>
       <c r="J87">
-        <v>266.2426747277044</v>
+        <v>4841668.385138512</v>
       </c>
       <c r="K87">
-        <v>2328.246865091363</v>
+        <v>3986579.744258481</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,31 +3487,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>36.38724995818798</v>
+        <v>1116410.571953547</v>
       </c>
       <c r="G88">
-        <v>295.7080986416806</v>
+        <v>4841553.981373927</v>
       </c>
       <c r="H88">
-        <v>2067.862942927839</v>
+        <v>3986180.475004036</v>
       </c>
       <c r="I88">
-        <v>-17.61464769978632</v>
+        <v>1116344.606472436</v>
       </c>
       <c r="J88">
-        <v>237.0129487815131</v>
+        <v>4841619.733530567</v>
       </c>
       <c r="K88">
-        <v>2137.407821781224</v>
+        <v>3986398.783031133</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,31 +3522,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>35.70752394075585</v>
+        <v>1116409.670570677</v>
       </c>
       <c r="G89">
-        <v>310.534946623506</v>
+        <v>4841570.494193426</v>
       </c>
       <c r="H89">
-        <v>2080.702101669344</v>
+        <v>3986191.771261137</v>
       </c>
       <c r="I89">
-        <v>44.51494321335478</v>
+        <v>1116410.695325028</v>
       </c>
       <c r="J89">
-        <v>207.7832228353221</v>
+        <v>4841571.081922622</v>
       </c>
       <c r="K89">
-        <v>1930.593217389617</v>
+        <v>3986202.673136663</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,31 +3557,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>35.06450493989917</v>
+        <v>1116408.817864885</v>
       </c>
       <c r="G90">
-        <v>325.3617946053313</v>
+        <v>4841587.007012927</v>
       </c>
       <c r="H90">
-        <v>2093.075303615665</v>
+        <v>3986202.657556195</v>
       </c>
       <c r="I90">
-        <v>108.1744181445563</v>
+        <v>1116478.411554813</v>
       </c>
       <c r="J90">
-        <v>178.5534968891309</v>
+        <v>4841522.430314679</v>
       </c>
       <c r="K90">
-        <v>1707.80305191654</v>
+        <v>3985991.414575072</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,31 +3592,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>34.45500507511486</v>
+        <v>1116408.00960873</v>
       </c>
       <c r="G91">
-        <v>340.1886425871566</v>
+        <v>4841603.519832426</v>
       </c>
       <c r="H91">
-        <v>2105.015188531413</v>
+        <v>3986213.162606603</v>
       </c>
       <c r="I91">
-        <v>173.4014490802962</v>
+        <v>1116547.79523446</v>
       </c>
       <c r="J91">
-        <v>149.3237709429398</v>
+        <v>4841473.778706735</v>
       </c>
       <c r="K91">
-        <v>1469.037325361995</v>
+        <v>3985765.007346359</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,31 +3627,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>33.87621093079538</v>
+        <v>1116407.24207135</v>
       </c>
       <c r="G92">
-        <v>355.0154905689819</v>
+        <v>4841620.032651925</v>
       </c>
       <c r="H92">
-        <v>2116.551082349498</v>
+        <v>3986223.31221415</v>
       </c>
       <c r="I92">
-        <v>240.2346356450599</v>
+        <v>1116618.887423386</v>
       </c>
       <c r="J92">
-        <v>120.0940449967486</v>
+        <v>4841425.12709879</v>
       </c>
       <c r="K92">
-        <v>1214.296037725978</v>
+        <v>3985523.451450525</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,31 +3662,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>33.32562885521568</v>
+        <v>1116406.511945919</v>
       </c>
       <c r="G93">
-        <v>369.8423385508072</v>
+        <v>4841636.545471426</v>
       </c>
       <c r="H93">
-        <v>2127.709431118417</v>
+        <v>3986233.129646823</v>
       </c>
       <c r="I93">
-        <v>308.7135279435773</v>
+        <v>1116691.730192061</v>
       </c>
       <c r="J93">
-        <v>90.86431905055736</v>
+        <v>4841376.475490847</v>
       </c>
       <c r="K93">
-        <v>943.5791890084936</v>
+        <v>3985266.74688757</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,31 +3697,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>32.80103971601579</v>
+        <v>1116405.816289652</v>
       </c>
       <c r="G94">
-        <v>384.6691865326325</v>
+        <v>4841653.058290925</v>
       </c>
       <c r="H94">
-        <v>2138.514166163572</v>
+        <v>3986242.635960082</v>
       </c>
       <c r="I94">
-        <v>378.8786499655189</v>
+        <v>1116766.3666469</v>
       </c>
       <c r="J94">
-        <v>61.63459310436629</v>
+        <v>4841327.823882903</v>
       </c>
       <c r="K94">
-        <v>656.88677920954</v>
+        <v>3984994.893657493</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,31 +3732,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>32.30046123953241</v>
+        <v>1116405.152473862</v>
       </c>
       <c r="G95">
-        <v>399.4960345144578</v>
+        <v>4841669.571110425</v>
       </c>
       <c r="H95">
-        <v>2148.987013145671</v>
+        <v>3986251.850268782</v>
       </c>
       <c r="I95">
-        <v>450.7715235665237</v>
+        <v>1116842.840955775</v>
       </c>
       <c r="J95">
-        <v>32.40486715817508</v>
+        <v>4841279.172274959</v>
       </c>
       <c r="K95">
-        <v>354.2188083291162</v>
+        <v>3984707.891760294</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,31 +3767,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>31.82211647645859</v>
+        <v>1116404.518142139</v>
       </c>
       <c r="G96">
-        <v>414.3228824962832</v>
+        <v>4841686.083929924</v>
       </c>
       <c r="H96">
-        <v>2159.14775505209</v>
+        <v>3986260.789978558</v>
       </c>
       <c r="I96">
-        <v>524.4346930397217</v>
+        <v>1116921.198374151</v>
       </c>
       <c r="J96">
-        <v>3.175141211983875</v>
+        <v>4841230.520667015</v>
       </c>
       <c r="K96">
-        <v>35.57527636722334</v>
+        <v>3984405.741195975</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,31 +3802,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>31.36440725016609</v>
+        <v>1116403.911175148</v>
       </c>
       <c r="G97">
-        <v>429.1497304781085</v>
+        <v>4841702.596749424</v>
       </c>
       <c r="H97">
-        <v>2169.014457123108</v>
+        <v>3986269.470983722</v>
       </c>
       <c r="I97">
-        <v>599.9117502923233</v>
+        <v>1117001.485271868</v>
       </c>
       <c r="J97">
-        <v>-26.0545847342072</v>
+        <v>4841181.869059071</v>
       </c>
       <c r="K97">
-        <v>-299.0438166761379</v>
+        <v>3984088.441964533</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,31 +3837,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>30.9258916834381</v>
+        <v>1116403.329660817</v>
       </c>
       <c r="G98">
-        <v>443.9765784599338</v>
+        <v>4841719.109568924</v>
       </c>
       <c r="H98">
-        <v>2178.603660138861</v>
+        <v>3986277.907837322</v>
       </c>
       <c r="I98">
-        <v>677.2473606421511</v>
+        <v>1117083.749160578</v>
       </c>
       <c r="J98">
-        <v>-55.2843106803984</v>
+        <v>4841133.217451127</v>
       </c>
       <c r="K98">
-        <v>-649.6384708009693</v>
+        <v>3983755.994065971</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,31 +3872,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>30.50526508352539</v>
+        <v>1116402.771868998</v>
       </c>
       <c r="G99">
-        <v>458.8034264417591</v>
+        <v>4841735.622388422</v>
       </c>
       <c r="H99">
-        <v>2187.930547261841</v>
+        <v>3986286.113897939</v>
       </c>
       <c r="I99">
-        <v>756.4872892493871</v>
+        <v>1117168.038721866</v>
       </c>
       <c r="J99">
-        <v>-84.51403662658961</v>
+        <v>4841084.565843183</v>
       </c>
       <c r="K99">
-        <v>-1016.208686007271</v>
+        <v>3983408.397500287</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,31 +3907,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>30.10134360823143</v>
+        <v>1116402.236229801</v>
       </c>
       <c r="G100">
-        <v>473.6302744235844</v>
+        <v>4841752.135207922</v>
       </c>
       <c r="H100">
-        <v>2197.009088661138</v>
+        <v>3986294.101456923</v>
       </c>
       <c r="I100">
-        <v>837.6784281991785</v>
+        <v>1117254.403836055</v>
       </c>
       <c r="J100">
-        <v>-113.7437625727808</v>
+        <v>4841035.914235239</v>
       </c>
       <c r="K100">
-        <v>-1398.754462295041</v>
+        <v>3983045.652267481</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,31 +3942,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>29.71305024726186</v>
+        <v>1116401.721315004</v>
       </c>
       <c r="G101">
-        <v>488.4571224054097</v>
+        <v>4841768.648027423</v>
       </c>
       <c r="H101">
-        <v>2205.852167377065</v>
+        <v>3986301.88184914</v>
       </c>
       <c r="I101">
-        <v>920.8688242511298</v>
+        <v>1117342.895611728</v>
       </c>
       <c r="J101">
-        <v>-142.9734885189717</v>
+        <v>4840987.262627295</v>
       </c>
       <c r="K101">
-        <v>-1797.275799664278</v>
+        <v>3982667.758367554</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,31 +3977,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>29.33940274080489</v>
+        <v>1116401.225822036</v>
       </c>
       <c r="G102">
-        <v>503.2839703872351</v>
+        <v>4841785.160846922</v>
       </c>
       <c r="H102">
-        <v>2214.471689272491</v>
+        <v>3986309.465549706</v>
       </c>
       <c r="I102">
-        <v>1006.1077072721</v>
+        <v>1117433.566415965</v>
       </c>
       <c r="J102">
-        <v>-172.2032144651629</v>
+        <v>4840938.611019352</v>
       </c>
       <c r="K102">
-        <v>-2211.772698114986</v>
+        <v>3982274.715800506</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,31 +4012,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>28.97950312677189</v>
+        <v>1116400.748560112</v>
       </c>
       <c r="G103">
-        <v>518.1108183690603</v>
+        <v>4841801.673666421</v>
       </c>
       <c r="H103">
-        <v>2222.878679425805</v>
+        <v>3986316.862258801</v>
       </c>
       <c r="I103">
-        <v>1093.445519369127</v>
+        <v>1117526.469905341</v>
       </c>
       <c r="J103">
-        <v>-201.4329404113542</v>
+        <v>4840889.959411407</v>
       </c>
       <c r="K103">
-        <v>-2642.245157647165</v>
+        <v>3981866.524566336</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,31 +4047,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>28.6325286634735</v>
+        <v>1116400.288438196</v>
       </c>
       <c r="G104">
-        <v>532.9376663508857</v>
+        <v>4841818.186485921</v>
       </c>
       <c r="H104">
-        <v>2231.083366923623</v>
+        <v>3986324.080976263</v>
       </c>
       <c r="I104">
-        <v>1182.93394473973</v>
+        <v>1117621.661057674</v>
       </c>
       <c r="J104">
-        <v>-230.6626663575454</v>
+        <v>4840841.307803463</v>
       </c>
       <c r="K104">
-        <v>-3088.693178260813</v>
+        <v>3981443.184665045</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,31 +4082,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>28.29772391886863</v>
+        <v>1116399.844454512</v>
       </c>
       <c r="G105">
-        <v>547.7645143327111</v>
+        <v>4841834.699305421</v>
       </c>
       <c r="H105">
-        <v>2239.095259689137</v>
+        <v>3986331.130067436</v>
       </c>
       <c r="I105">
-        <v>1274.625940257243</v>
+        <v>1117719.196204558</v>
       </c>
       <c r="J105">
-        <v>-259.8923923037366</v>
+        <v>4840792.656195519</v>
       </c>
       <c r="K105">
-        <v>-3551.116759955929</v>
+        <v>3981004.696096632</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,31 +4117,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>27.97439385327604</v>
+        <v>1116399.415687369</v>
       </c>
       <c r="G106">
-        <v>562.5913623145364</v>
+        <v>4841851.21212492</v>
       </c>
       <c r="H106">
-        <v>2246.923210719065</v>
+        <v>3986338.017321436</v>
       </c>
       <c r="I106">
-        <v>1368.575766809283</v>
+        <v>1117819.133064703</v>
       </c>
       <c r="J106">
-        <v>-289.1221182499275</v>
+        <v>4840744.004587576</v>
       </c>
       <c r="K106">
-        <v>-4029.515902732512</v>
+        <v>3980551.058861098</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,31 +4152,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>27.66189775141429</v>
+        <v>1116399.001287117</v>
       </c>
       <c r="G107">
-        <v>577.4182102963616</v>
+        <v>4841867.72494442</v>
       </c>
       <c r="H107">
-        <v>2254.575476886373</v>
+        <v>3986344.750002898</v>
       </c>
       <c r="I107">
-        <v>1464.839021407913</v>
+        <v>1117921.53077809</v>
       </c>
       <c r="J107">
-        <v>-318.3518441961187</v>
+        <v>4840695.352979631</v>
       </c>
       <c r="K107">
-        <v>-4523.890606590568</v>
+        <v>3980082.272958442</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4184,34 @@
         <v>947</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G108">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H108">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I108">
-        <v>-1602.24428573106</v>
+        <v>1114861.437221152</v>
       </c>
       <c r="J108">
-        <v>1585.144825092485</v>
+        <v>4843219.698995622</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984373.527938331</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4219,34 @@
         <v>947</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G109">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H109">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I109">
-        <v>-1570.611717175079</v>
+        <v>1114891.051219735</v>
       </c>
       <c r="J109">
-        <v>1546.584918430631</v>
+        <v>4843171.047443305</v>
       </c>
       <c r="K109">
-        <v>424.0174862794904</v>
+        <v>3984677.324174813</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4254,34 @@
         <v>947</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G110">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H110">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I110">
-        <v>-1538.200225719836</v>
+        <v>1114921.394435789</v>
       </c>
       <c r="J110">
-        <v>1508.025011768778</v>
+        <v>4843122.395890987</v>
       </c>
       <c r="K110">
-        <v>826.8915170667042</v>
+        <v>3984965.971738392</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4289,34 @@
         <v>947</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G111">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H111">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I111">
-        <v>-1504.990631105534</v>
+        <v>1114952.484825624</v>
       </c>
       <c r="J111">
-        <v>1469.465105106924</v>
+        <v>4843073.74433867</v>
       </c>
       <c r="K111">
-        <v>1208.622092361644</v>
+        <v>3985239.470629069</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4324,34 @@
         <v>947</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G112">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H112">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I112">
-        <v>-1470.963280776121</v>
+        <v>1114984.340787705</v>
       </c>
       <c r="J112">
-        <v>1430.905198445071</v>
+        <v>4843025.092786353</v>
       </c>
       <c r="K112">
-        <v>1569.209212164308</v>
+        <v>3985497.820846842</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4359,34 @@
         <v>947</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G113">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H113">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I113">
-        <v>-1436.098038249434</v>
+        <v>1115016.981173546</v>
       </c>
       <c r="J113">
-        <v>1392.345291783217</v>
+        <v>4842976.441234036</v>
       </c>
       <c r="K113">
-        <v>1908.652876474699</v>
+        <v>3985741.022391713</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4394,34 @@
         <v>947</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G114">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H114">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I114">
-        <v>-1400.374271200963</v>
+        <v>1115050.425298859</v>
       </c>
       <c r="J114">
-        <v>1353.785385121364</v>
+        <v>4842927.789681718</v>
       </c>
       <c r="K114">
-        <v>2226.953085292815</v>
+        <v>3985969.07526368</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4429,34 @@
         <v>947</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G115">
-        <v>-118.1979874245498</v>
+        <v>4841127.780672146</v>
       </c>
       <c r="H115">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I115">
-        <v>-1363.770839254187</v>
+        <v>1115084.69295499</v>
       </c>
       <c r="J115">
-        <v>1315.22547845951</v>
+        <v>4842879.138129401</v>
       </c>
       <c r="K115">
-        <v>2524.109838618655</v>
+        <v>3986181.979462745</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4464,34 @@
         <v>947</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>194.5795648949402</v>
+        <v>1116579.371966734</v>
       </c>
       <c r="G116">
-        <v>-98.68017264629582</v>
+        <v>4841144.293502332</v>
       </c>
       <c r="H116">
-        <v>742.1961236838071</v>
+        <v>3985231.356462627</v>
       </c>
       <c r="I116">
-        <v>-1326.266081470261</v>
+        <v>1115119.804420628</v>
       </c>
       <c r="J116">
-        <v>1276.665571797657</v>
+        <v>4842830.486577084</v>
       </c>
       <c r="K116">
-        <v>2800.12313645222</v>
+        <v>3986379.734988906</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4499,34 @@
         <v>947</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>151.0164413214408</v>
+        <v>1116530.691365116</v>
       </c>
       <c r="G117">
-        <v>-79.16235786804181</v>
+        <v>4841160.806332516</v>
       </c>
       <c r="H117">
-        <v>914.3806300993076</v>
+        <v>3985430.611020802</v>
       </c>
       <c r="I117">
-        <v>-1287.83780352965</v>
+        <v>1115155.780473805</v>
       </c>
       <c r="J117">
-        <v>1238.105665135804</v>
+        <v>4842781.835024768</v>
       </c>
       <c r="K117">
-        <v>3054.992978793509</v>
+        <v>3986562.341842165</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4534,34 @@
         <v>947</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>125.4252915841942</v>
+        <v>1116502.093953748</v>
       </c>
       <c r="G118">
-        <v>-59.64454308978783</v>
+        <v>4841177.3191627</v>
       </c>
       <c r="H118">
-        <v>1016.942527970345</v>
+        <v>3985549.297225915</v>
       </c>
       <c r="I118">
-        <v>-1248.463264598119</v>
+        <v>1115192.642404194</v>
       </c>
       <c r="J118">
-        <v>1199.54575847395</v>
+        <v>4842733.183472449</v>
       </c>
       <c r="K118">
-        <v>3288.719365642525</v>
+        <v>3986729.800022521</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4569,34 @@
         <v>947</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>109.2702804083088</v>
+        <v>1116484.04116968</v>
       </c>
       <c r="G119">
-        <v>-40.12672831153383</v>
+        <v>4841193.831992886</v>
       </c>
       <c r="H119">
-        <v>1090.236584485099</v>
+        <v>3985634.114235016</v>
       </c>
       <c r="I119">
-        <v>-1208.11916386931</v>
+        <v>1115230.412025707</v>
       </c>
       <c r="J119">
-        <v>1160.985851812097</v>
+        <v>4842684.531920132</v>
       </c>
       <c r="K119">
-        <v>3501.302296999266</v>
+        <v>3986882.109529973</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4604,34 @@
         <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>98.00384119128664</v>
+        <v>1116471.451231352</v>
       </c>
       <c r="G120">
-        <v>-20.60891353327983</v>
+        <v>4841210.34482307</v>
       </c>
       <c r="H120">
-        <v>1147.310627025819</v>
+        <v>3985700.161194562</v>
       </c>
       <c r="I120">
-        <v>-1166.781626775947</v>
+        <v>1115269.111689402</v>
       </c>
       <c r="J120">
-        <v>1122.425945150243</v>
+        <v>4842635.880367815</v>
       </c>
       <c r="K120">
-        <v>3692.741772863732</v>
+        <v>3987019.270364523</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4639,34 @@
         <v>947</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>89.59874014402888</v>
+        <v>1116462.058760334</v>
       </c>
       <c r="G121">
-        <v>-1.091098755025852</v>
+        <v>4841226.857653255</v>
       </c>
       <c r="H121">
-        <v>1194.058694932942</v>
+        <v>3985754.2587775</v>
       </c>
       <c r="I121">
-        <v>-1124.426190861496</v>
+        <v>1115308.764296712</v>
       </c>
       <c r="J121">
-        <v>1083.86603848839</v>
+        <v>4842587.228815499</v>
       </c>
       <c r="K121">
-        <v>3863.037793235922</v>
+        <v>3987141.28252617</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4674,34 @@
         <v>947</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>83.027124862637</v>
+        <v>1116454.715159617</v>
       </c>
       <c r="G122">
-        <v>18.42671602322815</v>
+        <v>4841243.370483439</v>
       </c>
       <c r="H122">
-        <v>1233.650896006711</v>
+        <v>3985800.075481316</v>
       </c>
       <c r="I122">
-        <v>-1081.027791303939</v>
+        <v>1115349.393312998</v>
       </c>
       <c r="J122">
-        <v>1045.306131826537</v>
+        <v>4842538.57726318</v>
       </c>
       <c r="K122">
-        <v>4012.190358115838</v>
+        <v>3987248.146014914</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4709,34 @@
         <v>947</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>77.71020960499246</v>
+        <v>1116448.773651932</v>
       </c>
       <c r="G123">
-        <v>37.94453080148214</v>
+        <v>4841259.883313624</v>
       </c>
       <c r="H123">
-        <v>1267.989919623767</v>
+        <v>3985839.81312741</v>
       </c>
       <c r="I123">
-        <v>-1036.560746083072</v>
+        <v>1115391.022781432</v>
       </c>
       <c r="J123">
-        <v>1006.746225164683</v>
+        <v>4842489.925710863</v>
       </c>
       <c r="K123">
-        <v>4140.199467503478</v>
+        <v>3987339.860830755</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4744,34 @@
         <v>947</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>73.29527541810788</v>
+        <v>1116443.840083475</v>
       </c>
       <c r="G124">
-        <v>57.46234557973613</v>
+        <v>4841276.396143809</v>
       </c>
       <c r="H124">
-        <v>1298.307879504239</v>
+        <v>3985874.897536725</v>
       </c>
       <c r="I124">
-        <v>-990.9987407825735</v>
+        <v>1115433.677337227</v>
       </c>
       <c r="J124">
-        <v>968.1863185028297</v>
+        <v>4842441.274158547</v>
       </c>
       <c r="K124">
-        <v>4247.065121398845</v>
+        <v>3987416.426973693</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4779,34 @@
         <v>947</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>69.55395087724685</v>
+        <v>1116439.659255414</v>
       </c>
       <c r="G125">
-        <v>76.98016035799014</v>
+        <v>4841292.908973994</v>
       </c>
       <c r="H125">
-        <v>1325.448554446333</v>
+        <v>3985906.305143058</v>
       </c>
       <c r="I125">
-        <v>-944.3148130178257</v>
+        <v>1115477.382222218</v>
       </c>
       <c r="J125">
-        <v>929.6264118409763</v>
+        <v>4842392.62260623</v>
       </c>
       <c r="K125">
-        <v>4332.787319801937</v>
+        <v>3987477.844443728</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4814,34 @@
         <v>947</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>66.33116479028772</v>
+        <v>1116436.057879922</v>
       </c>
       <c r="G126">
-        <v>96.49797513624412</v>
+        <v>4841309.421804179</v>
       </c>
       <c r="H126">
-        <v>1350.015175819278</v>
+        <v>3985934.734015024</v>
       </c>
       <c r="I126">
-        <v>-896.4813364802972</v>
+        <v>1115522.163299793</v>
       </c>
       <c r="J126">
-        <v>891.0665051791229</v>
+        <v>4842343.971053911</v>
       </c>
       <c r="K126">
-        <v>4397.366062712753</v>
+        <v>3987524.113240859</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4849,34 @@
         <v>947</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>63.5175060094257</v>
+        <v>1116432.913693028</v>
       </c>
       <c r="G127">
-        <v>116.0157899144981</v>
+        <v>4841325.934634363</v>
       </c>
       <c r="H127">
-        <v>1372.453979373838</v>
+        <v>3985960.700543496</v>
       </c>
       <c r="I127">
-        <v>-847.4700045890237</v>
+        <v>1115568.047070207</v>
       </c>
       <c r="J127">
-        <v>852.5065985172695</v>
+        <v>4842295.319501595</v>
       </c>
       <c r="K127">
-        <v>4440.801350131293</v>
+        <v>3987555.233365089</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4884,34 @@
         <v>947</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>61.03331123778278</v>
+        <v>1116430.137673172</v>
       </c>
       <c r="G128">
-        <v>135.5336046927521</v>
+        <v>4841342.447464548</v>
       </c>
       <c r="H128">
-        <v>1393.104361798043</v>
+        <v>3985984.597483539</v>
       </c>
       <c r="I128">
-        <v>-797.2518137395258</v>
+        <v>1115615.060686254</v>
       </c>
       <c r="J128">
-        <v>813.9466918554161</v>
+        <v>4842246.667949278</v>
       </c>
       <c r="K128">
-        <v>4463.093182057561</v>
+        <v>3987571.204816415</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4919,34 @@
         <v>947</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>58.81903187016541</v>
+        <v>1116427.663276413</v>
       </c>
       <c r="G129">
-        <v>155.0514194710061</v>
+        <v>4841358.960294733</v>
       </c>
       <c r="H129">
-        <v>1412.230480515248</v>
+        <v>3986006.730522184</v>
       </c>
       <c r="I129">
-        <v>-745.7970461402474</v>
+        <v>1115663.231969344</v>
       </c>
       <c r="J129">
-        <v>775.3867851935627</v>
+        <v>4842198.016396961</v>
       </c>
       <c r="K129">
-        <v>4464.241558491552</v>
+        <v>3987572.027594838</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4954,34 @@
         <v>947</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>56.82915215943648</v>
+        <v>1116425.439640147</v>
       </c>
       <c r="G130">
-        <v>174.5692342492601</v>
+        <v>4841375.473124919</v>
       </c>
       <c r="H130">
-        <v>1430.041970767679</v>
+        <v>3986027.342252557</v>
       </c>
       <c r="I130">
-        <v>-693.0752522263554</v>
+        <v>1115712.589425965</v>
       </c>
       <c r="J130">
-        <v>736.8268785317092</v>
+        <v>4842149.364844643</v>
       </c>
       <c r="K130">
-        <v>4444.246479433268</v>
+        <v>3987557.701700357</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4989,34 @@
         <v>947</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>55.02821066176448</v>
+        <v>1116423.427137177</v>
       </c>
       <c r="G131">
-        <v>194.0870490275141</v>
+        <v>4841391.985955102</v>
       </c>
       <c r="H131">
-        <v>1446.707989105187</v>
+        <v>3986046.628425219</v>
       </c>
       <c r="I131">
-        <v>-639.0552326404942</v>
+        <v>1115763.162264546</v>
       </c>
       <c r="J131">
-        <v>698.2669718698559</v>
+        <v>4842100.713292326</v>
       </c>
       <c r="K131">
-        <v>4403.107944882709</v>
+        <v>3987528.227132975</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5024,34 @@
         <v>947</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>53.38811715364989</v>
+        <v>1116421.594377444</v>
       </c>
       <c r="G132">
-        <v>213.6048638057681</v>
+        <v>4841408.498785287</v>
       </c>
       <c r="H132">
-        <v>1462.367007587292</v>
+        <v>3986064.749282165</v>
       </c>
       <c r="I132">
-        <v>-583.7050197698381</v>
+        <v>1115814.980412751</v>
       </c>
       <c r="J132">
-        <v>659.7070652080024</v>
+        <v>4842052.061740009</v>
       </c>
       <c r="K132">
-        <v>4340.825954839876</v>
+        <v>3987483.603892689</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5059,34 @@
         <v>947</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>51.88629485502054</v>
+        <v>1116419.916132015</v>
       </c>
       <c r="G133">
-        <v>233.1226785840221</v>
+        <v>4841425.011615472</v>
       </c>
       <c r="H133">
-        <v>1477.133813948681</v>
+        <v>3986081.837657527</v>
       </c>
       <c r="I133">
-        <v>-526.9918588285044</v>
+        <v>1115868.074535184</v>
       </c>
       <c r="J133">
-        <v>621.1471585461489</v>
+        <v>4842003.410187691</v>
       </c>
       <c r="K133">
-        <v>4257.400509304768</v>
+        <v>3987423.8319795</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5094,34 @@
         <v>947</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>50.50436409073278</v>
+        <v>1116418.371862103</v>
       </c>
       <c r="G134">
-        <v>252.6404933622761</v>
+        <v>4841441.524445657</v>
       </c>
       <c r="H134">
-        <v>1491.104622800482</v>
+        <v>3986098.004892332</v>
       </c>
       <c r="I134">
-        <v>-468.882188474142</v>
+        <v>1115922.476051536</v>
       </c>
       <c r="J134">
-        <v>582.5872518842956</v>
+        <v>4841954.758635374</v>
       </c>
       <c r="K134">
-        <v>4152.831608277385</v>
+        <v>3987348.911393408</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5129,34 @@
         <v>947</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>49.22719042906451</v>
+        <v>1116416.944655394</v>
       </c>
       <c r="G135">
-        <v>272.1583081405301</v>
+        <v>4841458.037275841</v>
       </c>
       <c r="H135">
-        <v>1504.360878346513</v>
+        <v>3986113.345235066</v>
       </c>
       <c r="I135">
-        <v>-409.3416209472192</v>
+        <v>1115978.21715518</v>
       </c>
       <c r="J135">
-        <v>544.0273452224421</v>
+        <v>4841906.107083057</v>
       </c>
       <c r="K135">
-        <v>4027.119251757727</v>
+        <v>3987258.842134414</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5164,34 @@
         <v>947</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>48.04218382831409</v>
+        <v>1116415.620442861</v>
       </c>
       <c r="G136">
-        <v>291.6761229187841</v>
+        <v>4841474.550106026</v>
       </c>
       <c r="H136">
-        <v>1516.972131082749</v>
+        <v>3986127.939170632</v>
       </c>
       <c r="I136">
-        <v>-348.3349217212639</v>
+        <v>1116035.33083222</v>
       </c>
       <c r="J136">
-        <v>505.4674385605886</v>
+        <v>4841857.45553074</v>
       </c>
       <c r="K136">
-        <v>3880.263439745794</v>
+        <v>3987153.624202516</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5199,34 @@
         <v>947</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>46.93877419311036</v>
+        <v>1116414.387412709</v>
       </c>
       <c r="G137">
-        <v>311.1939376970381</v>
+        <v>4841491.062936211</v>
       </c>
       <c r="H137">
-        <v>1528.998246557512</v>
+        <v>3986141.855976362</v>
       </c>
       <c r="I137">
-        <v>-285.8259886520037</v>
+        <v>1116093.850881014</v>
       </c>
       <c r="J137">
-        <v>466.9075318987353</v>
+        <v>4841808.803978423</v>
       </c>
       <c r="K137">
-        <v>3712.264172241587</v>
+        <v>3987033.257597716</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5234,34 @@
         <v>947</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>45.90801318973056</v>
+        <v>1116413.23556542</v>
       </c>
       <c r="G138">
-        <v>330.7117524752921</v>
+        <v>4841507.575766396</v>
       </c>
       <c r="H138">
-        <v>1540.49112406869</v>
+        <v>3986155.155710922</v>
       </c>
       <c r="I138">
-        <v>-221.7778306130769</v>
+        <v>1116153.811932171</v>
       </c>
       <c r="J138">
-        <v>428.3476252368818</v>
+        <v>4841760.152426105</v>
       </c>
       <c r="K138">
-        <v>3523.121449245104</v>
+        <v>3986897.742320012</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5269,34 @@
         <v>947</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>44.94226792217989</v>
+        <v>1116412.156371442</v>
       </c>
       <c r="G139">
-        <v>350.229567253546</v>
+        <v>4841524.088596581</v>
       </c>
       <c r="H139">
-        <v>1551.496050250569</v>
+        <v>3986167.890780701</v>
       </c>
       <c r="I139">
-        <v>-156.1525456056662</v>
+        <v>1116215.249469051</v>
       </c>
       <c r="J139">
-        <v>389.7877185750285</v>
+        <v>4841711.500873788</v>
       </c>
       <c r="K139">
-        <v>3312.835270756347</v>
+        <v>3986747.078369405</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5304,34 @@
         <v>947</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>44.03498244383923</v>
+        <v>1116411.142504683</v>
       </c>
       <c r="G140">
-        <v>369.7473820318</v>
+        <v>4841540.601426765</v>
       </c>
       <c r="H140">
-        <v>1562.052776843698</v>
+        <v>3986180.107187025</v>
       </c>
       <c r="I140">
-        <v>-88.91129832910302</v>
+        <v>1116278.199848754</v>
       </c>
       <c r="J140">
-        <v>351.227811913175</v>
+        <v>4841662.849321472</v>
       </c>
       <c r="K140">
-        <v>3081.405636775314</v>
+        <v>3986581.265745895</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5339,34 @@
         <v>947</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>43.1804900460528</v>
+        <v>1116410.18763275</v>
       </c>
       <c r="G141">
-        <v>389.2651968100541</v>
+        <v>4841557.114256949</v>
       </c>
       <c r="H141">
-        <v>1572.196387458157</v>
+        <v>3986191.845529187</v>
       </c>
       <c r="I141">
-        <v>-20.01429719916798</v>
+        <v>1116342.700323645</v>
       </c>
       <c r="J141">
-        <v>312.6679052513215</v>
+        <v>4841614.197769154</v>
       </c>
       <c r="K141">
-        <v>2828.832547302006</v>
+        <v>3986400.304449483</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5374,34 @@
         <v>947</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>42.37386402832686</v>
+        <v>1116409.286250191</v>
       </c>
       <c r="G142">
-        <v>408.7830115883081</v>
+        <v>4841573.627087135</v>
       </c>
       <c r="H142">
-        <v>1581.958001041123</v>
+        <v>3986203.141818511</v>
       </c>
       <c r="I142">
-        <v>50.5792291995131</v>
+        <v>1116408.78906339</v>
       </c>
       <c r="J142">
-        <v>274.1079985894683</v>
+        <v>4841565.546216836</v>
       </c>
       <c r="K142">
-        <v>2555.116002336424</v>
+        <v>3986204.194480168</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5409,34 @@
         <v>947</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>41.61079796541142</v>
+        <v>1116408.433544692</v>
       </c>
       <c r="G143">
-        <v>428.300826366562</v>
+        <v>4841590.13991732</v>
       </c>
       <c r="H143">
-        <v>1591.365347629458</v>
+        <v>3986214.028144621</v>
       </c>
       <c r="I143">
-        <v>122.9110562409082</v>
+        <v>1116476.505177551</v>
       </c>
       <c r="J143">
-        <v>235.5480919276147</v>
+        <v>4841516.894664519</v>
       </c>
       <c r="K143">
-        <v>2260.256001878567</v>
+        <v>3985992.935837949</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5444,34 @@
         <v>947</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>40.8875088222464</v>
+        <v>1116407.625288815</v>
       </c>
       <c r="G144">
-        <v>447.818641144816</v>
+        <v>4841606.652747503</v>
       </c>
       <c r="H144">
-        <v>1600.443243239225</v>
+        <v>3986224.533224994</v>
       </c>
       <c r="I144">
-        <v>197.0239879791376</v>
+        <v>1116545.888738725</v>
       </c>
       <c r="J144">
-        <v>196.9881852657614</v>
+        <v>4841468.243112203</v>
       </c>
       <c r="K144">
-        <v>1944.252545928435</v>
+        <v>3985766.528522828</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5479,34 @@
         <v>947</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>40.20065793859293</v>
+        <v>1116406.857751699</v>
       </c>
       <c r="G145">
-        <v>467.33645592307</v>
+        <v>4841623.165577689</v>
       </c>
       <c r="H145">
-        <v>1609.213984379938</v>
+        <v>3986234.682861493</v>
       </c>
       <c r="I145">
-        <v>272.9618824787731</v>
+        <v>1116616.980806262</v>
       </c>
       <c r="J145">
-        <v>158.428278603908</v>
+        <v>4841419.591559885</v>
       </c>
       <c r="K145">
-        <v>1607.105634486027</v>
+        <v>3985524.972534803</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5514,34 @@
         <v>947</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>39.54728611573127</v>
+        <v>1116406.12762652</v>
       </c>
       <c r="G146">
-        <v>486.854270701324</v>
+        <v>4841639.678407874</v>
       </c>
       <c r="H146">
-        <v>1617.697677984725</v>
+        <v>3986244.500322171</v>
       </c>
       <c r="I146">
-        <v>350.7696777688809</v>
+        <v>1116689.823450558</v>
       </c>
       <c r="J146">
-        <v>119.8683719420545</v>
+        <v>4841370.940007567</v>
       </c>
       <c r="K146">
-        <v>1248.815267551345</v>
+        <v>3985268.267873876</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5549,34 @@
         <v>947</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>38.92475992511458</v>
+        <v>1116405.431970492</v>
       </c>
       <c r="G147">
-        <v>506.372085479578</v>
+        <v>4841656.191238058</v>
       </c>
       <c r="H147">
-        <v>1625.91251904251</v>
+        <v>3986254.006662546</v>
       </c>
       <c r="I147">
-        <v>430.4934184361473</v>
+        <v>1116764.459777956</v>
       </c>
       <c r="J147">
-        <v>81.30846528020116</v>
+        <v>4841322.288455251</v>
       </c>
       <c r="K147">
-        <v>869.3814451243891</v>
+        <v>3984996.414540045</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5584,34 @@
         <v>947</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>38.3307270167223</v>
+        <v>1116404.76815493</v>
       </c>
       <c r="G148">
-        <v>525.889900257832</v>
+        <v>4841672.704068244</v>
       </c>
       <c r="H148">
-        <v>1633.875025575146</v>
+        <v>3986263.22099753</v>
       </c>
       <c r="I148">
-        <v>512.1802828728503</v>
+        <v>1116840.933956252</v>
       </c>
       <c r="J148">
-        <v>42.74855861834767</v>
+        <v>4841273.636902934</v>
       </c>
       <c r="K148">
-        <v>468.8041672051567</v>
+        <v>3984709.412533312</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5619,34 @@
         <v>947</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>37.76307869748342</v>
+        <v>1116404.133823426</v>
       </c>
       <c r="G149">
-        <v>545.4077150360861</v>
+        <v>4841689.216898428</v>
       </c>
       <c r="H149">
-        <v>1641.60023858977</v>
+        <v>3986272.160732806</v>
       </c>
       <c r="I149">
-        <v>595.8786111957692</v>
+        <v>1116919.291240834</v>
       </c>
       <c r="J149">
-        <v>4.188651956494183</v>
+        <v>4841224.985350616</v>
       </c>
       <c r="K149">
-        <v>47.08343379364968</v>
+        <v>3984407.261853676</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5654,34 @@
         <v>947</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>37.21991842258986</v>
+        <v>1116403.526856644</v>
       </c>
       <c r="G150">
-        <v>564.9255298143401</v>
+        <v>4841705.729728612</v>
       </c>
       <c r="H150">
-        <v>1649.101893090246</v>
+        <v>3986280.841762732</v>
       </c>
       <c r="I150">
-        <v>681.6379338525891</v>
+        <v>1116999.578001461</v>
       </c>
       <c r="J150">
-        <v>-34.37125470535912</v>
+        <v>4841176.333798299</v>
       </c>
       <c r="K150">
-        <v>-395.7807551101309</v>
+        <v>3984089.962501137</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5689,34 @@
         <v>947</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>36.69953512663055</v>
+        <v>1116402.945342513</v>
       </c>
       <c r="G151">
-        <v>584.4433445925939</v>
+        <v>4841722.242558798</v>
       </c>
       <c r="H151">
-        <v>1656.392565033244</v>
+        <v>3986289.2786404</v>
       </c>
       <c r="I151">
-        <v>769.5090009327035</v>
+        <v>1117081.841749706</v>
       </c>
       <c r="J151">
-        <v>-72.93116136721261</v>
+        <v>4841127.682245982</v>
       </c>
       <c r="K151">
-        <v>-859.7883995061878</v>
+        <v>3983757.514475695</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5724,34 @@
         <v>947</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>36.2003805400238</v>
+        <v>1116402.387550886</v>
       </c>
       <c r="G152">
-        <v>603.961159370848</v>
+        <v>4841738.755388982</v>
       </c>
       <c r="H152">
-        <v>1663.483798178617</v>
+        <v>3986297.484724424</v>
       </c>
       <c r="I152">
-        <v>859.5438121997669</v>
+        <v>1117166.131167071</v>
       </c>
       <c r="J152">
-        <v>-111.4910680290661</v>
+        <v>4841079.030693664</v>
       </c>
       <c r="K152">
-        <v>-1344.939499394521</v>
+        <v>3983409.91777735</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5759,34 @@
         <v>947</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>35.72104980567703</v>
+        <v>1116401.851911873</v>
       </c>
       <c r="G153">
-        <v>623.478974149102</v>
+        <v>4841755.268219167</v>
       </c>
       <c r="H153">
-        <v>1670.386214047222</v>
+        <v>3986305.472306192</v>
       </c>
       <c r="I153">
-        <v>951.795647863774</v>
+        <v>1117252.496133793</v>
       </c>
       <c r="J153">
-        <v>-150.0509746909196</v>
+        <v>4841030.379141347</v>
       </c>
       <c r="K153">
-        <v>-1851.234054775128</v>
+        <v>3983047.172406102</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5794,34 @@
         <v>947</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>35.26026484315413</v>
+        <v>1116401.336997254</v>
       </c>
       <c r="G154">
-        <v>642.996788927356</v>
+        <v>4841771.781049352</v>
       </c>
       <c r="H154">
-        <v>1677.109607615803</v>
+        <v>3986313.252720602</v>
       </c>
       <c r="I154">
-        <v>1046.319100110874</v>
+        <v>1117340.987758366</v>
       </c>
       <c r="J154">
-        <v>-188.6108813527727</v>
+        <v>4840981.72758903</v>
       </c>
       <c r="K154">
-        <v>-2378.672065648006</v>
+        <v>3982669.278361951</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5829,34 @@
         <v>947</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>34.81686001174101</v>
+        <v>1116400.841504457</v>
       </c>
       <c r="G155">
-        <v>662.5146037056101</v>
+        <v>4841788.293879536</v>
       </c>
       <c r="H155">
-        <v>1683.663030913005</v>
+        <v>3986320.836442801</v>
       </c>
       <c r="I155">
-        <v>1143.170105409579</v>
+        <v>1117431.658407784</v>
       </c>
       <c r="J155">
-        <v>-227.1707880146262</v>
+        <v>4840933.076036713</v>
       </c>
       <c r="K155">
-        <v>-2927.253532013162</v>
+        <v>3982276.235644897</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5864,34 @@
         <v>947</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>34.38976970623049</v>
+        <v>1116400.364242697</v>
       </c>
       <c r="G156">
-        <v>682.0324184838639</v>
+        <v>4841804.806709722</v>
       </c>
       <c r="H156">
-        <v>1690.054866306952</v>
+        <v>3986328.233172994</v>
       </c>
       <c r="I156">
-        <v>1242.405977612472</v>
+        <v>1117524.561738528</v>
       </c>
       <c r="J156">
-        <v>-265.7306946764797</v>
+        <v>4840884.424484395</v>
       </c>
       <c r="K156">
-        <v>-3496.978453870594</v>
+        <v>3981868.04425494</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5899,34 @@
         <v>947</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>33.97801758492682</v>
+        <v>1116399.904120939</v>
       </c>
       <c r="G157">
-        <v>701.5502332621179</v>
+        <v>4841821.319539906</v>
       </c>
       <c r="H157">
-        <v>1696.292890973146</v>
+        <v>3986335.451911048</v>
       </c>
       <c r="I157">
-        <v>1344.085441873033</v>
+        <v>1117619.752728322</v>
       </c>
       <c r="J157">
-        <v>-304.2906013383331</v>
+        <v>4840835.772932079</v>
       </c>
       <c r="K157">
-        <v>-4087.846831220301</v>
+        <v>3981444.70419208</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5934,34 @@
         <v>947</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>33.58070718201387</v>
+        <v>1116399.460137408</v>
       </c>
       <c r="G158">
-        <v>721.068048040372</v>
+        <v>4841837.83237009</v>
       </c>
       <c r="H158">
-        <v>1702.384333786473</v>
+        <v>3986342.501022328</v>
       </c>
       <c r="I158">
-        <v>1448.26866939762</v>
+        <v>1117717.287708666</v>
       </c>
       <c r="J158">
-        <v>-342.8505080001867</v>
+        <v>4840787.121379761</v>
       </c>
       <c r="K158">
-        <v>-4699.858664062282</v>
+        <v>3981006.215456316</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5969,34 @@
         <v>947</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>33.19701369885827</v>
+        <v>1116399.031370413</v>
       </c>
       <c r="G159">
-        <v>740.585862818626</v>
+        <v>4841854.345200276</v>
       </c>
       <c r="H159">
-        <v>1708.33592568116</v>
+        <v>3986349.388295975</v>
       </c>
       <c r="I159">
-        <v>1555.017313053186</v>
+        <v>1117817.22439817</v>
       </c>
       <c r="J159">
-        <v>-381.4104146620398</v>
+        <v>4840738.469827444</v>
       </c>
       <c r="K159">
-        <v>-5333.013952396534</v>
+        <v>3980552.578047651</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,34 +6004,34 @@
         <v>947</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>32.82617680320453</v>
+        <v>1116398.616970303</v>
       </c>
       <c r="G160">
-        <v>760.1036775968798</v>
+        <v>4841870.858030461</v>
       </c>
       <c r="H160">
-        <v>1714.153944358489</v>
+        <v>3986356.120996641</v>
       </c>
       <c r="I160">
-        <v>1664.39454385182</v>
+        <v>1117919.621936713</v>
       </c>
       <c r="J160">
-        <v>-419.9703213238932</v>
+        <v>4840689.818275127</v>
       </c>
       <c r="K160">
-        <v>-5987.312696223065</v>
+        <v>3980083.791966082</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6039,34 @@
         <v>947</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G161">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H161">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I161">
-        <v>-2108.279384253464</v>
+        <v>1114862.142630378</v>
       </c>
       <c r="J161">
-        <v>1734.808392725148</v>
+        <v>4843221.645672204</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984366.483938463</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6074,34 @@
         <v>947</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G162">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H162">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I162">
-        <v>-2066.65633541411</v>
+        <v>1114891.756647699</v>
       </c>
       <c r="J162">
-        <v>1692.60780093015</v>
+        <v>4843172.994100332</v>
       </c>
       <c r="K162">
-        <v>243.0474140759032</v>
+        <v>3984670.279637862</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6109,34 @@
         <v>947</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G163">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H163">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I163">
-        <v>-2024.008357289591</v>
+        <v>1114922.099882952</v>
       </c>
       <c r="J163">
-        <v>1650.407209135152</v>
+        <v>4843124.342528459</v>
       </c>
       <c r="K163">
-        <v>473.9753699966315</v>
+        <v>3984958.92669114</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6144,34 @@
         <v>947</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G164">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H164">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I164">
-        <v>-1980.310211939175</v>
+        <v>1114953.190292459</v>
       </c>
       <c r="J164">
-        <v>1608.206617340154</v>
+        <v>4843075.690956587</v>
       </c>
       <c r="K164">
-        <v>692.7838677621863</v>
+        <v>3985232.425098296</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6179,34 @@
         <v>947</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G165">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H165">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I165">
-        <v>-1935.536039961062</v>
+        <v>1114985.046274696</v>
       </c>
       <c r="J165">
-        <v>1566.006025545156</v>
+        <v>4843027.039384715</v>
       </c>
       <c r="K165">
-        <v>899.4729073725665</v>
+        <v>3985490.774859331</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6214,34 @@
         <v>947</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G166">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H166">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I166">
-        <v>-1889.65934518947</v>
+        <v>1115017.686681189</v>
       </c>
       <c r="J166">
-        <v>1523.805433750158</v>
+        <v>4842978.387812844</v>
       </c>
       <c r="K166">
-        <v>1094.042488827774</v>
+        <v>3985733.975974244</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6249,34 @@
         <v>947</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G167">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H167">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I167">
-        <v>-1842.652979014914</v>
+        <v>1115051.130827664</v>
       </c>
       <c r="J167">
-        <v>1481.60484195516</v>
+        <v>4842929.736240971</v>
       </c>
       <c r="K167">
-        <v>1276.492612127806</v>
+        <v>3985962.028443035</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6284,34 @@
         <v>947</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G168">
-        <v>-98.82041253110428</v>
+        <v>4841131.756428572</v>
       </c>
       <c r="H168">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I168">
-        <v>-1794.489124318373</v>
+        <v>1115085.398505477</v>
       </c>
       <c r="J168">
-        <v>1439.404250160161</v>
+        <v>4842881.084669098</v>
       </c>
       <c r="K168">
-        <v>1446.823277272665</v>
+        <v>3986174.932265705</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6319,34 @@
         <v>947</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>290.932151824077</v>
+        <v>1116580.964224613</v>
       </c>
       <c r="G169">
-        <v>-82.50238081060699</v>
+        <v>4841148.269272319</v>
       </c>
       <c r="H169">
-        <v>621.0811442285064</v>
+        <v>3985230.144038191</v>
       </c>
       <c r="I169">
-        <v>-1745.139279009863</v>
+        <v>1115120.509993331</v>
       </c>
       <c r="J169">
-        <v>1397.203658365163</v>
+        <v>4842832.433097227</v>
       </c>
       <c r="K169">
-        <v>1605.034484262349</v>
+        <v>3986372.687442253</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6354,34 @@
         <v>947</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>225.7972889300243</v>
+        <v>1116532.283553576</v>
       </c>
       <c r="G170">
-        <v>-66.18434909010971</v>
+        <v>4841164.782116064</v>
       </c>
       <c r="H170">
-        <v>765.1677903998342</v>
+        <v>3985429.398535747</v>
       </c>
       <c r="I170">
-        <v>-1694.574239161657</v>
+        <v>1115156.486069271</v>
       </c>
       <c r="J170">
-        <v>1355.003066570165</v>
+        <v>4842783.781525355</v>
       </c>
       <c r="K170">
-        <v>1751.126233096859</v>
+        <v>3986555.29397268</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6389,34 @@
         <v>947</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>187.5338244972137</v>
+        <v>1116503.686101427</v>
       </c>
       <c r="G171">
-        <v>-49.86631736961242</v>
+        <v>4841181.294959811</v>
       </c>
       <c r="H171">
-        <v>850.9931657303154</v>
+        <v>3985548.084704753</v>
       </c>
       <c r="I171">
-        <v>-1642.764081726172</v>
+        <v>1115193.348022984</v>
       </c>
       <c r="J171">
-        <v>1312.802474775167</v>
+        <v>4842735.129953482</v>
       </c>
       <c r="K171">
-        <v>1885.098523776196</v>
+        <v>3986722.751856985</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6424,34 @@
         <v>947</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>163.3791185974445</v>
+        <v>1116485.633291616</v>
       </c>
       <c r="G172">
-        <v>-33.54828564911513</v>
+        <v>4841197.807803556</v>
       </c>
       <c r="H172">
-        <v>912.3267607636486</v>
+        <v>3985632.90168805</v>
       </c>
       <c r="I172">
-        <v>-1589.678146828309</v>
+        <v>1115231.117668395</v>
       </c>
       <c r="J172">
-        <v>1270.601882980169</v>
+        <v>4842686.47838161</v>
       </c>
       <c r="K172">
-        <v>2006.951356300358</v>
+        <v>3986875.061095169</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6459,34 @@
         <v>947</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>146.5337247526529</v>
+        <v>1116473.043335335</v>
       </c>
       <c r="G173">
-        <v>-17.23025392861784</v>
+        <v>4841214.320647302</v>
       </c>
       <c r="H173">
-        <v>960.0871983566077</v>
+        <v>3985698.948627502</v>
       </c>
       <c r="I173">
-        <v>-1535.285019621751</v>
+        <v>1115269.817356576</v>
       </c>
       <c r="J173">
-        <v>1228.401291185171</v>
+        <v>4842637.826809738</v>
       </c>
       <c r="K173">
-        <v>2116.684730669347</v>
+        <v>3987012.221687231</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6494,34 @@
         <v>947</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>133.9665564824504</v>
+        <v>1116463.650850922</v>
       </c>
       <c r="G174">
-        <v>-0.9122222081205595</v>
+        <v>4841230.833491048</v>
       </c>
       <c r="H174">
-        <v>999.2067013824646</v>
+        <v>3985753.046193982</v>
       </c>
       <c r="I174">
-        <v>-1479.55251169849</v>
+        <v>1115309.469988976</v>
       </c>
       <c r="J174">
-        <v>1186.200699390173</v>
+        <v>4842589.175237866</v>
       </c>
       <c r="K174">
-        <v>2214.29864688316</v>
+        <v>3987134.233633172</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6529,34 @@
         <v>947</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>124.1407858481722</v>
+        <v>1116456.307239733</v>
       </c>
       <c r="G175">
-        <v>15.40580951237673</v>
+        <v>4841247.346334794</v>
       </c>
       <c r="H175">
-        <v>1032.338064860048</v>
+        <v>3985798.862883859</v>
       </c>
       <c r="I175">
-        <v>-1422.447642040587</v>
+        <v>1115350.09903097</v>
       </c>
       <c r="J175">
-        <v>1144.000107595174</v>
+        <v>4842540.523665993</v>
       </c>
       <c r="K175">
-        <v>2299.793104941801</v>
+        <v>3987241.096932991</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6564,34 @@
         <v>947</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>116.1910219672221</v>
+        <v>1116450.365723576</v>
       </c>
       <c r="G176">
-        <v>31.72384123287403</v>
+        <v>4841263.859178539</v>
       </c>
       <c r="H176">
-        <v>1061.073488556301</v>
+        <v>3985838.600517864</v>
       </c>
       <c r="I176">
-        <v>-1363.936617502874</v>
+        <v>1115391.728525744</v>
       </c>
       <c r="J176">
-        <v>1101.799515800176</v>
+        <v>4842491.872094122</v>
       </c>
       <c r="K176">
-        <v>2373.168104845267</v>
+        <v>3987332.811586688</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6599,34 @@
         <v>947</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>109.5898852864739</v>
+        <v>1116445.432148084</v>
       </c>
       <c r="G177">
-        <v>48.0418729533713</v>
+        <v>4841280.372022286</v>
       </c>
       <c r="H177">
-        <v>1086.444024203641</v>
+        <v>3985873.684916505</v>
       </c>
       <c r="I177">
-        <v>-1303.984812815077</v>
+        <v>1115434.383108528</v>
       </c>
       <c r="J177">
-        <v>1059.598924005178</v>
+        <v>4842443.22052225</v>
       </c>
       <c r="K177">
-        <v>2434.423646593559</v>
+        <v>3987409.377594265</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6634,34 @@
         <v>947</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>103.995918623363</v>
+        <v>1116441.25131406</v>
       </c>
       <c r="G178">
-        <v>64.35990467386861</v>
+        <v>4841296.884866031</v>
       </c>
       <c r="H178">
-        <v>1109.155758892451</v>
+        <v>3985905.092513283</v>
       </c>
       <c r="I178">
-        <v>-1242.55675009149</v>
+        <v>1115478.088021172</v>
       </c>
       <c r="J178">
-        <v>1017.39833221018</v>
+        <v>4842394.568950377</v>
       </c>
       <c r="K178">
-        <v>2483.559730186677</v>
+        <v>3987470.794955719</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6669,34 @@
         <v>947</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>99.17726209252959</v>
+        <v>1116437.649933432</v>
       </c>
       <c r="G179">
-        <v>80.67793639436589</v>
+        <v>4841313.397709777</v>
       </c>
       <c r="H179">
-        <v>1129.713485920728</v>
+        <v>3985933.5213766</v>
       </c>
       <c r="I179">
-        <v>-1179.616077836117</v>
+        <v>1115522.869127082</v>
       </c>
       <c r="J179">
-        <v>975.1977404151819</v>
+        <v>4842345.917378505</v>
       </c>
       <c r="K179">
-        <v>2520.576355624621</v>
+        <v>3987517.063671052</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6704,34 @@
         <v>947</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>94.97032595277167</v>
+        <v>1116434.505742055</v>
       </c>
       <c r="G180">
-        <v>96.99596811486316</v>
+        <v>4841329.910553523</v>
       </c>
       <c r="H180">
-        <v>1148.490622235606</v>
+        <v>3985959.487897173</v>
       </c>
       <c r="I180">
-        <v>-1115.125549430812</v>
+        <v>1115568.752926528</v>
       </c>
       <c r="J180">
-        <v>932.9971486201837</v>
+        <v>4842297.265806633</v>
       </c>
       <c r="K180">
-        <v>2545.473522907391</v>
+        <v>3987548.183740264</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6739,34 @@
         <v>947</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>91.25599895828783</v>
+        <v>1116431.72971824</v>
       </c>
       <c r="G181">
-        <v>113.3139998353605</v>
+        <v>4841346.423397268</v>
       </c>
       <c r="H181">
-        <v>1165.771180211472</v>
+        <v>3985983.384829945</v>
       </c>
       <c r="I181">
-        <v>-1049.047001093724</v>
+        <v>1115615.766572322</v>
       </c>
       <c r="J181">
-        <v>890.7965568251856</v>
+        <v>4842248.614234761</v>
       </c>
       <c r="K181">
-        <v>2558.251232034987</v>
+        <v>3987564.155163354</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6774,34 @@
         <v>947</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>87.94524501807626</v>
+        <v>1116429.255317953</v>
       </c>
       <c r="G182">
-        <v>129.6320315558577</v>
+        <v>4841362.936241015</v>
       </c>
       <c r="H182">
-        <v>1181.776210847543</v>
+        <v>3986005.517861857</v>
       </c>
       <c r="I182">
-        <v>-981.3413292949857</v>
+        <v>1115663.937885892</v>
       </c>
       <c r="J182">
-        <v>848.5959650301874</v>
+        <v>4842199.96266289</v>
       </c>
       <c r="K182">
-        <v>2558.909483007409</v>
+        <v>3987564.977940322</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6809,34 @@
         <v>947</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>84.97000973873942</v>
+        <v>1116427.031678516</v>
       </c>
       <c r="G183">
-        <v>145.9500632763551</v>
+        <v>4841379.449084761</v>
       </c>
       <c r="H183">
-        <v>1196.68114014236</v>
+        <v>3986026.129585959</v>
       </c>
       <c r="I183">
-        <v>-911.9684676162793</v>
+        <v>1115713.295373742</v>
       </c>
       <c r="J183">
-        <v>806.3953732351891</v>
+        <v>4842151.311091016</v>
       </c>
       <c r="K183">
-        <v>2547.448275824656</v>
+        <v>3987550.652071169</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6844,34 @@
         <v>947</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>82.27727175512902</v>
+        <v>1116425.019172676</v>
       </c>
       <c r="G184">
-        <v>162.2680949968523</v>
+        <v>4841395.961928506</v>
       </c>
       <c r="H184">
-        <v>1210.62752090142</v>
+        <v>3986045.415752754</v>
       </c>
       <c r="I184">
-        <v>-840.8873630405966</v>
+        <v>1115763.868244322</v>
       </c>
       <c r="J184">
-        <v>764.1947814401912</v>
+        <v>4842102.659519144</v>
       </c>
       <c r="K184">
-        <v>2523.86761048673</v>
+        <v>3987521.177555894</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6879,34 @@
         <v>947</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>79.8250310289967</v>
+        <v>1116423.18641033</v>
       </c>
       <c r="G185">
-        <v>178.5861267173496</v>
+        <v>4841412.474772252</v>
       </c>
       <c r="H185">
-        <v>1223.731228676246</v>
+        <v>3986063.536604187</v>
       </c>
       <c r="I185">
-        <v>-768.0559516581552</v>
+        <v>1115815.686425315</v>
       </c>
       <c r="J185">
-        <v>721.9941896451929</v>
+        <v>4842054.007947273</v>
       </c>
       <c r="K185">
-        <v>2488.16748699363</v>
+        <v>3987476.554394498</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6914,34 @@
         <v>947</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>77.57953113164864</v>
+        <v>1116421.508162508</v>
       </c>
       <c r="G186">
-        <v>194.9041584378469</v>
+        <v>4841428.987615998</v>
       </c>
       <c r="H186">
-        <v>1236.088319610662</v>
+        <v>3986080.62497435</v>
       </c>
       <c r="I186">
-        <v>-693.4311337740912</v>
+        <v>1115868.780581342</v>
       </c>
       <c r="J186">
-        <v>679.7935978501947</v>
+        <v>4842005.3563754</v>
       </c>
       <c r="K186">
-        <v>2440.347905345356</v>
+        <v>3987416.782586981</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6949,34 @@
         <v>947</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>75.51329107636221</v>
+        <v>1116419.963890394</v>
       </c>
       <c r="G187">
-        <v>211.2221901583442</v>
+        <v>4841445.500459744</v>
       </c>
       <c r="H187">
-        <v>1247.779307572722</v>
+        <v>3986096.792204237</v>
       </c>
       <c r="I187">
-        <v>-616.9687484032061</v>
+        <v>1115923.182132116</v>
       </c>
       <c r="J187">
-        <v>637.5930060551966</v>
+        <v>4841956.704803528</v>
       </c>
       <c r="K187">
-        <v>2380.408865541907</v>
+        <v>3987341.862133341</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6984,34 @@
         <v>947</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>73.60368211078143</v>
+        <v>1116418.53668165</v>
       </c>
       <c r="G188">
-        <v>227.5402218788415</v>
+        <v>4841462.01330349</v>
       </c>
       <c r="H188">
-        <v>1258.872346326211</v>
+        <v>3986112.132542304</v>
       </c>
       <c r="I188">
-        <v>-538.6235471366666</v>
+        <v>1115978.923271029</v>
       </c>
       <c r="J188">
-        <v>595.3924142601984</v>
+        <v>4841908.053231656</v>
       </c>
       <c r="K188">
-        <v>2308.350367583285</v>
+        <v>3987251.793033581</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7019,34 @@
         <v>947</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>71.83187981248665</v>
+        <v>1116417.212467228</v>
       </c>
       <c r="G189">
-        <v>243.8582535993388</v>
+        <v>4841478.526147235</v>
       </c>
       <c r="H189">
-        <v>1269.425636797064</v>
+        <v>3986126.726473429</v>
       </c>
       <c r="I189">
-        <v>-458.3491673652024</v>
+        <v>1116036.036984207</v>
       </c>
       <c r="J189">
-        <v>553.1918224652002</v>
+        <v>4841859.401659784</v>
       </c>
       <c r="K189">
-        <v>2224.172411469488</v>
+        <v>3987146.575287699</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7054,34 @@
         <v>947</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>70.18207994945084</v>
+        <v>1116415.979435317</v>
       </c>
       <c r="G190">
-        <v>260.176285319836</v>
+        <v>4841495.038990982</v>
       </c>
       <c r="H190">
-        <v>1279.489275397894</v>
+        <v>3986140.643274925</v>
       </c>
       <c r="I190">
-        <v>-376.0981048429414</v>
+        <v>1116094.557070028</v>
       </c>
       <c r="J190">
-        <v>510.9912306702022</v>
+        <v>4841810.750087911</v>
       </c>
       <c r="K190">
-        <v>2127.874997200518</v>
+        <v>3987026.208895695</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7089,34 @@
         <v>947</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>68.64090312087922</v>
+        <v>1116414.827586386</v>
       </c>
       <c r="G191">
-        <v>276.4943170403334</v>
+        <v>4841511.551834728</v>
       </c>
       <c r="H191">
-        <v>1289.106692260288</v>
+        <v>3986153.943005439</v>
       </c>
       <c r="I191">
-        <v>-291.8216855756597</v>
+        <v>1116154.518159125</v>
       </c>
       <c r="J191">
-        <v>468.790638875204</v>
+        <v>4841762.09851604</v>
       </c>
       <c r="K191">
-        <v>2019.458124776373</v>
+        <v>3986890.69385757</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7124,34 @@
         <v>947</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>67.19693674674257</v>
+        <v>1116413.748390869</v>
       </c>
       <c r="G192">
-        <v>292.8123487608306</v>
+        <v>4841528.064678472</v>
       </c>
       <c r="H192">
-        <v>1298.315783937118</v>
+        <v>3986166.678071344</v>
       </c>
       <c r="I192">
-        <v>-205.4700370168048</v>
+        <v>1116215.955734878</v>
       </c>
       <c r="J192">
-        <v>426.5900470802059</v>
+        <v>4841713.446944168</v>
       </c>
       <c r="K192">
-        <v>1898.921794197054</v>
+        <v>3986740.030173323</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7159,34 @@
         <v>947</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>65.84037848393163</v>
+        <v>1116412.734522664</v>
       </c>
       <c r="G193">
-        <v>309.1303804813279</v>
+        <v>4841544.577522219</v>
       </c>
       <c r="H193">
-        <v>1307.149815296949</v>
+        <v>3986178.894473951</v>
       </c>
       <c r="I193">
-        <v>-116.992058554248</v>
+        <v>1116278.906154412</v>
       </c>
       <c r="J193">
-        <v>384.3894552852077</v>
+        <v>4841664.795372295</v>
       </c>
       <c r="K193">
-        <v>1766.266005462562</v>
+        <v>3986574.217842954</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7194,34 @@
         <v>947</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>64.56275556325366</v>
+        <v>1116411.77964937</v>
       </c>
       <c r="G194">
-        <v>325.4484122018252</v>
+        <v>4841561.090365964</v>
       </c>
       <c r="H194">
-        <v>1315.638144844895</v>
+        <v>3986190.632812542</v>
       </c>
       <c r="I194">
-        <v>-26.33539127029869</v>
+        <v>1116343.406670114</v>
       </c>
       <c r="J194">
-        <v>342.1888634902095</v>
+        <v>4841616.143800423</v>
       </c>
       <c r="K194">
-        <v>1621.490758572894</v>
+        <v>3986393.256866464</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7229,34 @@
         <v>947</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>63.35670166349806</v>
+        <v>1116410.878265525</v>
       </c>
       <c r="G195">
-        <v>341.7664439223225</v>
+        <v>4841577.603209711</v>
       </c>
       <c r="H195">
-        <v>1323.806813395107</v>
+        <v>3986201.929098429</v>
       </c>
       <c r="I195">
-        <v>66.55361304291351</v>
+        <v>1116409.495451676</v>
       </c>
       <c r="J195">
-        <v>299.9882716952114</v>
+        <v>4841567.492228551</v>
       </c>
       <c r="K195">
-        <v>1464.596053528054</v>
+        <v>3986197.147243853</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7264,34 @@
         <v>947</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>62.21577788875438</v>
+        <v>1116410.02555881</v>
       </c>
       <c r="G196">
-        <v>358.0844756428198</v>
+        <v>4841594.116053456</v>
       </c>
       <c r="H196">
-        <v>1331.679025869402</v>
+        <v>3986212.815421228</v>
       </c>
       <c r="I196">
-        <v>161.7299236310214</v>
+        <v>1116477.211608683</v>
       </c>
       <c r="J196">
-        <v>257.7876799002132</v>
+        <v>4841518.840656679</v>
       </c>
       <c r="K196">
-        <v>1295.581890328039</v>
+        <v>3985985.88897512</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7299,34 @@
         <v>947</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>61.13432790748008</v>
+        <v>1116409.217301781</v>
       </c>
       <c r="G197">
-        <v>374.4025073633171</v>
+        <v>4841610.628897202</v>
       </c>
       <c r="H197">
-        <v>1339.275548692126</v>
+        <v>3986223.320498405</v>
       </c>
       <c r="I197">
-        <v>259.2498633067621</v>
+        <v>1116546.595213759</v>
       </c>
       <c r="J197">
-        <v>215.5870881052152</v>
+        <v>4841470.189084807</v>
       </c>
       <c r="K197">
-        <v>1114.448268972851</v>
+        <v>3985759.482060266</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7334,34 @@
         <v>947</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>60.10735981002615</v>
+        <v>1116408.44976357</v>
       </c>
       <c r="G198">
-        <v>390.7205390838144</v>
+        <v>4841627.141740948</v>
       </c>
       <c r="H198">
-        <v>1346.615039925749</v>
+        <v>3986233.470131816</v>
       </c>
       <c r="I198">
-        <v>359.1711417803176</v>
+        <v>1116617.687326278</v>
       </c>
       <c r="J198">
-        <v>173.386496310217</v>
+        <v>4841421.537512934</v>
       </c>
       <c r="K198">
-        <v>921.1951894624872</v>
+        <v>3985517.926499289</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7369,34 @@
         <v>947</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>59.13044905133987</v>
+        <v>1116407.719637349</v>
       </c>
       <c r="G199">
-        <v>407.0385708043116</v>
+        <v>4841643.654584695</v>
       </c>
       <c r="H199">
-        <v>1353.714325361508</v>
+        <v>3986243.287589507</v>
       </c>
       <c r="I199">
-        <v>461.5528898103946</v>
+        <v>1116690.530016664</v>
       </c>
       <c r="J199">
-        <v>131.1859045152188</v>
+        <v>4841372.885941062</v>
       </c>
       <c r="K199">
-        <v>715.8226517969501</v>
+        <v>3985261.222292192</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7404,34 @@
         <v>947</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>58.19965817255078</v>
+        <v>1116407.02398033</v>
       </c>
       <c r="G200">
-        <v>423.356602524809</v>
+        <v>4841660.167428439</v>
       </c>
       <c r="H200">
-        <v>1360.588630846291</v>
+        <v>3986252.79392699</v>
       </c>
       <c r="I200">
-        <v>566.4556941962295</v>
+        <v>1116765.166391287</v>
       </c>
       <c r="J200">
-        <v>88.98531272022072</v>
+        <v>4841324.23436919</v>
       </c>
       <c r="K200">
-        <v>498.3306559762394</v>
+        <v>3984989.369438973</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7439,34 @@
         <v>947</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>57.31146997875873</v>
+        <v>1116406.360163821</v>
       </c>
       <c r="G201">
-        <v>439.6746342453062</v>
+        <v>4841676.680272186</v>
       </c>
       <c r="H201">
-        <v>1367.25177891512</v>
+        <v>3986262.008259171</v>
       </c>
       <c r="I201">
-        <v>673.9416336312576</v>
+        <v>1116841.64061797</v>
       </c>
       <c r="J201">
-        <v>46.7847209252225</v>
+        <v>4841275.582797319</v>
       </c>
       <c r="K201">
-        <v>268.719202000354</v>
+        <v>3984702.367939632</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7474,34 @@
         <v>947</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>56.46273158691035</v>
+        <v>1116405.725831413</v>
       </c>
       <c r="G202">
-        <v>455.9926659658036</v>
+        <v>4841693.193115932</v>
       </c>
       <c r="H202">
-        <v>1373.716356114362</v>
+        <v>3986270.947991727</v>
       </c>
       <c r="I202">
-        <v>784.0743154396212</v>
+        <v>1116919.997952132</v>
       </c>
       <c r="J202">
-        <v>4.584129130224276</v>
+        <v>4841226.931225446</v>
       </c>
       <c r="K202">
-        <v>26.98828986929464</v>
+        <v>3984400.217794171</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7509,34 @@
         <v>947</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>55.65060731453129</v>
+        <v>1116405.118863765</v>
       </c>
       <c r="G203">
-        <v>472.3106976863008</v>
+        <v>4841709.705959678</v>
       </c>
       <c r="H203">
-        <v>1379.993856106732</v>
+        <v>3986279.629019013</v>
       </c>
       <c r="I203">
-        <v>896.9189132173054</v>
+        <v>1117000.284763559</v>
       </c>
       <c r="J203">
-        <v>-37.61646266477375</v>
+        <v>4841178.279653573</v>
       </c>
       <c r="K203">
-        <v>-226.862080416938</v>
+        <v>3984082.919002587</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7544,34 @@
         <v>947</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>54.87253880487822</v>
+        <v>1116404.537348805</v>
       </c>
       <c r="G204">
-        <v>488.6287294067981</v>
+        <v>4841726.218803423</v>
       </c>
       <c r="H204">
-        <v>1386.094802646412</v>
+        <v>3986288.065894113</v>
       </c>
       <c r="I204">
-        <v>1012.542205400139</v>
+        <v>1117082.548563855</v>
       </c>
       <c r="J204">
-        <v>-79.81705445977198</v>
+        <v>4841129.628081702</v>
       </c>
       <c r="K204">
-        <v>-492.8319088583455</v>
+        <v>3983750.471564882</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7579,34 @@
         <v>947</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>54.12621111084329</v>
+        <v>1116403.979556383</v>
       </c>
       <c r="G205">
-        <v>504.9467611272954</v>
+        <v>4841742.731647168</v>
       </c>
       <c r="H205">
-        <v>1392.028855729388</v>
+        <v>3986296.271975641</v>
       </c>
       <c r="I205">
-        <v>1131.012614781498</v>
+        <v>1117166.838034552</v>
       </c>
       <c r="J205">
-        <v>-122.0176462547702</v>
+        <v>4841080.976509829</v>
       </c>
       <c r="K205">
-        <v>-770.9211954549276</v>
+        <v>3983402.875481055</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7614,34 @@
         <v>947</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>53.40952371330381</v>
+        <v>1116403.443916606</v>
       </c>
       <c r="G206">
-        <v>521.2647928477927</v>
+        <v>4841759.244490915</v>
       </c>
       <c r="H206">
-        <v>1397.80490360786</v>
+        <v>3986304.259554979</v>
       </c>
       <c r="I206">
-        <v>1252.400249003094</v>
+        <v>1117253.20305592</v>
       </c>
       <c r="J206">
-        <v>-164.2182380497684</v>
+        <v>4841032.324937957</v>
       </c>
       <c r="K206">
-        <v>-1061.129940206683</v>
+        <v>3983040.130751107</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7649,34 @@
         <v>947</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>52.7205656475</v>
+        <v>1116402.929001252</v>
       </c>
       <c r="G207">
-        <v>537.5828245682899</v>
+        <v>4841775.757334661</v>
       </c>
       <c r="H207">
-        <v>1403.431142869185</v>
+        <v>3986312.039967022</v>
       </c>
       <c r="I207">
-        <v>1376.776942042821</v>
+        <v>1117341.694736485</v>
       </c>
       <c r="J207">
-        <v>-206.4188298447663</v>
+        <v>4840983.673366086</v>
       </c>
       <c r="K207">
-        <v>-1363.458143113611</v>
+        <v>3982662.237375037</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7684,34 @@
         <v>947</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>52.05759406668748</v>
+        <v>1116402.433507748</v>
       </c>
       <c r="G208">
-        <v>553.9008562887873</v>
+        <v>4841792.270178406</v>
       </c>
       <c r="H208">
-        <v>1408.915148390311</v>
+        <v>3986319.623686914</v>
       </c>
       <c r="I208">
-        <v>1504.216296724193</v>
+        <v>1117432.365443273</v>
       </c>
       <c r="J208">
-        <v>-248.6194216397645</v>
+        <v>4840935.021794213</v>
       </c>
       <c r="K208">
-        <v>-1677.905804175714</v>
+        <v>3982269.195352846</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7719,34 @@
         <v>947</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>51.41901569555962</v>
+        <v>1116401.956245308</v>
       </c>
       <c r="G209">
-        <v>570.2188880092846</v>
+        <v>4841808.783022152</v>
       </c>
       <c r="H209">
-        <v>1414.263934665951</v>
+        <v>3986327.020414857</v>
       </c>
       <c r="I209">
-        <v>1634.793728272536</v>
+        <v>1117525.2688328</v>
       </c>
       <c r="J209">
-        <v>-290.8200134347627</v>
+        <v>4840886.37022234</v>
       </c>
       <c r="K209">
-        <v>-2004.472923392993</v>
+        <v>3981861.004684533</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7754,34 @@
         <v>947</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>50.80337072413785</v>
+        <v>1116401.496122895</v>
       </c>
       <c r="G210">
-        <v>586.5369197297817</v>
+        <v>4841825.295865899</v>
       </c>
       <c r="H210">
-        <v>1419.484009756313</v>
+        <v>3986334.239150714</v>
       </c>
       <c r="I210">
-        <v>1768.586508943723</v>
+        <v>1117620.459882824</v>
       </c>
       <c r="J210">
-        <v>-333.0206052297609</v>
+        <v>4840837.718650469</v>
       </c>
       <c r="K210">
-        <v>-2343.159500765445</v>
+        <v>3981437.665370099</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7789,34 @@
         <v>947</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>50.20931877153962</v>
+        <v>1116401.05213873</v>
       </c>
       <c r="G211">
-        <v>602.8549514502791</v>
+        <v>4841841.808709644</v>
       </c>
       <c r="H211">
-        <v>1424.581422895209</v>
+        <v>3986341.288259849</v>
       </c>
       <c r="I211">
-        <v>1905.673813751838</v>
+        <v>1117717.994924881</v>
       </c>
       <c r="J211">
-        <v>-375.2211970247591</v>
+        <v>4840789.067078597</v>
       </c>
       <c r="K211">
-        <v>-2693.96553629307</v>
+        <v>3980999.177409543</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7824,34 @@
         <v>947</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>49.63562661247036</v>
+        <v>1116400.623371123</v>
       </c>
       <c r="G212">
-        <v>619.1729831707764</v>
+        <v>4841858.32155339</v>
       </c>
       <c r="H212">
-        <v>1429.561806632039</v>
+        <v>3986348.175531401</v>
       </c>
       <c r="I212">
-        <v>2046.136767322842</v>
+        <v>1117817.931677619</v>
       </c>
       <c r="J212">
-        <v>-417.421788819757</v>
+        <v>4840740.415506725</v>
       </c>
       <c r="K212">
-        <v>-3056.891029975868</v>
+        <v>3980545.540802866</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7859,34 @@
         <v>947</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>49.08115741069906</v>
+        <v>1116400.208970423</v>
       </c>
       <c r="G213">
-        <v>635.4910148912736</v>
+        <v>4841874.834397136</v>
       </c>
       <c r="H213">
-        <v>1434.430414243897</v>
+        <v>3986354.908230019</v>
       </c>
       <c r="I213">
-        <v>2190.058491901987</v>
+        <v>1117920.329280952</v>
       </c>
       <c r="J213">
-        <v>-459.6223806147552</v>
+        <v>4840691.763934852</v>
       </c>
       <c r="K213">
-        <v>-3431.935981813842</v>
+        <v>3980076.755550067</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run947/NotionalETEOutput947.xlsx
+++ b/runs/run947/NotionalETEOutput947.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,34 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_218.MISSILE_HIGHWIND_218</t>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_57.MISSILE_HELLMASKER_57</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_106.MISSILE_HIGHWIND_106</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_24.MISSILE_HIGHWIND_24</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_140.MISSILE_BRAVER_140</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G2">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H2">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I2">
-        <v>1114861.438089452</v>
+        <v>1114859.217325534</v>
       </c>
       <c r="J2">
-        <v>4843224.542240079</v>
+        <v>4843232.121534648</v>
       </c>
       <c r="K2">
-        <v>3984372.369369367</v>
+        <v>3984363.753918807</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G3">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H3">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I3">
-        <v>1114891.052088059</v>
+        <v>1114888.831265151</v>
       </c>
       <c r="J3">
-        <v>4843175.89063911</v>
+        <v>4843183.469857544</v>
       </c>
       <c r="K3">
-        <v>3984676.165517512</v>
+        <v>3984667.54941005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G4">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H4">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I4">
-        <v>1114921.395304137</v>
+        <v>1114919.174420786</v>
       </c>
       <c r="J4">
-        <v>4843127.23903814</v>
+        <v>4843134.818180437</v>
       </c>
       <c r="K4">
-        <v>3984964.812997159</v>
+        <v>3984956.196265551</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G5">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H5">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I5">
-        <v>1114952.485693995</v>
+        <v>1114950.264748713</v>
       </c>
       <c r="J5">
-        <v>4843078.587437171</v>
+        <v>4843086.166503333</v>
       </c>
       <c r="K5">
-        <v>3985238.311808308</v>
+        <v>3985229.694485311</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G6">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H6">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I6">
-        <v>1114984.341656101</v>
+        <v>1114982.120647364</v>
       </c>
       <c r="J6">
-        <v>4843029.935836202</v>
+        <v>4843037.514826227</v>
       </c>
       <c r="K6">
-        <v>3985496.661950959</v>
+        <v>3985488.044069328</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G7">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H7">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I7">
-        <v>1115016.982041967</v>
+        <v>1115014.760968211</v>
       </c>
       <c r="J7">
-        <v>4842981.284235233</v>
+        <v>4842988.863149122</v>
       </c>
       <c r="K7">
-        <v>3985739.863425112</v>
+        <v>3985731.245017604</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G8">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H8">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I8">
-        <v>1115050.426167306</v>
+        <v>1115048.205026931</v>
       </c>
       <c r="J8">
-        <v>4842932.632634263</v>
+        <v>4842940.211472017</v>
       </c>
       <c r="K8">
-        <v>3985967.916230767</v>
+        <v>3985959.297330138</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G9">
-        <v>4841137.748751344</v>
+        <v>4841123.012420326</v>
       </c>
       <c r="H9">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I9">
-        <v>1115084.693823464</v>
+        <v>1115082.472614829</v>
       </c>
       <c r="J9">
-        <v>4842883.981033295</v>
+        <v>4842891.559794911</v>
       </c>
       <c r="K9">
-        <v>3986180.820367923</v>
+        <v>3986172.20100693</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.357203803</v>
+        <v>1116577.757211595</v>
       </c>
       <c r="G10">
-        <v>4841154.261615531</v>
+        <v>4841139.525234247</v>
       </c>
       <c r="H10">
-        <v>3985226.367734693</v>
+        <v>3985228.693288845</v>
       </c>
       <c r="I10">
-        <v>1115119.805289129</v>
+        <v>1115117.584010553</v>
       </c>
       <c r="J10">
-        <v>4842835.329432326</v>
+        <v>4842842.908117807</v>
       </c>
       <c r="K10">
-        <v>3986378.575836582</v>
+        <v>3986369.95604798</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116529.676646427</v>
+        <v>1116529.076680377</v>
       </c>
       <c r="G11">
-        <v>4841170.774479715</v>
+        <v>4841156.038048167</v>
       </c>
       <c r="H11">
-        <v>3985425.622043441</v>
+        <v>3985427.947713865</v>
       </c>
       <c r="I11">
-        <v>1115155.781342335</v>
+        <v>1115153.559992095</v>
       </c>
       <c r="J11">
-        <v>4842786.677831357</v>
+        <v>4842794.256440702</v>
       </c>
       <c r="K11">
-        <v>3986561.182636742</v>
+        <v>3986552.562453288</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.079261048</v>
+        <v>1116500.479310366</v>
       </c>
       <c r="G12">
-        <v>4841187.287343901</v>
+        <v>4841172.550862088</v>
       </c>
       <c r="H12">
-        <v>3985544.308099982</v>
+        <v>3985546.633839666</v>
       </c>
       <c r="I12">
-        <v>1115192.643272752</v>
+        <v>1115190.421849085</v>
       </c>
       <c r="J12">
-        <v>4842738.026230388</v>
+        <v>4842745.604763595</v>
       </c>
       <c r="K12">
-        <v>3986728.640768405</v>
+        <v>3986720.020222854</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116483.026493387</v>
+        <v>1116482.426552405</v>
       </c>
       <c r="G13">
-        <v>4841203.800208086</v>
+        <v>4841189.063676008</v>
       </c>
       <c r="H13">
-        <v>3985629.125002909</v>
+        <v>3985631.450792087</v>
       </c>
       <c r="I13">
-        <v>1115230.412894295</v>
+        <v>1115228.191395392</v>
       </c>
       <c r="J13">
-        <v>4842689.374629419</v>
+        <v>4842696.953086491</v>
       </c>
       <c r="K13">
-        <v>3986880.950231569</v>
+        <v>3986872.329356677</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116470.436566501</v>
+        <v>1116469.836632284</v>
       </c>
       <c r="G14">
-        <v>4841220.313072271</v>
+        <v>4841205.576489928</v>
       </c>
       <c r="H14">
-        <v>3985695.171879777</v>
+        <v>3985697.497707496</v>
       </c>
       <c r="I14">
-        <v>1115269.11255802</v>
+        <v>1115266.890982029</v>
       </c>
       <c r="J14">
-        <v>4842640.72302845</v>
+        <v>4842648.301409385</v>
       </c>
       <c r="K14">
-        <v>3987018.111026236</v>
+        <v>3987009.48985476</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116461.044104018</v>
+        <v>1116460.444174848</v>
       </c>
       <c r="G15">
-        <v>4841236.825936457</v>
+        <v>4841222.089303849</v>
       </c>
       <c r="H15">
-        <v>3985749.269394995</v>
+        <v>3985751.595254282</v>
       </c>
       <c r="I15">
-        <v>1115308.765165361</v>
+        <v>1115306.543510383</v>
       </c>
       <c r="J15">
-        <v>4842592.071427481</v>
+        <v>4842599.649732281</v>
       </c>
       <c r="K15">
-        <v>3987140.123152404</v>
+        <v>3987131.5017171</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116453.700509976</v>
+        <v>1116453.100584752</v>
       </c>
       <c r="G16">
-        <v>4841253.338800642</v>
+        <v>4841238.602117769</v>
       </c>
       <c r="H16">
-        <v>3985795.086041457</v>
+        <v>3985797.411927481</v>
       </c>
       <c r="I16">
-        <v>1115349.394181678</v>
+        <v>1115347.172445769</v>
       </c>
       <c r="J16">
-        <v>4842543.419826512</v>
+        <v>4842550.998055175</v>
       </c>
       <c r="K16">
-        <v>3987246.986610075</v>
+        <v>3987238.364943699</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116447.75900769</v>
+        <v>1116447.159085659</v>
       </c>
       <c r="G17">
-        <v>4841269.851664827</v>
+        <v>4841255.11493169</v>
       </c>
       <c r="H17">
-        <v>3985834.823637808</v>
+        <v>3985837.14954702</v>
       </c>
       <c r="I17">
-        <v>1115391.023650144</v>
+        <v>1115388.801831311</v>
       </c>
       <c r="J17">
-        <v>4842494.768225543</v>
+        <v>4842502.346378069</v>
       </c>
       <c r="K17">
-        <v>3987338.701399246</v>
+        <v>3987330.079534554</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116442.825443718</v>
+        <v>1116442.225524337</v>
       </c>
       <c r="G18">
-        <v>4841286.364529013</v>
+        <v>4841271.627745611</v>
       </c>
       <c r="H18">
-        <v>3985869.908003204</v>
+        <v>3985872.233932889</v>
       </c>
       <c r="I18">
-        <v>1115433.678205973</v>
+        <v>1115431.456302173</v>
       </c>
       <c r="J18">
-        <v>4842446.116624574</v>
+        <v>4842453.694700965</v>
       </c>
       <c r="K18">
-        <v>3987415.267519921</v>
+        <v>3987406.645489669</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116438.644619456</v>
+        <v>1116438.044702322</v>
       </c>
       <c r="G19">
-        <v>4841302.877393197</v>
+        <v>4841288.140559531</v>
       </c>
       <c r="H19">
-        <v>3985901.315570221</v>
+        <v>3985903.641518234</v>
       </c>
       <c r="I19">
-        <v>1115477.383090998</v>
+        <v>1115475.161100139</v>
       </c>
       <c r="J19">
-        <v>4842397.465023605</v>
+        <v>4842405.04302386</v>
       </c>
       <c r="K19">
-        <v>3987476.684972097</v>
+        <v>3987468.062809041</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116435.043247236</v>
+        <v>1116434.443332038</v>
       </c>
       <c r="G20">
-        <v>4841319.390257384</v>
+        <v>4841304.653373451</v>
       </c>
       <c r="H20">
-        <v>3985929.7444066</v>
+        <v>3985932.070371203</v>
       </c>
       <c r="I20">
-        <v>1115522.164168608</v>
+        <v>1115519.942088548</v>
       </c>
       <c r="J20">
-        <v>4842348.813422636</v>
+        <v>4842356.391346754</v>
       </c>
       <c r="K20">
-        <v>3987522.953755775</v>
+        <v>3987514.331492672</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116431.8990632</v>
+        <v>1116431.299149691</v>
       </c>
       <c r="G21">
-        <v>4841335.903121569</v>
+        <v>4841321.166187372</v>
       </c>
       <c r="H21">
-        <v>3985955.710902567</v>
+        <v>3985958.036882322</v>
       </c>
       <c r="I21">
-        <v>1115568.047939057</v>
+        <v>1115565.825767598</v>
       </c>
       <c r="J21">
-        <v>4842300.161821667</v>
+        <v>4842307.739669649</v>
       </c>
       <c r="K21">
-        <v>3987554.073870955</v>
+        <v>3987545.45154056</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.123045867</v>
+        <v>1116428.52313385</v>
       </c>
       <c r="G22">
-        <v>4841352.415985754</v>
+        <v>4841337.679001292</v>
       </c>
       <c r="H22">
-        <v>3985979.607812695</v>
+        <v>3985981.933806395</v>
       </c>
       <c r="I22">
-        <v>1115615.061555141</v>
+        <v>1115612.839290032</v>
       </c>
       <c r="J22">
-        <v>4842251.510220698</v>
+        <v>4842259.087992543</v>
       </c>
       <c r="K22">
-        <v>3987570.045317637</v>
+        <v>3987561.422952707</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116426.648651357</v>
+        <v>1116426.04874067</v>
       </c>
       <c r="G23">
-        <v>4841368.928849939</v>
+        <v>4841354.191815213</v>
       </c>
       <c r="H23">
-        <v>3986001.740823634</v>
+        <v>3986004.06683025</v>
       </c>
       <c r="I23">
-        <v>1115663.232838269</v>
+        <v>1115661.010477205</v>
       </c>
       <c r="J23">
-        <v>4842202.85861973</v>
+        <v>4842210.436315439</v>
       </c>
       <c r="K23">
-        <v>3987570.86809582</v>
+        <v>3987562.245729112</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116424.425017111</v>
+        <v>1116423.825107619</v>
       </c>
       <c r="G24">
-        <v>4841385.441714125</v>
+        <v>4841370.704629133</v>
       </c>
       <c r="H24">
-        <v>3986022.352528206</v>
+        <v>3986024.678546849</v>
       </c>
       <c r="I24">
-        <v>1115712.590294928</v>
+        <v>1115710.367835545</v>
       </c>
       <c r="J24">
-        <v>4842154.20701876</v>
+        <v>4842161.784638333</v>
       </c>
       <c r="K24">
-        <v>3987556.542205506</v>
+        <v>3987547.919869774</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116422.41251597</v>
+        <v>1116421.812607559</v>
       </c>
       <c r="G25">
-        <v>4841401.95457831</v>
+        <v>4841387.217443054</v>
       </c>
       <c r="H25">
-        <v>3986041.638676725</v>
+        <v>3986043.964706623</v>
       </c>
       <c r="I25">
-        <v>1115763.163133548</v>
+        <v>1115760.940573427</v>
       </c>
       <c r="J25">
-        <v>4842105.555417791</v>
+        <v>4842113.132961228</v>
       </c>
       <c r="K25">
-        <v>3987527.067646693</v>
+        <v>3987518.445374695</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116420.579757904</v>
+        <v>1116419.979850477</v>
       </c>
       <c r="G26">
-        <v>4841418.467442496</v>
+        <v>4841403.730256975</v>
       </c>
       <c r="H26">
-        <v>3986059.759510987</v>
+        <v>3986062.085551459</v>
       </c>
       <c r="I26">
-        <v>1115814.981281794</v>
+        <v>1115812.758618452</v>
       </c>
       <c r="J26">
-        <v>4842056.903816822</v>
+        <v>4842064.481284123</v>
       </c>
       <c r="K26">
-        <v>3987482.444419383</v>
+        <v>3987473.822243874</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116418.901514</v>
+        <v>1116418.301607475</v>
       </c>
       <c r="G27">
-        <v>4841434.98030668</v>
+        <v>4841420.243070895</v>
       </c>
       <c r="H27">
-        <v>3986076.847864958</v>
+        <v>3986079.173915402</v>
       </c>
       <c r="I27">
-        <v>1115868.075404268</v>
+        <v>1115865.852635165</v>
       </c>
       <c r="J27">
-        <v>4842008.252215853</v>
+        <v>4842015.829607017</v>
       </c>
       <c r="K27">
-        <v>3987422.672523574</v>
+        <v>3987414.050477311</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.357245492</v>
+        <v>1116416.757339797</v>
       </c>
       <c r="G28">
-        <v>4841451.493170866</v>
+        <v>4841436.755884815</v>
       </c>
       <c r="H28">
-        <v>3986093.015079525</v>
+        <v>3986095.341139403</v>
       </c>
       <c r="I28">
-        <v>1115922.476920663</v>
+        <v>1115920.254043194</v>
       </c>
       <c r="J28">
-        <v>4841959.600614884</v>
+        <v>4841967.177929912</v>
       </c>
       <c r="K28">
-        <v>3987347.751959268</v>
+        <v>3987339.130075006</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116415.93004008</v>
+        <v>1116415.330135152</v>
       </c>
       <c r="G29">
-        <v>4841468.006035051</v>
+        <v>4841453.268698736</v>
       </c>
       <c r="H29">
-        <v>3986108.355403056</v>
+        <v>3986110.681471886</v>
       </c>
       <c r="I29">
-        <v>1115978.21802435</v>
+        <v>1115975.995035846</v>
       </c>
       <c r="J29">
-        <v>4841910.949013915</v>
+        <v>4841918.526252807</v>
       </c>
       <c r="K29">
-        <v>3987257.682726464</v>
+        <v>3987249.06103696</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116414.605828749</v>
+        <v>1116414.005924533</v>
       </c>
       <c r="G30">
-        <v>4841484.518899237</v>
+        <v>4841469.781512656</v>
       </c>
       <c r="H30">
-        <v>3986122.949320353</v>
+        <v>3986125.275397698</v>
       </c>
       <c r="I30">
-        <v>1116035.331701435</v>
+        <v>1116033.108599163</v>
       </c>
       <c r="J30">
-        <v>4841862.297412946</v>
+        <v>4841869.874575702</v>
       </c>
       <c r="K30">
-        <v>3987152.464825161</v>
+        <v>3987143.843363171</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116413.372799718</v>
+        <v>1116412.772896164</v>
       </c>
       <c r="G31">
-        <v>4841501.031763422</v>
+        <v>4841486.294326577</v>
       </c>
       <c r="H31">
-        <v>3986136.866108661</v>
+        <v>3986139.192194128</v>
       </c>
       <c r="I31">
-        <v>1116093.851750274</v>
+        <v>1116091.628531432</v>
       </c>
       <c r="J31">
-        <v>4841813.645811977</v>
+        <v>4841821.222898596</v>
       </c>
       <c r="K31">
-        <v>3987032.09825536</v>
+        <v>3987023.47705364</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.220953477</v>
+        <v>1116411.621050542</v>
       </c>
       <c r="G32">
-        <v>4841517.544627608</v>
+        <v>4841502.807140497</v>
       </c>
       <c r="H32">
-        <v>3986150.165826573</v>
+        <v>3986152.491919801</v>
       </c>
       <c r="I32">
-        <v>1116153.812801478</v>
+        <v>1116151.589463196</v>
       </c>
       <c r="J32">
-        <v>4841764.994211008</v>
+        <v>4841772.571221491</v>
       </c>
       <c r="K32">
-        <v>3986896.583017062</v>
+        <v>3986887.962108367</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.141760479</v>
+        <v>1116410.541858124</v>
       </c>
       <c r="G33">
-        <v>4841534.057491792</v>
+        <v>4841519.319954418</v>
       </c>
       <c r="H33">
-        <v>3986162.90088041</v>
+        <v>3986165.226981069</v>
       </c>
       <c r="I33">
-        <v>1116215.250338406</v>
+        <v>1116213.026877742</v>
       </c>
       <c r="J33">
-        <v>4841716.342610039</v>
+        <v>4841723.919544386</v>
       </c>
       <c r="K33">
-        <v>3986745.919110265</v>
+        <v>3986737.298527353</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.127894641</v>
+        <v>1116409.527992831</v>
       </c>
       <c r="G34">
-        <v>4841550.570355978</v>
+        <v>4841535.832768339</v>
       </c>
       <c r="H34">
-        <v>3986175.117271442</v>
+        <v>3986177.44337923</v>
       </c>
       <c r="I34">
-        <v>1116278.200718158</v>
+        <v>1116275.9771321</v>
       </c>
       <c r="J34">
-        <v>4841667.691009071</v>
+        <v>4841675.267867281</v>
       </c>
       <c r="K34">
-        <v>3986580.10653497</v>
+        <v>3986571.486310596</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.173023576</v>
+        <v>1116408.573122279</v>
       </c>
       <c r="G35">
-        <v>4841567.083220163</v>
+        <v>4841552.345582259</v>
       </c>
       <c r="H35">
-        <v>3986186.855598909</v>
+        <v>3986189.181713548</v>
       </c>
       <c r="I35">
-        <v>1116342.701193099</v>
+        <v>1116340.477478558</v>
       </c>
       <c r="J35">
-        <v>4841619.039408101</v>
+        <v>4841626.616190176</v>
       </c>
       <c r="K35">
-        <v>3986399.145291177</v>
+        <v>3986390.525458097</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.271641836</v>
+        <v>1116407.671741023</v>
       </c>
       <c r="G36">
-        <v>4841583.596084349</v>
+        <v>4841568.858396179</v>
       </c>
       <c r="H36">
-        <v>3986198.151874092</v>
+        <v>3986200.477995323</v>
       </c>
       <c r="I36">
-        <v>1116408.789932895</v>
+        <v>1116406.566086708</v>
       </c>
       <c r="J36">
-        <v>4841570.387807132</v>
+        <v>4841577.96451307</v>
       </c>
       <c r="K36">
-        <v>3986203.035378886</v>
+        <v>3986194.415969857</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116407.418937112</v>
+        <v>1116406.819036758</v>
       </c>
       <c r="G37">
-        <v>4841600.108948534</v>
+        <v>4841585.3712101</v>
       </c>
       <c r="H37">
-        <v>3986209.038186575</v>
+        <v>3986211.364314158</v>
       </c>
       <c r="I37">
-        <v>1116476.506047109</v>
+        <v>1116474.282066034</v>
       </c>
       <c r="J37">
-        <v>4841521.736206163</v>
+        <v>4841529.312835965</v>
       </c>
       <c r="K37">
-        <v>3985991.776798097</v>
+        <v>3985983.157845875</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116406.61068197</v>
+        <v>1116406.01078205</v>
       </c>
       <c r="G38">
-        <v>4841616.621812719</v>
+        <v>4841601.88402402</v>
       </c>
       <c r="H38">
-        <v>3986219.543253799</v>
+        <v>3986221.869387511</v>
       </c>
       <c r="I38">
-        <v>1116545.889608338</v>
+        <v>1116543.665489053</v>
       </c>
       <c r="J38">
-        <v>4841473.084605195</v>
+        <v>4841480.661158861</v>
       </c>
       <c r="K38">
-        <v>3985765.36954881</v>
+        <v>3985756.75108615</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116405.843145551</v>
+        <v>1116405.243246044</v>
       </c>
       <c r="G39">
-        <v>4841633.134676904</v>
+        <v>4841618.39683794</v>
       </c>
       <c r="H39">
-        <v>3986229.692877592</v>
+        <v>3986232.019017227</v>
       </c>
       <c r="I39">
-        <v>1116616.98167593</v>
+        <v>1116614.757415032</v>
       </c>
       <c r="J39">
-        <v>4841424.433004225</v>
+        <v>4841432.009481754</v>
       </c>
       <c r="K39">
-        <v>3985523.813631025</v>
+        <v>3985515.195690684</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.113021035</v>
+        <v>1116404.51312192</v>
       </c>
       <c r="G40">
-        <v>4841649.647541091</v>
+        <v>4841634.909651862</v>
       </c>
       <c r="H40">
-        <v>3986239.510325979</v>
+        <v>3986241.836471344</v>
       </c>
       <c r="I40">
-        <v>1116689.824320283</v>
+        <v>1116687.599914285</v>
       </c>
       <c r="J40">
-        <v>4841375.781403256</v>
+        <v>4841383.35780465</v>
       </c>
       <c r="K40">
-        <v>3985267.109044742</v>
+        <v>3985258.491659476</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116404.41736564</v>
+        <v>1116403.817466899</v>
       </c>
       <c r="G41">
-        <v>4841666.160405275</v>
+        <v>4841651.422465782</v>
       </c>
       <c r="H41">
-        <v>3986249.016654455</v>
+        <v>3986251.342805366</v>
       </c>
       <c r="I41">
-        <v>1116764.460647739</v>
+        <v>1116762.236093068</v>
       </c>
       <c r="J41">
-        <v>4841327.129802287</v>
+        <v>4841334.706127544</v>
       </c>
       <c r="K41">
-        <v>3984995.25578996</v>
+        <v>3984986.638992526</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116403.753550682</v>
+        <v>1116403.153652297</v>
       </c>
       <c r="G42">
-        <v>4841682.673269461</v>
+        <v>4841667.935279703</v>
       </c>
       <c r="H42">
-        <v>3986258.230977904</v>
+        <v>3986260.557134193</v>
       </c>
       <c r="I42">
-        <v>1116840.934826094</v>
+        <v>1116838.71011909</v>
       </c>
       <c r="J42">
-        <v>4841278.478201319</v>
+        <v>4841286.054450439</v>
       </c>
       <c r="K42">
-        <v>3984708.253866681</v>
+        <v>3984699.637689834</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.119219754</v>
+        <v>1116402.51932171</v>
       </c>
       <c r="G43">
-        <v>4841699.186133646</v>
+        <v>4841684.448093623</v>
       </c>
       <c r="H43">
-        <v>3986267.17070199</v>
+        <v>3986269.496863496</v>
       </c>
       <c r="I43">
-        <v>1116919.292110737</v>
+        <v>1116917.067247648</v>
       </c>
       <c r="J43">
-        <v>4841229.826600349</v>
+        <v>4841237.402773334</v>
       </c>
       <c r="K43">
-        <v>3984406.103274904</v>
+        <v>3984397.4877514</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116402.512253523</v>
+        <v>1116401.912355805</v>
       </c>
       <c r="G44">
-        <v>4841715.698997831</v>
+        <v>4841700.960907543</v>
       </c>
       <c r="H44">
-        <v>3986275.851721049</v>
+        <v>3986278.17788762</v>
       </c>
       <c r="I44">
-        <v>1116999.578871427</v>
+        <v>1116997.353848409</v>
       </c>
       <c r="J44">
-        <v>4841181.17499938</v>
+        <v>4841188.751096228</v>
       </c>
       <c r="K44">
-        <v>3984088.804014628</v>
+        <v>3984080.189177224</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116401.930739921</v>
+        <v>1116401.330842516</v>
       </c>
       <c r="G45">
-        <v>4841732.211862017</v>
+        <v>4841717.473721464</v>
       </c>
       <c r="H45">
-        <v>3986284.288588155</v>
+        <v>3986286.614759649</v>
       </c>
       <c r="I45">
-        <v>1117081.842619736</v>
+        <v>1117079.617432852</v>
       </c>
       <c r="J45">
-        <v>4841132.523398411</v>
+        <v>4841140.099419123</v>
       </c>
       <c r="K45">
-        <v>3983756.356085855</v>
+        <v>3983747.741967306</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116401.372948801</v>
+        <v>1116400.773051695</v>
       </c>
       <c r="G46">
-        <v>4841748.724726202</v>
+        <v>4841733.986535384</v>
       </c>
       <c r="H46">
-        <v>3986292.494661907</v>
+        <v>3986294.82083819</v>
       </c>
       <c r="I46">
-        <v>1117166.132037166</v>
+        <v>1117163.90668238</v>
       </c>
       <c r="J46">
-        <v>4841083.871797442</v>
+        <v>4841091.447742018</v>
       </c>
       <c r="K46">
-        <v>3983408.759488583</v>
+        <v>3983400.146121646</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116400.837310275</v>
+        <v>1116400.237413457</v>
       </c>
       <c r="G47">
-        <v>4841765.237590387</v>
+        <v>4841750.499349304</v>
       </c>
       <c r="H47">
-        <v>3986300.482233676</v>
+        <v>3986302.80841462</v>
       </c>
       <c r="I47">
-        <v>1117252.497003955</v>
+        <v>1117250.271477134</v>
       </c>
       <c r="J47">
-        <v>4841035.220196472</v>
+        <v>4841042.796064912</v>
       </c>
       <c r="K47">
-        <v>3983046.014222814</v>
+        <v>3983037.401640245</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.322396124</v>
+        <v>1116399.722499582</v>
       </c>
       <c r="G48">
-        <v>4841781.750454573</v>
+        <v>4841767.012163226</v>
       </c>
       <c r="H48">
-        <v>3986308.262638347</v>
+        <v>3986310.588823831</v>
       </c>
       <c r="I48">
-        <v>1117340.988628598</v>
+        <v>1117338.762925504</v>
       </c>
       <c r="J48">
-        <v>4840986.568595503</v>
+        <v>4840994.144387808</v>
       </c>
       <c r="K48">
-        <v>3982668.120288546</v>
+        <v>3982659.508523101</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116399.826903777</v>
+        <v>1116399.227007502</v>
       </c>
       <c r="G49">
-        <v>4841798.263318758</v>
+        <v>4841783.524977146</v>
       </c>
       <c r="H49">
-        <v>3986315.846351052</v>
+        <v>3986318.172540962</v>
       </c>
       <c r="I49">
-        <v>1117431.659278086</v>
+        <v>1117429.43339438</v>
       </c>
       <c r="J49">
-        <v>4840937.916994535</v>
+        <v>4840945.492710702</v>
       </c>
       <c r="K49">
-        <v>3982275.07768578</v>
+        <v>3982266.466770215</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.349642451</v>
+        <v>1116398.749746432</v>
       </c>
       <c r="G50">
-        <v>4841814.776182944</v>
+        <v>4841800.037791067</v>
       </c>
       <c r="H50">
-        <v>3986323.243071986</v>
+        <v>3986325.569266213</v>
       </c>
       <c r="I50">
-        <v>1117524.562608902</v>
+        <v>1117522.336540136</v>
       </c>
       <c r="J50">
-        <v>4840889.265393565</v>
+        <v>4840896.841033597</v>
       </c>
       <c r="K50">
-        <v>3981866.886414516</v>
+        <v>3981858.276381588</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116398.889521111</v>
+        <v>1116398.28962534</v>
       </c>
       <c r="G51">
-        <v>4841831.289047129</v>
+        <v>4841816.550604987</v>
       </c>
       <c r="H51">
-        <v>3986330.461801004</v>
+        <v>3986332.787999442</v>
       </c>
       <c r="I51">
-        <v>1117619.753598771</v>
+        <v>1117617.527340387</v>
       </c>
       <c r="J51">
-        <v>4840840.613792596</v>
+        <v>4840848.189356492</v>
       </c>
       <c r="K51">
-        <v>3981443.546474754</v>
+        <v>3981434.937357218</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116398.445537983</v>
+        <v>1116397.84564245</v>
       </c>
       <c r="G52">
-        <v>4841847.801911314</v>
+        <v>4841833.063418907</v>
       </c>
       <c r="H52">
-        <v>3986337.51090346</v>
+        <v>3986339.837106011</v>
       </c>
       <c r="I52">
-        <v>1117717.28857919</v>
+        <v>1117715.062126521</v>
       </c>
       <c r="J52">
-        <v>4840791.962191627</v>
+        <v>4840799.537679386</v>
       </c>
       <c r="K52">
-        <v>3981005.057866494</v>
+        <v>3980996.449697107</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116398.016771378</v>
+        <v>1116397.416876076</v>
       </c>
       <c r="G53">
-        <v>4841864.3147755</v>
+        <v>4841849.576232828</v>
       </c>
       <c r="H53">
-        <v>3986344.398168484</v>
+        <v>3986346.724375056</v>
       </c>
       <c r="I53">
-        <v>1117817.225268772</v>
+        <v>1117814.998617033</v>
       </c>
       <c r="J53">
-        <v>4840743.310590659</v>
+        <v>4840750.886002282</v>
       </c>
       <c r="K53">
-        <v>3980551.420589736</v>
+        <v>3980542.813401253</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2303,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116397.602371645</v>
+        <v>1116397.002476565</v>
       </c>
       <c r="G54">
-        <v>4841880.827639686</v>
+        <v>4841866.089046749</v>
       </c>
       <c r="H54">
-        <v>3986351.130860723</v>
+        <v>3986353.457071222</v>
       </c>
       <c r="I54">
-        <v>1117919.622807395</v>
+        <v>1117917.395951683</v>
       </c>
       <c r="J54">
-        <v>4840694.658989689</v>
+        <v>4840702.234325176</v>
       </c>
       <c r="K54">
-        <v>3980082.63464448</v>
+        <v>3980074.028469658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>947</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G55">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H55">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I55">
+        <v>1114861.178457097</v>
+      </c>
+      <c r="J55">
+        <v>4843220.983708098</v>
+      </c>
+      <c r="K55">
+        <v>3984363.685395048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>947</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G56">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H56">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I56">
+        <v>1114890.792448807</v>
+      </c>
+      <c r="J56">
+        <v>4843172.332142875</v>
+      </c>
+      <c r="K56">
+        <v>3984667.480881066</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>947</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G57">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H57">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I57">
+        <v>1114921.135657818</v>
+      </c>
+      <c r="J57">
+        <v>4843123.680577652</v>
+      </c>
+      <c r="K57">
+        <v>3984956.127731604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>947</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G58">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H58">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I58">
+        <v>1114952.226040436</v>
+      </c>
+      <c r="J58">
+        <v>4843075.02901243</v>
+      </c>
+      <c r="K58">
+        <v>3985229.625946659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>947</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G59">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H59">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I59">
+        <v>1114984.081995124</v>
+      </c>
+      <c r="J59">
+        <v>4843026.377447207</v>
+      </c>
+      <c r="K59">
+        <v>3985487.975526234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>947</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G60">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H60">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I60">
+        <v>1115016.722373388</v>
+      </c>
+      <c r="J60">
+        <v>4842977.725881984</v>
+      </c>
+      <c r="K60">
+        <v>3985731.176470327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>947</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G61">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H61">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I61">
+        <v>1115050.166490939</v>
+      </c>
+      <c r="J61">
+        <v>4842929.074316761</v>
+      </c>
+      <c r="K61">
+        <v>3985959.228778939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>947</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G62">
+        <v>4841132.171531806</v>
+      </c>
+      <c r="H62">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I62">
+        <v>1115084.434139116</v>
+      </c>
+      <c r="J62">
+        <v>4842880.422751539</v>
+      </c>
+      <c r="K62">
+        <v>3986172.132452069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>947</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116578.028919423</v>
+      </c>
+      <c r="G63">
+        <v>4841148.684376968</v>
+      </c>
+      <c r="H63">
+        <v>3985226.527870547</v>
+      </c>
+      <c r="I63">
+        <v>1115119.545596605</v>
+      </c>
+      <c r="J63">
+        <v>4842831.771186317</v>
+      </c>
+      <c r="K63">
+        <v>3986369.887489717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>947</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116529.348376359</v>
+      </c>
+      <c r="G64">
+        <v>4841165.197222129</v>
+      </c>
+      <c r="H64">
+        <v>3985425.782187301</v>
+      </c>
+      <c r="I64">
+        <v>1115155.521641432</v>
+      </c>
+      <c r="J64">
+        <v>4842783.119621095</v>
+      </c>
+      <c r="K64">
+        <v>3986552.493891885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>947</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116500.750999388</v>
+      </c>
+      <c r="G65">
+        <v>4841181.710067291</v>
+      </c>
+      <c r="H65">
+        <v>3985544.468248612</v>
+      </c>
+      <c r="I65">
+        <v>1115192.383563265</v>
+      </c>
+      <c r="J65">
+        <v>4842734.468055871</v>
+      </c>
+      <c r="K65">
+        <v>3986719.951658571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>947</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116482.698237035</v>
+      </c>
+      <c r="G66">
+        <v>4841198.222912453</v>
+      </c>
+      <c r="H66">
+        <v>3985629.285154947</v>
+      </c>
+      <c r="I66">
+        <v>1115230.153176011</v>
+      </c>
+      <c r="J66">
+        <v>4842685.816490649</v>
+      </c>
+      <c r="K66">
+        <v>3986872.260789776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>947</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116470.10831385</v>
+      </c>
+      <c r="G67">
+        <v>4841214.735757614</v>
+      </c>
+      <c r="H67">
+        <v>3985695.332034469</v>
+      </c>
+      <c r="I67">
+        <v>1115268.852830724</v>
+      </c>
+      <c r="J67">
+        <v>4842637.164925427</v>
+      </c>
+      <c r="K67">
+        <v>3987009.421285499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116460.715854129</v>
+      </c>
+      <c r="G68">
+        <v>4841231.248602777</v>
+      </c>
+      <c r="H68">
+        <v>3985749.429551861</v>
+      </c>
+      <c r="I68">
+        <v>1115308.505428831</v>
+      </c>
+      <c r="J68">
+        <v>4842588.513360205</v>
+      </c>
+      <c r="K68">
+        <v>3987131.433145741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116453.372262246</v>
+      </c>
+      <c r="G69">
+        <v>4841247.761447937</v>
+      </c>
+      <c r="H69">
+        <v>3985795.246200164</v>
+      </c>
+      <c r="I69">
+        <v>1115349.134435686</v>
+      </c>
+      <c r="J69">
+        <v>4842539.861794981</v>
+      </c>
+      <c r="K69">
+        <v>3987238.296370502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>947</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116447.430761707</v>
+      </c>
+      <c r="G70">
+        <v>4841264.2742931</v>
+      </c>
+      <c r="H70">
+        <v>3985834.983798112</v>
+      </c>
+      <c r="I70">
+        <v>1115390.763894458</v>
+      </c>
+      <c r="J70">
+        <v>4842491.210229759</v>
+      </c>
+      <c r="K70">
+        <v>3987330.01095978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>947</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116442.497199185</v>
+      </c>
+      <c r="G71">
+        <v>4841280.787138262</v>
+      </c>
+      <c r="H71">
+        <v>3985870.068164917</v>
+      </c>
+      <c r="I71">
+        <v>1115433.418440353</v>
+      </c>
+      <c r="J71">
+        <v>4842442.558664537</v>
+      </c>
+      <c r="K71">
+        <v>3987406.576913578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>947</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116438.316376152</v>
+      </c>
+      <c r="G72">
+        <v>4841297.299983423</v>
+      </c>
+      <c r="H72">
+        <v>3985901.475733196</v>
+      </c>
+      <c r="I72">
+        <v>1115477.123315199</v>
+      </c>
+      <c r="J72">
+        <v>4842393.907099315</v>
+      </c>
+      <c r="K72">
+        <v>3987467.994231894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>947</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116434.715004992</v>
+      </c>
+      <c r="G73">
+        <v>4841313.812828585</v>
+      </c>
+      <c r="H73">
+        <v>3985929.904570717</v>
+      </c>
+      <c r="I73">
+        <v>1115521.904382381</v>
+      </c>
+      <c r="J73">
+        <v>4842345.255534092</v>
+      </c>
+      <c r="K73">
+        <v>3987514.262914729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>947</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116431.570821879</v>
+      </c>
+      <c r="G74">
+        <v>4841330.325673747</v>
+      </c>
+      <c r="H74">
+        <v>3985955.871067728</v>
+      </c>
+      <c r="I74">
+        <v>1115567.788142144</v>
+      </c>
+      <c r="J74">
+        <v>4842296.603968869</v>
+      </c>
+      <c r="K74">
+        <v>3987545.382962083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>947</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116428.794805363</v>
+      </c>
+      <c r="G75">
+        <v>4841346.838518908</v>
+      </c>
+      <c r="H75">
+        <v>3985979.767978816</v>
+      </c>
+      <c r="I75">
+        <v>1115614.801747279</v>
+      </c>
+      <c r="J75">
+        <v>4842247.952403647</v>
+      </c>
+      <c r="K75">
+        <v>3987561.354373954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>947</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116426.32041158</v>
+      </c>
+      <c r="G76">
+        <v>4841363.351364071</v>
+      </c>
+      <c r="H76">
+        <v>3986001.900990644</v>
+      </c>
+      <c r="I76">
+        <v>1115662.973019189</v>
+      </c>
+      <c r="J76">
+        <v>4842199.300838425</v>
+      </c>
+      <c r="K76">
+        <v>3987562.177150345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>947</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116424.096777988</v>
+      </c>
+      <c r="G77">
+        <v>4841379.864209233</v>
+      </c>
+      <c r="H77">
+        <v>3986022.512696044</v>
+      </c>
+      <c r="I77">
+        <v>1115712.330464353</v>
+      </c>
+      <c r="J77">
+        <v>4842150.649273202</v>
+      </c>
+      <c r="K77">
+        <v>3987547.851291254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>947</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116422.084277439</v>
+      </c>
+      <c r="G78">
+        <v>4841396.377054393</v>
+      </c>
+      <c r="H78">
+        <v>3986041.798845338</v>
+      </c>
+      <c r="I78">
+        <v>1115762.903291197</v>
+      </c>
+      <c r="J78">
+        <v>4842101.997707979</v>
+      </c>
+      <c r="K78">
+        <v>3987518.376796681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116420.251519911</v>
+      </c>
+      <c r="G79">
+        <v>4841412.889899556</v>
+      </c>
+      <c r="H79">
+        <v>3986059.919680329</v>
+      </c>
+      <c r="I79">
+        <v>1115814.721427375</v>
+      </c>
+      <c r="J79">
+        <v>4842053.346142757</v>
+      </c>
+      <c r="K79">
+        <v>3987473.753666628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>947</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116418.573276501</v>
+      </c>
+      <c r="G80">
+        <v>4841429.402744717</v>
+      </c>
+      <c r="H80">
+        <v>3986077.008034986</v>
+      </c>
+      <c r="I80">
+        <v>1115867.815537484</v>
+      </c>
+      <c r="J80">
+        <v>4842004.694577534</v>
+      </c>
+      <c r="K80">
+        <v>3987413.981901093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>947</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116417.029008446</v>
+      </c>
+      <c r="G81">
+        <v>4841445.915589879</v>
+      </c>
+      <c r="H81">
+        <v>3986093.175250203</v>
+      </c>
+      <c r="I81">
+        <v>1115922.217041209</v>
+      </c>
+      <c r="J81">
+        <v>4841956.043012312</v>
+      </c>
+      <c r="K81">
+        <v>3987339.061500076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>947</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116415.601803454</v>
+      </c>
+      <c r="G82">
+        <v>4841462.428435041</v>
+      </c>
+      <c r="H82">
+        <v>3986108.51557435</v>
+      </c>
+      <c r="I82">
+        <v>1115977.958131915</v>
+      </c>
+      <c r="J82">
+        <v>4841907.391447089</v>
+      </c>
+      <c r="K82">
+        <v>3987248.992463579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>947</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116414.277592513</v>
+      </c>
+      <c r="G83">
+        <v>4841478.941280202</v>
+      </c>
+      <c r="H83">
+        <v>3986123.109492233</v>
+      </c>
+      <c r="I83">
+        <v>1116035.071795699</v>
+      </c>
+      <c r="J83">
+        <v>4841858.739881867</v>
+      </c>
+      <c r="K83">
+        <v>3987143.774791599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>947</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116413.044563845</v>
+      </c>
+      <c r="G84">
+        <v>4841495.454125364</v>
+      </c>
+      <c r="H84">
+        <v>3986137.026281101</v>
+      </c>
+      <c r="I84">
+        <v>1116093.59183091</v>
+      </c>
+      <c r="J84">
+        <v>4841810.088316644</v>
+      </c>
+      <c r="K84">
+        <v>3987023.408484139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>947</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116411.892717942</v>
+      </c>
+      <c r="G85">
+        <v>4841511.966970527</v>
+      </c>
+      <c r="H85">
+        <v>3986150.325999547</v>
+      </c>
+      <c r="I85">
+        <v>1116153.552868151</v>
+      </c>
+      <c r="J85">
+        <v>4841761.436751422</v>
+      </c>
+      <c r="K85">
+        <v>3986887.893541196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>947</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116410.813525261</v>
+      </c>
+      <c r="G86">
+        <v>4841528.479815687</v>
+      </c>
+      <c r="H86">
+        <v>3986163.061053896</v>
+      </c>
+      <c r="I86">
+        <v>1116214.99039077</v>
+      </c>
+      <c r="J86">
+        <v>4841712.785186199</v>
+      </c>
+      <c r="K86">
+        <v>3986737.229962773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>947</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116409.799659722</v>
+      </c>
+      <c r="G87">
+        <v>4841544.992660849</v>
+      </c>
+      <c r="H87">
+        <v>3986175.277445419</v>
+      </c>
+      <c r="I87">
+        <v>1116277.940755863</v>
+      </c>
+      <c r="J87">
+        <v>4841664.133620976</v>
+      </c>
+      <c r="K87">
+        <v>3986571.417748868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>947</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116408.844788937</v>
+      </c>
+      <c r="G88">
+        <v>4841561.505506011</v>
+      </c>
+      <c r="H88">
+        <v>3986187.015773358</v>
+      </c>
+      <c r="I88">
+        <v>1116342.441215782</v>
+      </c>
+      <c r="J88">
+        <v>4841615.482055753</v>
+      </c>
+      <c r="K88">
+        <v>3986390.456899482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>947</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116407.943407462</v>
+      </c>
+      <c r="G89">
+        <v>4841578.018351173</v>
+      </c>
+      <c r="H89">
+        <v>3986198.312048995</v>
+      </c>
+      <c r="I89">
+        <v>1116408.529940188</v>
+      </c>
+      <c r="J89">
+        <v>4841566.830490531</v>
+      </c>
+      <c r="K89">
+        <v>3986194.347414614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>947</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116407.090702989</v>
+      </c>
+      <c r="G90">
+        <v>4841594.531196334</v>
+      </c>
+      <c r="H90">
+        <v>3986209.198361916</v>
+      </c>
+      <c r="I90">
+        <v>1116476.246038632</v>
+      </c>
+      <c r="J90">
+        <v>4841518.178925309</v>
+      </c>
+      <c r="K90">
+        <v>3985983.089294265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>947</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116406.282448085</v>
+      </c>
+      <c r="G91">
+        <v>4841611.044041496</v>
+      </c>
+      <c r="H91">
+        <v>3986219.703429561</v>
+      </c>
+      <c r="I91">
+        <v>1116545.629583702</v>
+      </c>
+      <c r="J91">
+        <v>4841469.527360086</v>
+      </c>
+      <c r="K91">
+        <v>3985756.682538434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>947</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116405.514911891</v>
+      </c>
+      <c r="G92">
+        <v>4841627.556886658</v>
+      </c>
+      <c r="H92">
+        <v>3986229.853053762</v>
+      </c>
+      <c r="I92">
+        <v>1116616.721634738</v>
+      </c>
+      <c r="J92">
+        <v>4841420.875794863</v>
+      </c>
+      <c r="K92">
+        <v>3985515.127147122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>947</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116404.78478759</v>
+      </c>
+      <c r="G93">
+        <v>4841644.06973182</v>
+      </c>
+      <c r="H93">
+        <v>3986239.670502544</v>
+      </c>
+      <c r="I93">
+        <v>1116689.564262127</v>
+      </c>
+      <c r="J93">
+        <v>4841372.224229641</v>
+      </c>
+      <c r="K93">
+        <v>3985258.423120329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>947</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116404.0891324</v>
+      </c>
+      <c r="G94">
+        <v>4841660.582576982</v>
+      </c>
+      <c r="H94">
+        <v>3986249.176831401</v>
+      </c>
+      <c r="I94">
+        <v>1116764.200572202</v>
+      </c>
+      <c r="J94">
+        <v>4841323.572664419</v>
+      </c>
+      <c r="K94">
+        <v>3984986.570458055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>947</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116403.425317636</v>
+      </c>
+      <c r="G95">
+        <v>4841677.095422143</v>
+      </c>
+      <c r="H95">
+        <v>3986258.391155221</v>
+      </c>
+      <c r="I95">
+        <v>1116840.674732748</v>
+      </c>
+      <c r="J95">
+        <v>4841274.921099197</v>
+      </c>
+      <c r="K95">
+        <v>3984699.569160298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>947</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116402.790986895</v>
+      </c>
+      <c r="G96">
+        <v>4841693.608267305</v>
+      </c>
+      <c r="H96">
+        <v>3986267.330879666</v>
+      </c>
+      <c r="I96">
+        <v>1116919.031999142</v>
+      </c>
+      <c r="J96">
+        <v>4841226.269533973</v>
+      </c>
+      <c r="K96">
+        <v>3984397.419227061</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>947</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116402.184020843</v>
+      </c>
+      <c r="G97">
+        <v>4841710.121112467</v>
+      </c>
+      <c r="H97">
+        <v>3986276.011899074</v>
+      </c>
+      <c r="I97">
+        <v>1116999.318741135</v>
+      </c>
+      <c r="J97">
+        <v>4841177.617968751</v>
+      </c>
+      <c r="K97">
+        <v>3984080.120658342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>947</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116401.602507412</v>
+      </c>
+      <c r="G98">
+        <v>4841726.633957629</v>
+      </c>
+      <c r="H98">
+        <v>3986284.448766519</v>
+      </c>
+      <c r="I98">
+        <v>1117081.582470286</v>
+      </c>
+      <c r="J98">
+        <v>4841128.966403529</v>
+      </c>
+      <c r="K98">
+        <v>3983747.673454142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>947</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116401.044716456</v>
+      </c>
+      <c r="G99">
+        <v>4841743.14680279</v>
+      </c>
+      <c r="H99">
+        <v>3986292.6548406</v>
+      </c>
+      <c r="I99">
+        <v>1117165.871868087</v>
+      </c>
+      <c r="J99">
+        <v>4841080.314838306</v>
+      </c>
+      <c r="K99">
+        <v>3983400.07761446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>947</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116400.509078087</v>
+      </c>
+      <c r="G100">
+        <v>4841759.659647952</v>
+      </c>
+      <c r="H100">
+        <v>3986300.642412691</v>
+      </c>
+      <c r="I100">
+        <v>1117252.236814763</v>
+      </c>
+      <c r="J100">
+        <v>4841031.663273083</v>
+      </c>
+      <c r="K100">
+        <v>3983037.333139297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>947</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116399.994164087</v>
+      </c>
+      <c r="G101">
+        <v>4841776.172493114</v>
+      </c>
+      <c r="H101">
+        <v>3986308.422817674</v>
+      </c>
+      <c r="I101">
+        <v>1117340.728418797</v>
+      </c>
+      <c r="J101">
+        <v>4840983.011707861</v>
+      </c>
+      <c r="K101">
+        <v>3982659.440028652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>947</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116399.498671886</v>
+      </c>
+      <c r="G102">
+        <v>4841792.685338276</v>
+      </c>
+      <c r="H102">
+        <v>3986316.006530684</v>
+      </c>
+      <c r="I102">
+        <v>1117431.39904717</v>
+      </c>
+      <c r="J102">
+        <v>4840934.360142639</v>
+      </c>
+      <c r="K102">
+        <v>3982266.398282526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>947</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116399.0214107</v>
+      </c>
+      <c r="G103">
+        <v>4841809.198183437</v>
+      </c>
+      <c r="H103">
+        <v>3986323.403251916</v>
+      </c>
+      <c r="I103">
+        <v>1117524.30235635</v>
+      </c>
+      <c r="J103">
+        <v>4840885.708577416</v>
+      </c>
+      <c r="K103">
+        <v>3981858.207900918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>947</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116398.561289496</v>
+      </c>
+      <c r="G104">
+        <v>4841825.711028599</v>
+      </c>
+      <c r="H104">
+        <v>3986330.621981223</v>
+      </c>
+      <c r="I104">
+        <v>1117619.49332405</v>
+      </c>
+      <c r="J104">
+        <v>4840837.057012194</v>
+      </c>
+      <c r="K104">
+        <v>3981434.86888383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>947</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116398.117306498</v>
+      </c>
+      <c r="G105">
+        <v>4841842.223873761</v>
+      </c>
+      <c r="H105">
+        <v>3986337.671083962</v>
+      </c>
+      <c r="I105">
+        <v>1117717.028281756</v>
+      </c>
+      <c r="J105">
+        <v>4840788.405446971</v>
+      </c>
+      <c r="K105">
+        <v>3980996.381231259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>947</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116397.688540019</v>
+      </c>
+      <c r="G106">
+        <v>4841858.736718923</v>
+      </c>
+      <c r="H106">
+        <v>3986344.558349264</v>
+      </c>
+      <c r="I106">
+        <v>1117816.964948064</v>
+      </c>
+      <c r="J106">
+        <v>4840739.753881749</v>
+      </c>
+      <c r="K106">
+        <v>3980542.744943208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>947</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116397.274140408</v>
+      </c>
+      <c r="G107">
+        <v>4841875.249564085</v>
+      </c>
+      <c r="H107">
+        <v>3986351.291041772</v>
+      </c>
+      <c r="I107">
+        <v>1117919.362462841</v>
+      </c>
+      <c r="J107">
+        <v>4840691.102316526</v>
+      </c>
+      <c r="K107">
+        <v>3980073.960019675</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>947</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G108">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H108">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I108">
+        <v>1114860.472024986</v>
+      </c>
+      <c r="J108">
+        <v>4843224.164875057</v>
+      </c>
+      <c r="K108">
+        <v>3984366.292136267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>947</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G109">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H109">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I109">
+        <v>1114890.085997931</v>
+      </c>
+      <c r="J109">
+        <v>4843175.513277879</v>
+      </c>
+      <c r="K109">
+        <v>3984670.087821042</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>947</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G110">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H110">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I110">
+        <v>1114920.429187715</v>
+      </c>
+      <c r="J110">
+        <v>4843126.8616807</v>
+      </c>
+      <c r="K110">
+        <v>3984958.734860424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>947</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G111">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H111">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I111">
+        <v>1114951.519550633</v>
+      </c>
+      <c r="J111">
+        <v>4843078.210083522</v>
+      </c>
+      <c r="K111">
+        <v>3985232.233254414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>947</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G112">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H112">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I112">
+        <v>1114983.375485135</v>
+      </c>
+      <c r="J112">
+        <v>4843029.558486343</v>
+      </c>
+      <c r="K112">
+        <v>3985490.583003012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>947</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G113">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H113">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I113">
+        <v>1115016.015842717</v>
+      </c>
+      <c r="J113">
+        <v>4842980.906889166</v>
+      </c>
+      <c r="K113">
+        <v>3985733.784106218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>947</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G114">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H114">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I114">
+        <v>1115049.459939076</v>
+      </c>
+      <c r="J114">
+        <v>4842932.255291986</v>
+      </c>
+      <c r="K114">
+        <v>3985961.836564031</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>947</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G115">
+        <v>4841118.010426292</v>
+      </c>
+      <c r="H115">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I115">
+        <v>1115083.72756554</v>
+      </c>
+      <c r="J115">
+        <v>4842883.603694809</v>
+      </c>
+      <c r="K115">
+        <v>3986174.740376452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>947</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116581.098819238</v>
+      </c>
+      <c r="G116">
+        <v>4841134.523223151</v>
+      </c>
+      <c r="H116">
+        <v>3985226.844882134</v>
+      </c>
+      <c r="I116">
+        <v>1115118.839000779</v>
+      </c>
+      <c r="J116">
+        <v>4842834.95209763</v>
+      </c>
+      <c r="K116">
+        <v>3986372.49554348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>947</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116532.418142332</v>
+      </c>
+      <c r="G117">
+        <v>4841151.03602001</v>
+      </c>
+      <c r="H117">
+        <v>3985426.099214737</v>
+      </c>
+      <c r="I117">
+        <v>1115154.81502281</v>
+      </c>
+      <c r="J117">
+        <v>4842786.300500453</v>
+      </c>
+      <c r="K117">
+        <v>3986555.102065117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>947</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116503.820686737</v>
+      </c>
+      <c r="G118">
+        <v>4841167.548816869</v>
+      </c>
+      <c r="H118">
+        <v>3985544.785285489</v>
+      </c>
+      <c r="I118">
+        <v>1115191.676921286</v>
+      </c>
+      <c r="J118">
+        <v>4842737.648903274</v>
+      </c>
+      <c r="K118">
+        <v>3986722.559941361</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>947</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116485.76787475</v>
+      </c>
+      <c r="G119">
+        <v>4841184.061613728</v>
+      </c>
+      <c r="H119">
+        <v>3985629.602198571</v>
+      </c>
+      <c r="I119">
+        <v>1115229.446510099</v>
+      </c>
+      <c r="J119">
+        <v>4842688.997306095</v>
+      </c>
+      <c r="K119">
+        <v>3986874.869172213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>947</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116473.177916951</v>
+      </c>
+      <c r="G120">
+        <v>4841200.574410587</v>
+      </c>
+      <c r="H120">
+        <v>3985695.649083347</v>
+      </c>
+      <c r="I120">
+        <v>1115268.14614029</v>
+      </c>
+      <c r="J120">
+        <v>4842640.345708918</v>
+      </c>
+      <c r="K120">
+        <v>3987012.029757672</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>947</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116463.785431406</v>
+      </c>
+      <c r="G121">
+        <v>4841217.087207446</v>
+      </c>
+      <c r="H121">
+        <v>3985749.746605042</v>
+      </c>
+      <c r="I121">
+        <v>1115307.798713271</v>
+      </c>
+      <c r="J121">
+        <v>4842591.694111739</v>
+      </c>
+      <c r="K121">
+        <v>3987134.04169774</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>947</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116456.441819332</v>
+      </c>
+      <c r="G122">
+        <v>4841233.600004304</v>
+      </c>
+      <c r="H122">
+        <v>3985795.56325699</v>
+      </c>
+      <c r="I122">
+        <v>1115348.427694382</v>
+      </c>
+      <c r="J122">
+        <v>4842543.042514561</v>
+      </c>
+      <c r="K122">
+        <v>3987240.904992415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>947</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116450.500302458</v>
+      </c>
+      <c r="G123">
+        <v>4841250.112801163</v>
+      </c>
+      <c r="H123">
+        <v>3985835.300858099</v>
+      </c>
+      <c r="I123">
+        <v>1115390.057126775</v>
+      </c>
+      <c r="J123">
+        <v>4842494.390917382</v>
+      </c>
+      <c r="K123">
+        <v>3987332.619641697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>947</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116445.566726371</v>
+      </c>
+      <c r="G124">
+        <v>4841266.625598023</v>
+      </c>
+      <c r="H124">
+        <v>3985870.385227695</v>
+      </c>
+      <c r="I124">
+        <v>1115432.711645642</v>
+      </c>
+      <c r="J124">
+        <v>4842445.739320205</v>
+      </c>
+      <c r="K124">
+        <v>3987409.185645587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>947</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116441.385891844</v>
+      </c>
+      <c r="G125">
+        <v>4841283.138394881</v>
+      </c>
+      <c r="H125">
+        <v>3985901.792798473</v>
+      </c>
+      <c r="I125">
+        <v>1115476.416492795</v>
+      </c>
+      <c r="J125">
+        <v>4842397.087723026</v>
+      </c>
+      <c r="K125">
+        <v>3987470.603004085</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>947</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116437.784510782</v>
+      </c>
+      <c r="G126">
+        <v>4841299.65119174</v>
+      </c>
+      <c r="H126">
+        <v>3985930.221638255</v>
+      </c>
+      <c r="I126">
+        <v>1115521.197531601</v>
+      </c>
+      <c r="J126">
+        <v>4842348.436125848</v>
+      </c>
+      <c r="K126">
+        <v>3987516.871717191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>947</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116434.640319025</v>
+      </c>
+      <c r="G127">
+        <v>4841316.1639886</v>
+      </c>
+      <c r="H127">
+        <v>3985956.188137331</v>
+      </c>
+      <c r="I127">
+        <v>1115567.08126229</v>
+      </c>
+      <c r="J127">
+        <v>4842299.78452867</v>
+      </c>
+      <c r="K127">
+        <v>3987547.991784905</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>947</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116431.864294876</v>
+      </c>
+      <c r="G128">
+        <v>4841332.676785459</v>
+      </c>
+      <c r="H128">
+        <v>3985980.08505032</v>
+      </c>
+      <c r="I128">
+        <v>1115614.094837635</v>
+      </c>
+      <c r="J128">
+        <v>4842251.132931491</v>
+      </c>
+      <c r="K128">
+        <v>3987563.963207226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>947</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116429.389894291</v>
+      </c>
+      <c r="G129">
+        <v>4841349.189582318</v>
+      </c>
+      <c r="H129">
+        <v>3986002.218063909</v>
+      </c>
+      <c r="I129">
+        <v>1115662.266079021</v>
+      </c>
+      <c r="J129">
+        <v>4842202.481334314</v>
+      </c>
+      <c r="K129">
+        <v>3987564.785984155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>947</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116427.166254585</v>
+      </c>
+      <c r="G130">
+        <v>4841365.702379177</v>
+      </c>
+      <c r="H130">
+        <v>3986022.829770949</v>
+      </c>
+      <c r="I130">
+        <v>1115711.62349291</v>
+      </c>
+      <c r="J130">
+        <v>4842153.829737134</v>
+      </c>
+      <c r="K130">
+        <v>3987550.460115691</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>947</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116425.153748503</v>
+      </c>
+      <c r="G131">
+        <v>4841382.215176036</v>
+      </c>
+      <c r="H131">
+        <v>3986042.115921777</v>
+      </c>
+      <c r="I131">
+        <v>1115762.196287707</v>
+      </c>
+      <c r="J131">
+        <v>4842105.178139957</v>
+      </c>
+      <c r="K131">
+        <v>3987520.985601835</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>947</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116423.320985936</v>
+      </c>
+      <c r="G132">
+        <v>4841398.727972895</v>
+      </c>
+      <c r="H132">
+        <v>3986060.236758209</v>
+      </c>
+      <c r="I132">
+        <v>1115814.014391051</v>
+      </c>
+      <c r="J132">
+        <v>4842056.526542778</v>
+      </c>
+      <c r="K132">
+        <v>3987476.362442587</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>947</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116421.642737912</v>
+      </c>
+      <c r="G133">
+        <v>4841415.240769753</v>
+      </c>
+      <c r="H133">
+        <v>3986077.325114226</v>
+      </c>
+      <c r="I133">
+        <v>1115867.108467517</v>
+      </c>
+      <c r="J133">
+        <v>4842007.8749456</v>
+      </c>
+      <c r="K133">
+        <v>3987416.590637947</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>947</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116420.098465611</v>
+      </c>
+      <c r="G134">
+        <v>4841431.753566612</v>
+      </c>
+      <c r="H134">
+        <v>3986093.492330729</v>
+      </c>
+      <c r="I134">
+        <v>1115921.509936771</v>
+      </c>
+      <c r="J134">
+        <v>4841959.223348421</v>
+      </c>
+      <c r="K134">
+        <v>3987341.670187914</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>947</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116418.671256695</v>
+      </c>
+      <c r="G135">
+        <v>4841448.266363472</v>
+      </c>
+      <c r="H135">
+        <v>3986108.832656096</v>
+      </c>
+      <c r="I135">
+        <v>1115977.250992157</v>
+      </c>
+      <c r="J135">
+        <v>4841910.571751243</v>
+      </c>
+      <c r="K135">
+        <v>3987251.601092489</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>947</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116417.347042114</v>
+      </c>
+      <c r="G136">
+        <v>4841464.77916033</v>
+      </c>
+      <c r="H136">
+        <v>3986123.42657514</v>
+      </c>
+      <c r="I136">
+        <v>1116034.364619751</v>
+      </c>
+      <c r="J136">
+        <v>4841861.920154065</v>
+      </c>
+      <c r="K136">
+        <v>3987146.383351672</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>947</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116416.114010055</v>
+      </c>
+      <c r="G137">
+        <v>4841481.291957189</v>
+      </c>
+      <c r="H137">
+        <v>3986137.343365115</v>
+      </c>
+      <c r="I137">
+        <v>1116092.88461788</v>
+      </c>
+      <c r="J137">
+        <v>4841813.268556886</v>
+      </c>
+      <c r="K137">
+        <v>3987026.016965463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>947</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116414.962160985</v>
+      </c>
+      <c r="G138">
+        <v>4841497.804754049</v>
+      </c>
+      <c r="H138">
+        <v>3986150.643084619</v>
+      </c>
+      <c r="I138">
+        <v>1116152.845617126</v>
+      </c>
+      <c r="J138">
+        <v>4841764.616959709</v>
+      </c>
+      <c r="K138">
+        <v>3986890.501933861</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>947</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116413.882965337</v>
+      </c>
+      <c r="G139">
+        <v>4841514.317550907</v>
+      </c>
+      <c r="H139">
+        <v>3986163.378139981</v>
+      </c>
+      <c r="I139">
+        <v>1116214.283100816</v>
+      </c>
+      <c r="J139">
+        <v>4841715.96536253</v>
+      </c>
+      <c r="K139">
+        <v>3986739.838256867</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>947</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116412.86909701</v>
+      </c>
+      <c r="G140">
+        <v>4841530.830347766</v>
+      </c>
+      <c r="H140">
+        <v>3986175.594532475</v>
+      </c>
+      <c r="I140">
+        <v>1116277.23342602</v>
+      </c>
+      <c r="J140">
+        <v>4841667.313765353</v>
+      </c>
+      <c r="K140">
+        <v>3986574.025934481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>947</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116411.914223601</v>
+      </c>
+      <c r="G141">
+        <v>4841547.343144624</v>
+      </c>
+      <c r="H141">
+        <v>3986187.332861348</v>
+      </c>
+      <c r="I141">
+        <v>1116341.733845069</v>
+      </c>
+      <c r="J141">
+        <v>4841618.662168173</v>
+      </c>
+      <c r="K141">
+        <v>3986393.064966702</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>947</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116411.012839647</v>
+      </c>
+      <c r="G142">
+        <v>4841563.855941484</v>
+      </c>
+      <c r="H142">
+        <v>3986198.629137884</v>
+      </c>
+      <c r="I142">
+        <v>1116407.822527597</v>
+      </c>
+      <c r="J142">
+        <v>4841570.010570996</v>
+      </c>
+      <c r="K142">
+        <v>3986196.955353531</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>947</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116410.16013283</v>
+      </c>
+      <c r="G143">
+        <v>4841580.368738343</v>
+      </c>
+      <c r="H143">
+        <v>3986209.51545167</v>
+      </c>
+      <c r="I143">
+        <v>1116475.538583133</v>
+      </c>
+      <c r="J143">
+        <v>4841521.358973817</v>
+      </c>
+      <c r="K143">
+        <v>3985985.697094968</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>947</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116409.351875703</v>
+      </c>
+      <c r="G144">
+        <v>4841596.881535201</v>
+      </c>
+      <c r="H144">
+        <v>3986220.020520151</v>
+      </c>
+      <c r="I144">
+        <v>1116544.922084238</v>
+      </c>
+      <c r="J144">
+        <v>4841472.707376639</v>
+      </c>
+      <c r="K144">
+        <v>3985759.290191012</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>947</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116408.5843374</v>
+      </c>
+      <c r="G145">
+        <v>4841613.394332061</v>
+      </c>
+      <c r="H145">
+        <v>3986230.170145159</v>
+      </c>
+      <c r="I145">
+        <v>1116616.014090226</v>
+      </c>
+      <c r="J145">
+        <v>4841424.05577946</v>
+      </c>
+      <c r="K145">
+        <v>3985517.734641664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>947</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116407.854211091</v>
+      </c>
+      <c r="G146">
+        <v>4841629.907128921</v>
+      </c>
+      <c r="H146">
+        <v>3986239.987594722</v>
+      </c>
+      <c r="I146">
+        <v>1116688.856671459</v>
+      </c>
+      <c r="J146">
+        <v>4841375.404182282</v>
+      </c>
+      <c r="K146">
+        <v>3985261.030446924</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>947</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116407.158553988</v>
+      </c>
+      <c r="G147">
+        <v>4841646.419925779</v>
+      </c>
+      <c r="H147">
+        <v>3986249.493924336</v>
+      </c>
+      <c r="I147">
+        <v>1116763.49293424</v>
+      </c>
+      <c r="J147">
+        <v>4841326.752585105</v>
+      </c>
+      <c r="K147">
+        <v>3984989.177606792</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>947</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116406.494737399</v>
+      </c>
+      <c r="G148">
+        <v>4841662.932722638</v>
+      </c>
+      <c r="H148">
+        <v>3986258.708248889</v>
+      </c>
+      <c r="I148">
+        <v>1116839.967046329</v>
+      </c>
+      <c r="J148">
+        <v>4841278.100987926</v>
+      </c>
+      <c r="K148">
+        <v>3984702.176121267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>947</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116405.860404914</v>
+      </c>
+      <c r="G149">
+        <v>4841679.445519498</v>
+      </c>
+      <c r="H149">
+        <v>3986267.647974045</v>
+      </c>
+      <c r="I149">
+        <v>1116918.324263072</v>
+      </c>
+      <c r="J149">
+        <v>4841229.449390748</v>
+      </c>
+      <c r="K149">
+        <v>3984400.02599035</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>947</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116405.253437193</v>
+      </c>
+      <c r="G150">
+        <v>4841695.958316356</v>
+      </c>
+      <c r="H150">
+        <v>3986276.328994143</v>
+      </c>
+      <c r="I150">
+        <v>1116998.610954191</v>
+      </c>
+      <c r="J150">
+        <v>4841180.797793569</v>
+      </c>
+      <c r="K150">
+        <v>3984082.727214041</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>947</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116404.671922163</v>
+      </c>
+      <c r="G151">
+        <v>4841712.471113215</v>
+      </c>
+      <c r="H151">
+        <v>3986284.765862259</v>
+      </c>
+      <c r="I151">
+        <v>1117080.874631215</v>
+      </c>
+      <c r="J151">
+        <v>4841132.146196391</v>
+      </c>
+      <c r="K151">
+        <v>3983750.27979234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>947</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116404.114129673</v>
+      </c>
+      <c r="G152">
+        <v>4841728.983910074</v>
+      </c>
+      <c r="H152">
+        <v>3986292.971936994</v>
+      </c>
+      <c r="I152">
+        <v>1117165.163975606</v>
+      </c>
+      <c r="J152">
+        <v>4841083.494599212</v>
+      </c>
+      <c r="K152">
+        <v>3983402.683725246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>947</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116403.578489832</v>
+      </c>
+      <c r="G153">
+        <v>4841745.496706933</v>
+      </c>
+      <c r="H153">
+        <v>3986300.95950972</v>
+      </c>
+      <c r="I153">
+        <v>1117251.528867557</v>
+      </c>
+      <c r="J153">
+        <v>4841034.843002034</v>
+      </c>
+      <c r="K153">
+        <v>3983039.93901276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>947</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116403.063574417</v>
+      </c>
+      <c r="G154">
+        <v>4841762.009503792</v>
+      </c>
+      <c r="H154">
+        <v>3986308.739915322</v>
+      </c>
+      <c r="I154">
+        <v>1117340.020415518</v>
+      </c>
+      <c r="J154">
+        <v>4840986.191404856</v>
+      </c>
+      <c r="K154">
+        <v>3982662.045654881</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>947</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116402.568080853</v>
+      </c>
+      <c r="G155">
+        <v>4841778.52230065</v>
+      </c>
+      <c r="H155">
+        <v>3986316.323628935</v>
+      </c>
+      <c r="I155">
+        <v>1117430.690986438</v>
+      </c>
+      <c r="J155">
+        <v>4840937.539807678</v>
+      </c>
+      <c r="K155">
+        <v>3982269.003651611</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>947</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116402.090818355</v>
+      </c>
+      <c r="G156">
+        <v>4841795.03509751</v>
+      </c>
+      <c r="H156">
+        <v>3986323.720350754</v>
+      </c>
+      <c r="I156">
+        <v>1117523.59423675</v>
+      </c>
+      <c r="J156">
+        <v>4840888.888210499</v>
+      </c>
+      <c r="K156">
+        <v>3981860.813002947</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>947</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116401.630695886</v>
+      </c>
+      <c r="G157">
+        <v>4841811.547894369</v>
+      </c>
+      <c r="H157">
+        <v>3986330.939080636</v>
+      </c>
+      <c r="I157">
+        <v>1117618.785144133</v>
+      </c>
+      <c r="J157">
+        <v>4840840.236613321</v>
+      </c>
+      <c r="K157">
+        <v>3981437.473708892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>947</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116401.186711668</v>
+      </c>
+      <c r="G158">
+        <v>4841828.060691227</v>
+      </c>
+      <c r="H158">
+        <v>3986337.988183936</v>
+      </c>
+      <c r="I158">
+        <v>1117716.320040035</v>
+      </c>
+      <c r="J158">
+        <v>4840791.585016144</v>
+      </c>
+      <c r="K158">
+        <v>3980998.985769444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>947</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116400.757944009</v>
+      </c>
+      <c r="G159">
+        <v>4841844.573488086</v>
+      </c>
+      <c r="H159">
+        <v>3986344.875449785</v>
+      </c>
+      <c r="I159">
+        <v>1117816.256643018</v>
+      </c>
+      <c r="J159">
+        <v>4840742.933418965</v>
+      </c>
+      <c r="K159">
+        <v>3980545.349184604</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>947</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116400.343543259</v>
+      </c>
+      <c r="G160">
+        <v>4841861.086284946</v>
+      </c>
+      <c r="H160">
+        <v>3986351.60814283</v>
+      </c>
+      <c r="I160">
+        <v>1117918.65409291</v>
+      </c>
+      <c r="J160">
+        <v>4840694.281821786</v>
+      </c>
+      <c r="K160">
+        <v>3980076.563954372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>947</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G161">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H161">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I161">
+        <v>1114861.85636564</v>
+      </c>
+      <c r="J161">
+        <v>4843222.959077849</v>
+      </c>
+      <c r="K161">
+        <v>3984361.844919844</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>947</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G162">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H162">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I162">
+        <v>1114891.470375357</v>
+      </c>
+      <c r="J162">
+        <v>4843174.307492783</v>
+      </c>
+      <c r="K162">
+        <v>3984665.640265532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>947</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G163">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H163">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I163">
+        <v>1114921.813602819</v>
+      </c>
+      <c r="J163">
+        <v>4843125.655907718</v>
+      </c>
+      <c r="K163">
+        <v>3984954.286982737</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>947</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G164">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H164">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I164">
+        <v>1114952.904004342</v>
+      </c>
+      <c r="J164">
+        <v>4843077.004322652</v>
+      </c>
+      <c r="K164">
+        <v>3985227.785071456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>947</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G165">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H165">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I165">
+        <v>1114984.7599784</v>
+      </c>
+      <c r="J165">
+        <v>4843028.352737586</v>
+      </c>
+      <c r="K165">
+        <v>3985486.134531693</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>947</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G166">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H166">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I166">
+        <v>1115017.400376512</v>
+      </c>
+      <c r="J166">
+        <v>4842979.701152521</v>
+      </c>
+      <c r="K166">
+        <v>3985729.335363446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>947</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G167">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H167">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I167">
+        <v>1115050.844514399</v>
+      </c>
+      <c r="J167">
+        <v>4842931.049567454</v>
+      </c>
+      <c r="K167">
+        <v>3985957.387566715</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>947</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G168">
+        <v>4841122.383317896</v>
+      </c>
+      <c r="H168">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I168">
+        <v>1115085.112183413</v>
+      </c>
+      <c r="J168">
+        <v>4842882.397982389</v>
+      </c>
+      <c r="K168">
+        <v>3986170.291141499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>947</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116577.938121496</v>
+      </c>
+      <c r="G169">
+        <v>4841138.896129671</v>
+      </c>
+      <c r="H169">
+        <v>3985224.576091689</v>
+      </c>
+      <c r="I169">
+        <v>1115120.223662252</v>
+      </c>
+      <c r="J169">
+        <v>4842833.746397324</v>
+      </c>
+      <c r="K169">
+        <v>3986368.0460878</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>947</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116529.257582391</v>
+      </c>
+      <c r="G170">
+        <v>4841155.408941445</v>
+      </c>
+      <c r="H170">
+        <v>3985423.830310857</v>
+      </c>
+      <c r="I170">
+        <v>1115156.199728954</v>
+      </c>
+      <c r="J170">
+        <v>4842785.094812258</v>
+      </c>
+      <c r="K170">
+        <v>3986550.652405617</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>947</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116500.660207746</v>
+      </c>
+      <c r="G171">
+        <v>4841171.92175322</v>
+      </c>
+      <c r="H171">
+        <v>3985542.516314041</v>
+      </c>
+      <c r="I171">
+        <v>1115193.061673202</v>
+      </c>
+      <c r="J171">
+        <v>4842736.443227191</v>
+      </c>
+      <c r="K171">
+        <v>3986718.110094951</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>947</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116482.607446861</v>
+      </c>
+      <c r="G172">
+        <v>4841188.434564996</v>
+      </c>
+      <c r="H172">
+        <v>3985627.333178836</v>
+      </c>
+      <c r="I172">
+        <v>1115230.831308915</v>
+      </c>
+      <c r="J172">
+        <v>4842687.791642127</v>
+      </c>
+      <c r="K172">
+        <v>3986870.4191558</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>947</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116470.0175247</v>
+      </c>
+      <c r="G173">
+        <v>4841204.947376769</v>
+      </c>
+      <c r="H173">
+        <v>3985693.380026012</v>
+      </c>
+      <c r="I173">
+        <v>1115269.530987159</v>
+      </c>
+      <c r="J173">
+        <v>4842639.140057061</v>
+      </c>
+      <c r="K173">
+        <v>3987007.579588165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>947</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116460.625065743</v>
+      </c>
+      <c r="G174">
+        <v>4841221.460188544</v>
+      </c>
+      <c r="H174">
+        <v>3985747.477516909</v>
+      </c>
+      <c r="I174">
+        <v>1115309.183609378</v>
+      </c>
+      <c r="J174">
+        <v>4842590.488471995</v>
+      </c>
+      <c r="K174">
+        <v>3987129.591392047</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>947</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116453.281474456</v>
+      </c>
+      <c r="G175">
+        <v>4841237.973000319</v>
+      </c>
+      <c r="H175">
+        <v>3985793.294142773</v>
+      </c>
+      <c r="I175">
+        <v>1115349.812640938</v>
+      </c>
+      <c r="J175">
+        <v>4842541.836886929</v>
+      </c>
+      <c r="K175">
+        <v>3987236.454567445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>947</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116447.339974401</v>
+      </c>
+      <c r="G176">
+        <v>4841254.485812093</v>
+      </c>
+      <c r="H176">
+        <v>3985833.03172126</v>
+      </c>
+      <c r="I176">
+        <v>1115391.442125023</v>
+      </c>
+      <c r="J176">
+        <v>4842493.185301864</v>
+      </c>
+      <c r="K176">
+        <v>3987328.169114358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>947</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116442.40641228</v>
+      </c>
+      <c r="G177">
+        <v>4841270.998623868</v>
+      </c>
+      <c r="H177">
+        <v>3985868.116070882</v>
+      </c>
+      <c r="I177">
+        <v>1115434.096696855</v>
+      </c>
+      <c r="J177">
+        <v>4842444.533716798</v>
+      </c>
+      <c r="K177">
+        <v>3987404.735032788</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>947</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116438.225589587</v>
+      </c>
+      <c r="G178">
+        <v>4841287.511435643</v>
+      </c>
+      <c r="H178">
+        <v>3985899.52362378</v>
+      </c>
+      <c r="I178">
+        <v>1115477.801598277</v>
+      </c>
+      <c r="J178">
+        <v>4842395.882131733</v>
+      </c>
+      <c r="K178">
+        <v>3987466.152322734</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>947</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116434.624218719</v>
+      </c>
+      <c r="G179">
+        <v>4841304.024247417</v>
+      </c>
+      <c r="H179">
+        <v>3985927.952447378</v>
+      </c>
+      <c r="I179">
+        <v>1115522.582692689</v>
+      </c>
+      <c r="J179">
+        <v>4842347.230546666</v>
+      </c>
+      <c r="K179">
+        <v>3987512.420984196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>947</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116431.480035863</v>
+      </c>
+      <c r="G180">
+        <v>4841320.537059193</v>
+      </c>
+      <c r="H180">
+        <v>3985953.918931671</v>
+      </c>
+      <c r="I180">
+        <v>1115568.466480352</v>
+      </c>
+      <c r="J180">
+        <v>4842298.578961601</v>
+      </c>
+      <c r="K180">
+        <v>3987543.541017175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>947</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116428.704019572</v>
+      </c>
+      <c r="G181">
+        <v>4841337.049870967</v>
+      </c>
+      <c r="H181">
+        <v>3985977.815831056</v>
+      </c>
+      <c r="I181">
+        <v>1115615.480114075</v>
+      </c>
+      <c r="J181">
+        <v>4842249.927376536</v>
+      </c>
+      <c r="K181">
+        <v>3987559.512421669</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>947</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116426.229625991</v>
+      </c>
+      <c r="G182">
+        <v>4841353.562682741</v>
+      </c>
+      <c r="H182">
+        <v>3985999.948832044</v>
+      </c>
+      <c r="I182">
+        <v>1115663.651415276</v>
+      </c>
+      <c r="J182">
+        <v>4842201.27579147</v>
+      </c>
+      <c r="K182">
+        <v>3987560.33519768</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>947</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116424.00599258</v>
+      </c>
+      <c r="G183">
+        <v>4841370.075494517</v>
+      </c>
+      <c r="H183">
+        <v>3986020.560527349</v>
+      </c>
+      <c r="I183">
+        <v>1115713.008890453</v>
+      </c>
+      <c r="J183">
+        <v>4842152.624206403</v>
+      </c>
+      <c r="K183">
+        <v>3987546.009345206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>947</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116421.993492194</v>
+      </c>
+      <c r="G184">
+        <v>4841386.588306291</v>
+      </c>
+      <c r="H184">
+        <v>3986039.846667198</v>
+      </c>
+      <c r="I184">
+        <v>1115763.581748047</v>
+      </c>
+      <c r="J184">
+        <v>4842103.972621338</v>
+      </c>
+      <c r="K184">
+        <v>3987516.534864249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>947</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116420.160734815</v>
+      </c>
+      <c r="G185">
+        <v>4841403.101118065</v>
+      </c>
+      <c r="H185">
+        <v>3986057.967493314</v>
+      </c>
+      <c r="I185">
+        <v>1115815.399915734</v>
+      </c>
+      <c r="J185">
+        <v>4842055.321036273</v>
+      </c>
+      <c r="K185">
+        <v>3987471.911754807</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>947</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116418.482491541</v>
+      </c>
+      <c r="G186">
+        <v>4841419.61392984</v>
+      </c>
+      <c r="H186">
+        <v>3986075.055839602</v>
+      </c>
+      <c r="I186">
+        <v>1115868.494058128</v>
+      </c>
+      <c r="J186">
+        <v>4842006.669451206</v>
+      </c>
+      <c r="K186">
+        <v>3987412.140016882</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>947</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116416.938223612</v>
+      </c>
+      <c r="G187">
+        <v>4841436.126741615</v>
+      </c>
+      <c r="H187">
+        <v>3986091.223046901</v>
+      </c>
+      <c r="I187">
+        <v>1115922.895594933</v>
+      </c>
+      <c r="J187">
+        <v>4841958.017866141</v>
+      </c>
+      <c r="K187">
+        <v>3987337.219650473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>947</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116415.511018736</v>
+      </c>
+      <c r="G188">
+        <v>4841452.63955339</v>
+      </c>
+      <c r="H188">
+        <v>3986106.563363535</v>
+      </c>
+      <c r="I188">
+        <v>1115978.636719533</v>
+      </c>
+      <c r="J188">
+        <v>4841909.366281075</v>
+      </c>
+      <c r="K188">
+        <v>3987247.150655581</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>947</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116414.186807903</v>
+      </c>
+      <c r="G189">
+        <v>4841469.152365164</v>
+      </c>
+      <c r="H189">
+        <v>3986121.157274271</v>
+      </c>
+      <c r="I189">
+        <v>1116035.750418046</v>
+      </c>
+      <c r="J189">
+        <v>4841860.71469601</v>
+      </c>
+      <c r="K189">
+        <v>3987141.933032204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>947</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116412.953779334</v>
+      </c>
+      <c r="G190">
+        <v>4841485.665176939</v>
+      </c>
+      <c r="H190">
+        <v>3986135.074056323</v>
+      </c>
+      <c r="I190">
+        <v>1116094.270488841</v>
+      </c>
+      <c r="J190">
+        <v>4841812.063110944</v>
+      </c>
+      <c r="K190">
+        <v>3987021.566780344</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>947</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116411.801933525</v>
+      </c>
+      <c r="G191">
+        <v>4841502.177988714</v>
+      </c>
+      <c r="H191">
+        <v>3986148.373768256</v>
+      </c>
+      <c r="I191">
+        <v>1116154.231562542</v>
+      </c>
+      <c r="J191">
+        <v>4841763.411525878</v>
+      </c>
+      <c r="K191">
+        <v>3986886.051899999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>947</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116410.722740933</v>
+      </c>
+      <c r="G192">
+        <v>4841518.690800488</v>
+      </c>
+      <c r="H192">
+        <v>3986161.108816368</v>
+      </c>
+      <c r="I192">
+        <v>1116215.669122519</v>
+      </c>
+      <c r="J192">
+        <v>4841714.759940812</v>
+      </c>
+      <c r="K192">
+        <v>3986735.388391171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>947</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116409.708875475</v>
+      </c>
+      <c r="G193">
+        <v>4841535.203612263</v>
+      </c>
+      <c r="H193">
+        <v>3986173.325201907</v>
+      </c>
+      <c r="I193">
+        <v>1116278.61952589</v>
+      </c>
+      <c r="J193">
+        <v>4841666.108355748</v>
+      </c>
+      <c r="K193">
+        <v>3986569.576253859</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>947</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116408.754004769</v>
+      </c>
+      <c r="G194">
+        <v>4841551.716424037</v>
+      </c>
+      <c r="H194">
+        <v>3986185.063524097</v>
+      </c>
+      <c r="I194">
+        <v>1116343.12002503</v>
+      </c>
+      <c r="J194">
+        <v>4841617.456770681</v>
+      </c>
+      <c r="K194">
+        <v>3986388.615488063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>947</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116407.852623367</v>
+      </c>
+      <c r="G195">
+        <v>4841568.229235812</v>
+      </c>
+      <c r="H195">
+        <v>3986196.359794202</v>
+      </c>
+      <c r="I195">
+        <v>1116409.208789622</v>
+      </c>
+      <c r="J195">
+        <v>4841568.805185616</v>
+      </c>
+      <c r="K195">
+        <v>3986192.506093783</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>947</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116406.999918963</v>
+      </c>
+      <c r="G196">
+        <v>4841584.742047587</v>
+      </c>
+      <c r="H196">
+        <v>3986207.246101791</v>
+      </c>
+      <c r="I196">
+        <v>1116476.924929241</v>
+      </c>
+      <c r="J196">
+        <v>4841520.15360055</v>
+      </c>
+      <c r="K196">
+        <v>3985981.248071019</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>947</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116406.191664124</v>
+      </c>
+      <c r="G197">
+        <v>4841601.254859361</v>
+      </c>
+      <c r="H197">
+        <v>3986217.751164291</v>
+      </c>
+      <c r="I197">
+        <v>1116546.308516501</v>
+      </c>
+      <c r="J197">
+        <v>4841471.502015484</v>
+      </c>
+      <c r="K197">
+        <v>3985754.841419771</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>947</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116405.424127994</v>
+      </c>
+      <c r="G198">
+        <v>4841617.767671136</v>
+      </c>
+      <c r="H198">
+        <v>3986227.900783521</v>
+      </c>
+      <c r="I198">
+        <v>1116617.400610766</v>
+      </c>
+      <c r="J198">
+        <v>4841422.850430419</v>
+      </c>
+      <c r="K198">
+        <v>3985513.28614004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>947</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116404.694003752</v>
+      </c>
+      <c r="G199">
+        <v>4841634.280482912</v>
+      </c>
+      <c r="H199">
+        <v>3986237.718227495</v>
+      </c>
+      <c r="I199">
+        <v>1116690.243282448</v>
+      </c>
+      <c r="J199">
+        <v>4841374.198845353</v>
+      </c>
+      <c r="K199">
+        <v>3985256.582231824</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>947</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116403.998348618</v>
+      </c>
+      <c r="G200">
+        <v>4841650.793294685</v>
+      </c>
+      <c r="H200">
+        <v>3986247.224551697</v>
+      </c>
+      <c r="I200">
+        <v>1116764.879637907</v>
+      </c>
+      <c r="J200">
+        <v>4841325.547260287</v>
+      </c>
+      <c r="K200">
+        <v>3984984.729695125</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>947</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116403.334533908</v>
+      </c>
+      <c r="G201">
+        <v>4841667.30610646</v>
+      </c>
+      <c r="H201">
+        <v>3986256.438871004</v>
+      </c>
+      <c r="I201">
+        <v>1116841.353844954</v>
+      </c>
+      <c r="J201">
+        <v>4841276.895675222</v>
+      </c>
+      <c r="K201">
+        <v>3984697.728529941</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>947</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116402.700203219</v>
+      </c>
+      <c r="G202">
+        <v>4841683.818918236</v>
+      </c>
+      <c r="H202">
+        <v>3986265.37859107</v>
+      </c>
+      <c r="I202">
+        <v>1116919.711158995</v>
+      </c>
+      <c r="J202">
+        <v>4841228.244090156</v>
+      </c>
+      <c r="K202">
+        <v>3984395.578736275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>947</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116402.093237216</v>
+      </c>
+      <c r="G203">
+        <v>4841700.331730009</v>
+      </c>
+      <c r="H203">
+        <v>3986274.059606227</v>
+      </c>
+      <c r="I203">
+        <v>1116999.997949807</v>
+      </c>
+      <c r="J203">
+        <v>4841179.59250509</v>
+      </c>
+      <c r="K203">
+        <v>3984078.280314123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>947</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116401.511723832</v>
+      </c>
+      <c r="G204">
+        <v>4841716.844541784</v>
+      </c>
+      <c r="H204">
+        <v>3986282.49646954</v>
+      </c>
+      <c r="I204">
+        <v>1117082.26172898</v>
+      </c>
+      <c r="J204">
+        <v>4841130.940920025</v>
+      </c>
+      <c r="K204">
+        <v>3983745.833263489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>947</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116400.953932921</v>
+      </c>
+      <c r="G205">
+        <v>4841733.357353559</v>
+      </c>
+      <c r="H205">
+        <v>3986290.702539602</v>
+      </c>
+      <c r="I205">
+        <v>1117166.551178034</v>
+      </c>
+      <c r="J205">
+        <v>4841082.289334958</v>
+      </c>
+      <c r="K205">
+        <v>3983398.23758437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>947</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116400.418294596</v>
+      </c>
+      <c r="G206">
+        <v>4841749.870165333</v>
+      </c>
+      <c r="H206">
+        <v>3986298.690107781</v>
+      </c>
+      <c r="I206">
+        <v>1117252.916177226</v>
+      </c>
+      <c r="J206">
+        <v>4841033.637749893</v>
+      </c>
+      <c r="K206">
+        <v>3983035.493276767</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>947</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116399.903380638</v>
+      </c>
+      <c r="G207">
+        <v>4841766.382977108</v>
+      </c>
+      <c r="H207">
+        <v>3986306.470508954</v>
+      </c>
+      <c r="I207">
+        <v>1117341.407835069</v>
+      </c>
+      <c r="J207">
+        <v>4840984.986164828</v>
+      </c>
+      <c r="K207">
+        <v>3982657.600340681</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>947</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116399.407888477</v>
+      </c>
+      <c r="G208">
+        <v>4841782.895788883</v>
+      </c>
+      <c r="H208">
+        <v>3986314.05421825</v>
+      </c>
+      <c r="I208">
+        <v>1117432.078518575</v>
+      </c>
+      <c r="J208">
+        <v>4840936.334579762</v>
+      </c>
+      <c r="K208">
+        <v>3982264.558776111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>947</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116398.93062733</v>
+      </c>
+      <c r="G209">
+        <v>4841799.408600657</v>
+      </c>
+      <c r="H209">
+        <v>3986321.450935858</v>
+      </c>
+      <c r="I209">
+        <v>1117524.981884247</v>
+      </c>
+      <c r="J209">
+        <v>4840887.682994695</v>
+      </c>
+      <c r="K209">
+        <v>3981856.368583056</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>947</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116398.470506164</v>
+      </c>
+      <c r="G210">
+        <v>4841815.921412433</v>
+      </c>
+      <c r="H210">
+        <v>3986328.66966163</v>
+      </c>
+      <c r="I210">
+        <v>1117620.172909829</v>
+      </c>
+      <c r="J210">
+        <v>4840839.031409631</v>
+      </c>
+      <c r="K210">
+        <v>3981433.029761518</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>947</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116398.026523202</v>
+      </c>
+      <c r="G211">
+        <v>4841832.434224207</v>
+      </c>
+      <c r="H211">
+        <v>3986335.718760917</v>
+      </c>
+      <c r="I211">
+        <v>1117717.707926842</v>
+      </c>
+      <c r="J211">
+        <v>4840790.379824565</v>
+      </c>
+      <c r="K211">
+        <v>3980994.542311496</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>947</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116397.597756758</v>
+      </c>
+      <c r="G212">
+        <v>4841848.947035981</v>
+      </c>
+      <c r="H212">
+        <v>3986342.606022846</v>
+      </c>
+      <c r="I212">
+        <v>1117817.644653919</v>
+      </c>
+      <c r="J212">
+        <v>4840741.728239499</v>
+      </c>
+      <c r="K212">
+        <v>3980540.90623299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>947</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116397.18335718</v>
+      </c>
+      <c r="G213">
+        <v>4841865.459847757</v>
+      </c>
+      <c r="H213">
+        <v>3986349.338712057</v>
+      </c>
+      <c r="I213">
+        <v>1117920.04223096</v>
+      </c>
+      <c r="J213">
+        <v>4840693.076654433</v>
+      </c>
+      <c r="K213">
+        <v>3980072.121526001</v>
       </c>
     </row>
   </sheetData>
